--- a/Outputs/1. Budget/Grid Search/Output Files/1500000/Output_20_27.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/1500000/Output_20_27.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1764942.027883836</v>
+        <v>1760638.380612453</v>
       </c>
     </row>
     <row r="7">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>416855.1052283187</v>
+        <v>416855.1052283185</v>
       </c>
     </row>
     <row r="9">
@@ -658,28 +658,28 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>239.807948141505</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>211.2228407230376</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>92.72679982914711</v>
       </c>
       <c r="F2" t="n">
-        <v>239.807948141505</v>
+        <v>239.8079481415049</v>
       </c>
       <c r="G2" t="n">
-        <v>239.807948141505</v>
+        <v>239.8079481415049</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>118.4960408938903</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -715,7 +715,7 @@
         <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>239.8079481415049</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
@@ -740,16 +740,16 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C3" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D3" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E3" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F3" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G3" t="n">
         <v>0</v>
@@ -758,7 +758,7 @@
         <v>99.90681807664345</v>
       </c>
       <c r="I3" t="n">
-        <v>45.44580843958668</v>
+        <v>20.43804541746675</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -785,7 +785,7 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>0</v>
+        <v>20.90078060183512</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
@@ -800,13 +800,13 @@
         <v>0</v>
       </c>
       <c r="W3" t="n">
-        <v>207.305194000673</v>
+        <v>0</v>
       </c>
       <c r="X3" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y3" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4">
@@ -816,19 +816,19 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
         <v>0</v>
@@ -837,10 +837,10 @@
         <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>123.266557879417</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>17.695841881769</v>
+        <v>17.69584188176901</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -864,16 +864,16 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>129.1731816677913</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>205.3658819001186</v>
+        <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>223.3729047207587</v>
+        <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>51.94033691576052</v>
+        <v>0</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -882,10 +882,10 @@
         <v>0</v>
       </c>
       <c r="X4" t="n">
-        <v>0</v>
+        <v>86.64888512734748</v>
       </c>
       <c r="Y4" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="5">
@@ -895,10 +895,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>290.2905114143446</v>
+        <v>255.6878824537573</v>
       </c>
       <c r="C5" t="n">
-        <v>290.2905114143446</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
         <v>0</v>
@@ -907,13 +907,13 @@
         <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>242.945679379454</v>
+        <v>290.2905114143475</v>
       </c>
       <c r="G5" t="n">
-        <v>12.74220307430065</v>
+        <v>290.2905114143475</v>
       </c>
       <c r="H5" t="n">
-        <v>290.2905114143446</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
         <v>0</v>
@@ -964,7 +964,7 @@
         <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>0</v>
+        <v>290.2905114143475</v>
       </c>
     </row>
     <row r="6">
@@ -977,16 +977,16 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C6" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D6" t="n">
-        <v>147.4450655646388</v>
+        <v>127.9642235605059</v>
       </c>
       <c r="E6" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F6" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G6" t="n">
         <v>0</v>
@@ -995,7 +995,7 @@
         <v>0</v>
       </c>
       <c r="I6" t="n">
-        <v>37.39195332737003</v>
+        <v>0</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -1022,7 +1022,7 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>15.09724236790377</v>
+        <v>15.09724236790346</v>
       </c>
       <c r="S6" t="n">
         <v>0</v>
@@ -1034,13 +1034,13 @@
         <v>0</v>
       </c>
       <c r="V6" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W6" t="n">
-        <v>251.6949831609196</v>
+        <v>0</v>
       </c>
       <c r="X6" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y6" t="n">
         <v>205.6826957773044</v>
@@ -1053,22 +1053,22 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
         <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>166.8424117578468</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
         <v>0</v>
@@ -1077,7 +1077,7 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>12.15545075340532</v>
+        <v>0</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -1110,19 +1110,19 @@
         <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>194.6563557067855</v>
+        <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>0</v>
+        <v>149.9979284871898</v>
       </c>
       <c r="W7" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X7" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="8">
@@ -1132,7 +1132,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>154.328277401938</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
         <v>0</v>
@@ -1147,13 +1147,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G8" t="n">
-        <v>411.547702772954</v>
+        <v>11.54770277295399</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>57.74751945339602</v>
       </c>
       <c r="I8" t="n">
-        <v>65.70991267247049</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1189,19 +1189,19 @@
         <v>206.6581849802338</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>251.045250128462</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -1293,22 +1293,22 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
         <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>147.2515091551289</v>
+        <v>0</v>
       </c>
       <c r="I10" t="n">
         <v>0</v>
@@ -1344,10 +1344,10 @@
         <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>198.7914017006482</v>
+        <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>286.2271541212006</v>
+        <v>243.1374135427318</v>
       </c>
       <c r="V10" t="n">
         <v>252.137643323828</v>
@@ -1359,7 +1359,7 @@
         <v>0</v>
       </c>
       <c r="Y10" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -1381,7 +1381,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F11" t="n">
-        <v>406.8760457417114</v>
+        <v>406.8760457417118</v>
       </c>
       <c r="G11" t="n">
         <v>409.8033385187866</v>
@@ -1420,7 +1420,7 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T11" t="n">
         <v>199.0222304576161</v>
@@ -1429,7 +1429,7 @@
         <v>250.9057009881286</v>
       </c>
       <c r="V11" t="n">
-        <v>327.7522584701346</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W11" t="n">
         <v>349.240968717413</v>
@@ -1527,10 +1527,10 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>105.6356839950556</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
         <v>148.6154730182124</v>
@@ -1545,10 +1545,10 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H13" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1575,16 +1575,16 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>181.0262860016446</v>
+        <v>57.24347904696366</v>
       </c>
       <c r="T13" t="n">
         <v>217.4054503272883</v>
       </c>
       <c r="U13" t="n">
-        <v>0</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V13" t="n">
         <v>252.137643323828</v>
@@ -1596,7 +1596,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y13" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="14">
@@ -1624,7 +1624,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H14" t="n">
-        <v>283.1540821444132</v>
+        <v>283.1540821444137</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
@@ -1657,10 +1657,10 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T14" t="n">
-        <v>199.0222304576161</v>
+        <v>199.0222304576164</v>
       </c>
       <c r="U14" t="n">
         <v>250.9057009881286</v>
@@ -1764,13 +1764,13 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
         <v>146.4339626465692</v>
@@ -1779,10 +1779,10 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
-        <v>165.5241382922688</v>
+        <v>55.52079624060473</v>
       </c>
       <c r="H16" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
         <v>0</v>
@@ -1812,16 +1812,16 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
         <v>217.4054503272883</v>
       </c>
       <c r="U16" t="n">
-        <v>284.1791610783666</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V16" t="n">
         <v>252.137643323828</v>
@@ -1894,16 +1894,16 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T17" t="n">
-        <v>199.0222304576161</v>
+        <v>199.0222304576164</v>
       </c>
       <c r="U17" t="n">
         <v>250.9057009881286</v>
       </c>
       <c r="V17" t="n">
-        <v>327.7522584701346</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W17" t="n">
         <v>349.240968717413</v>
@@ -2001,7 +2001,7 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
         <v>167.2468210986278</v>
@@ -2013,7 +2013,7 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
         <v>165.5241382922688</v>
@@ -2022,7 +2022,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I19" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2049,10 +2049,10 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>66.37524671012169</v>
+        <v>39.56681219551463</v>
       </c>
       <c r="S19" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T19" t="n">
         <v>217.4054503272883</v>
@@ -2061,7 +2061,7 @@
         <v>286.1844743892441</v>
       </c>
       <c r="V19" t="n">
-        <v>78.71385496658196</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W19" t="n">
         <v>286.522998336591</v>
@@ -2089,7 +2089,7 @@
         <v>354.683041620683</v>
       </c>
       <c r="E20" t="n">
-        <v>381.9303700722618</v>
+        <v>381.9303700722614</v>
       </c>
       <c r="F20" t="n">
         <v>406.8760457417114</v>
@@ -2134,7 +2134,7 @@
         <v>83.7025149569553</v>
       </c>
       <c r="T20" t="n">
-        <v>199.0222304576164</v>
+        <v>199.0222304576161</v>
       </c>
       <c r="U20" t="n">
         <v>250.9057009881286</v>
@@ -2241,22 +2241,22 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>42.71572132711237</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I22" t="n">
         <v>81.26583631856553</v>
@@ -2295,13 +2295,13 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U22" t="n">
-        <v>286.1844743892441</v>
+        <v>0</v>
       </c>
       <c r="V22" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W22" t="n">
-        <v>286.522998336591</v>
+        <v>139.1630968205461</v>
       </c>
       <c r="X22" t="n">
         <v>225.7096553890372</v>
@@ -2332,7 +2332,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G23" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8033385187871</v>
       </c>
       <c r="H23" t="n">
         <v>283.1540821444137</v>
@@ -2368,7 +2368,7 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T23" t="n">
         <v>199.0222304576161</v>
@@ -2484,19 +2484,19 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H25" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2526,10 +2526,10 @@
         <v>66.37524671012169</v>
       </c>
       <c r="S25" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T25" t="n">
-        <v>95.81917536083702</v>
+        <v>186.4479095884334</v>
       </c>
       <c r="U25" t="n">
         <v>286.1844743892441</v>
@@ -2721,7 +2721,7 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
         <v>145.4210480229312</v>
@@ -2730,10 +2730,10 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H28" t="n">
-        <v>107.4021082756238</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2763,16 +2763,16 @@
         <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>0</v>
+        <v>67.00771475394369</v>
       </c>
       <c r="T28" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U28" t="n">
         <v>286.1844743892441</v>
       </c>
       <c r="V28" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W28" t="n">
         <v>286.522998336591</v>
@@ -2851,7 +2851,7 @@
         <v>250.9057009881286</v>
       </c>
       <c r="V29" t="n">
-        <v>327.7522584701337</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W29" t="n">
         <v>349.240968717413</v>
@@ -2955,7 +2955,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
         <v>0</v>
@@ -2964,10 +2964,10 @@
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>99.97427419833816</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I31" t="n">
         <v>0</v>
@@ -3003,7 +3003,7 @@
         <v>181.0262860016446</v>
       </c>
       <c r="T31" t="n">
-        <v>217.4054503272883</v>
+        <v>160.1763464053459</v>
       </c>
       <c r="U31" t="n">
         <v>286.1844743892441</v>
@@ -3040,7 +3040,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F32" t="n">
-        <v>406.8760457417109</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G32" t="n">
         <v>409.8033385187866</v>
@@ -3085,7 +3085,7 @@
         <v>199.0222304576161</v>
       </c>
       <c r="U32" t="n">
-        <v>250.9057009881286</v>
+        <v>250.9057009881287</v>
       </c>
       <c r="V32" t="n">
         <v>327.7522584701349</v>
@@ -3192,13 +3192,13 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D34" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G34" t="n">
         <v>165.5241382922688</v>
@@ -3207,7 +3207,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I34" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3234,16 +3234,16 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>0</v>
+        <v>9.146142788179482</v>
       </c>
       <c r="S34" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T34" t="n">
         <v>217.4054503272883</v>
       </c>
       <c r="U34" t="n">
-        <v>0</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V34" t="n">
         <v>252.137643323828</v>
@@ -3252,7 +3252,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X34" t="n">
-        <v>180.330238561827</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y34" t="n">
         <v>218.5846533520948</v>
@@ -3325,7 +3325,7 @@
         <v>250.9057009881286</v>
       </c>
       <c r="V35" t="n">
-        <v>327.7522584701346</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W35" t="n">
         <v>349.240968717413</v>
@@ -3471,22 +3471,22 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S37" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T37" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U37" t="n">
-        <v>286.1844743892441</v>
+        <v>105.6507867899569</v>
       </c>
       <c r="V37" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W37" t="n">
-        <v>26.07046444232026</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X37" t="n">
         <v>225.7096553890372</v>
@@ -3508,7 +3508,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D38" t="n">
-        <v>354.683041620683</v>
+        <v>354.6830416206824</v>
       </c>
       <c r="E38" t="n">
         <v>381.9303700722618</v>
@@ -3660,7 +3660,7 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C40" t="n">
         <v>167.2468210986278</v>
@@ -3672,7 +3672,7 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F40" t="n">
-        <v>71.79687029690999</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
         <v>165.5241382922688</v>
@@ -3681,7 +3681,7 @@
         <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3708,13 +3708,13 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>0</v>
+        <v>33.2461711990992</v>
       </c>
       <c r="S40" t="n">
         <v>181.0262860016446</v>
       </c>
       <c r="T40" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U40" t="n">
         <v>286.1844743892441</v>
@@ -3726,7 +3726,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X40" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y40" t="n">
         <v>218.5846533520948</v>
@@ -3748,7 +3748,7 @@
         <v>354.683041620683</v>
       </c>
       <c r="E41" t="n">
-        <v>381.9303700722614</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F41" t="n">
         <v>406.8760457417114</v>
@@ -3790,7 +3790,7 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T41" t="n">
         <v>199.0222304576161</v>
@@ -3900,7 +3900,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C43" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D43" t="n">
         <v>148.6154730182124</v>
@@ -3912,7 +3912,7 @@
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>95.81917536083792</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H43" t="n">
         <v>140.2947128462239</v>
@@ -3951,7 +3951,7 @@
         <v>181.0262860016446</v>
       </c>
       <c r="T43" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U43" t="n">
         <v>286.1844743892441</v>
@@ -3963,7 +3963,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X43" t="n">
-        <v>225.7096553890372</v>
+        <v>105.8460632289449</v>
       </c>
       <c r="Y43" t="n">
         <v>218.5846533520948</v>
@@ -4033,7 +4033,7 @@
         <v>199.0222304576161</v>
       </c>
       <c r="U44" t="n">
-        <v>250.9057009881284</v>
+        <v>250.9057009881286</v>
       </c>
       <c r="V44" t="n">
         <v>327.7522584701349</v>
@@ -4137,22 +4137,22 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C46" t="n">
-        <v>167.2468210986278</v>
+        <v>110.0177171766856</v>
       </c>
       <c r="D46" t="n">
         <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G46" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H46" t="n">
-        <v>38.61213096654735</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I46" t="n">
         <v>0</v>
@@ -4182,10 +4182,10 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S46" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T46" t="n">
         <v>217.4054503272883</v>
@@ -4306,76 +4306,76 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>717.0015419180351</v>
+        <v>717.0015419180347</v>
       </c>
       <c r="C2" t="n">
-        <v>503.64513714729</v>
+        <v>717.0015419180347</v>
       </c>
       <c r="D2" t="n">
-        <v>503.64513714729</v>
+        <v>717.0015419180347</v>
       </c>
       <c r="E2" t="n">
-        <v>503.64513714729</v>
+        <v>623.338107747179</v>
       </c>
       <c r="F2" t="n">
-        <v>261.4148864993052</v>
+        <v>381.1078570991943</v>
       </c>
       <c r="G2" t="n">
-        <v>19.1846358513204</v>
+        <v>138.8776064512096</v>
       </c>
       <c r="H2" t="n">
-        <v>19.1846358513204</v>
+        <v>138.8776064512096</v>
       </c>
       <c r="I2" t="n">
-        <v>19.1846358513204</v>
+        <v>19.18463585132039</v>
       </c>
       <c r="J2" t="n">
-        <v>40.41888584470371</v>
+        <v>40.41888584470325</v>
       </c>
       <c r="K2" t="n">
-        <v>122.982040419296</v>
+        <v>122.9820404192956</v>
       </c>
       <c r="L2" t="n">
-        <v>262.3106962605494</v>
+        <v>262.3106962605486</v>
       </c>
       <c r="M2" t="n">
-        <v>449.0101090859567</v>
+        <v>449.0101090859561</v>
       </c>
       <c r="N2" t="n">
-        <v>643.344321977939</v>
+        <v>643.3443219779382</v>
       </c>
       <c r="O2" t="n">
-        <v>813.5133472948985</v>
+        <v>813.5133472948976</v>
       </c>
       <c r="P2" t="n">
-        <v>924.2476725444249</v>
+        <v>924.2476725444243</v>
       </c>
       <c r="Q2" t="n">
-        <v>959.2317925660199</v>
+        <v>959.2317925660193</v>
       </c>
       <c r="R2" t="n">
-        <v>959.2317925660199</v>
+        <v>959.2317925660194</v>
       </c>
       <c r="S2" t="n">
-        <v>959.2317925660199</v>
+        <v>959.2317925660194</v>
       </c>
       <c r="T2" t="n">
-        <v>959.2317925660199</v>
+        <v>959.2317925660194</v>
       </c>
       <c r="U2" t="n">
-        <v>959.2317925660199</v>
+        <v>717.0015419180347</v>
       </c>
       <c r="V2" t="n">
-        <v>959.2317925660199</v>
+        <v>717.0015419180347</v>
       </c>
       <c r="W2" t="n">
-        <v>959.2317925660199</v>
+        <v>717.0015419180347</v>
       </c>
       <c r="X2" t="n">
-        <v>959.2317925660199</v>
+        <v>717.0015419180347</v>
       </c>
       <c r="Y2" t="n">
-        <v>959.2317925660199</v>
+        <v>717.0015419180347</v>
       </c>
     </row>
     <row r="3">
@@ -4385,76 +4385,76 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>166.0054707161993</v>
+        <v>769.9045559481381</v>
       </c>
       <c r="C3" t="n">
-        <v>166.0054707161993</v>
+        <v>595.4515266670111</v>
       </c>
       <c r="D3" t="n">
-        <v>166.0054707161993</v>
+        <v>446.5171170057598</v>
       </c>
       <c r="E3" t="n">
-        <v>166.0054707161993</v>
+        <v>287.2796620003043</v>
       </c>
       <c r="F3" t="n">
-        <v>166.0054707161993</v>
+        <v>140.7451040271893</v>
       </c>
       <c r="G3" t="n">
-        <v>166.0054707161993</v>
+        <v>140.7451040271893</v>
       </c>
       <c r="H3" t="n">
-        <v>65.08949286100392</v>
+        <v>39.82912617199388</v>
       </c>
       <c r="I3" t="n">
-        <v>19.1846358513204</v>
+        <v>19.18463585132039</v>
       </c>
       <c r="J3" t="n">
-        <v>19.1846358513204</v>
+        <v>19.18463585132039</v>
       </c>
       <c r="K3" t="n">
-        <v>94.99670283953495</v>
+        <v>86.79245551467734</v>
       </c>
       <c r="L3" t="n">
-        <v>232.2263008552289</v>
+        <v>224.0220535303712</v>
       </c>
       <c r="M3" t="n">
-        <v>469.6361695153188</v>
+        <v>403.5193898849759</v>
       </c>
       <c r="N3" t="n">
-        <v>668.2929111679834</v>
+        <v>602.1761315376405</v>
       </c>
       <c r="O3" t="n">
-        <v>827.8052238367441</v>
+        <v>761.688444206401</v>
       </c>
       <c r="P3" t="n">
-        <v>936.4948513640429</v>
+        <v>870.3780717336997</v>
       </c>
       <c r="Q3" t="n">
-        <v>959.2317925660199</v>
+        <v>959.2317925660194</v>
       </c>
       <c r="R3" t="n">
-        <v>959.2317925660199</v>
+        <v>938.1198929682062</v>
       </c>
       <c r="S3" t="n">
-        <v>959.2317925660199</v>
+        <v>938.1198929682062</v>
       </c>
       <c r="T3" t="n">
-        <v>959.2317925660199</v>
+        <v>938.1198929682062</v>
       </c>
       <c r="U3" t="n">
-        <v>959.2317925660199</v>
+        <v>938.1198929682062</v>
       </c>
       <c r="V3" t="n">
-        <v>959.2317925660199</v>
+        <v>938.1198929682062</v>
       </c>
       <c r="W3" t="n">
-        <v>749.8326067067542</v>
+        <v>938.1198929682062</v>
       </c>
       <c r="X3" t="n">
-        <v>541.9811065012213</v>
+        <v>938.1198929682062</v>
       </c>
       <c r="Y3" t="n">
-        <v>334.2208077362674</v>
+        <v>938.1198929682062</v>
       </c>
     </row>
     <row r="4">
@@ -4464,31 +4464,31 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>161.5708982363568</v>
+        <v>650.9150870312292</v>
       </c>
       <c r="C4" t="n">
-        <v>161.5708982363568</v>
+        <v>481.9789041033223</v>
       </c>
       <c r="D4" t="n">
-        <v>161.5708982363568</v>
+        <v>331.8622646909865</v>
       </c>
       <c r="E4" t="n">
-        <v>161.5708982363568</v>
+        <v>183.9491711085934</v>
       </c>
       <c r="F4" t="n">
-        <v>161.5708982363568</v>
+        <v>37.05922361068303</v>
       </c>
       <c r="G4" t="n">
-        <v>161.5708982363568</v>
+        <v>37.05922361068303</v>
       </c>
       <c r="H4" t="n">
-        <v>161.5708982363568</v>
+        <v>37.05922361068303</v>
       </c>
       <c r="I4" t="n">
-        <v>37.05922361068302</v>
+        <v>37.05922361068303</v>
       </c>
       <c r="J4" t="n">
-        <v>19.1846358513204</v>
+        <v>19.18463585132039</v>
       </c>
       <c r="K4" t="n">
         <v>120.2325654469302</v>
@@ -4497,43 +4497,43 @@
         <v>305.0655603477485</v>
       </c>
       <c r="M4" t="n">
-        <v>510.3351610669864</v>
+        <v>450.4476363223408</v>
       </c>
       <c r="N4" t="n">
-        <v>716.1585259030907</v>
+        <v>656.2710011584451</v>
       </c>
       <c r="O4" t="n">
-        <v>890.2534212916895</v>
+        <v>830.3658965470439</v>
       </c>
       <c r="P4" t="n">
-        <v>955.8134731456599</v>
+        <v>955.8134731456595</v>
       </c>
       <c r="Q4" t="n">
-        <v>959.2317925660199</v>
+        <v>959.2317925660194</v>
       </c>
       <c r="R4" t="n">
-        <v>828.7538312854226</v>
+        <v>959.2317925660194</v>
       </c>
       <c r="S4" t="n">
-        <v>621.313546537828</v>
+        <v>959.2317925660194</v>
       </c>
       <c r="T4" t="n">
-        <v>395.6843498501929</v>
+        <v>959.2317925660194</v>
       </c>
       <c r="U4" t="n">
-        <v>343.2193630665964</v>
+        <v>959.2317925660194</v>
       </c>
       <c r="V4" t="n">
-        <v>343.2193630665964</v>
+        <v>959.2317925660194</v>
       </c>
       <c r="W4" t="n">
-        <v>343.2193630665964</v>
+        <v>959.2317925660194</v>
       </c>
       <c r="X4" t="n">
-        <v>343.2193630665964</v>
+        <v>871.7076661747593</v>
       </c>
       <c r="Y4" t="n">
-        <v>343.2193630665964</v>
+        <v>650.9150870312292</v>
       </c>
     </row>
     <row r="5">
@@ -4543,76 +4543,76 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>867.9393068550102</v>
+        <v>609.6687185178901</v>
       </c>
       <c r="C5" t="n">
-        <v>574.7165680526418</v>
+        <v>609.6687185178901</v>
       </c>
       <c r="D5" t="n">
-        <v>574.7165680526418</v>
+        <v>609.6687185178901</v>
       </c>
       <c r="E5" t="n">
-        <v>574.7165680526418</v>
+        <v>609.6687185178901</v>
       </c>
       <c r="F5" t="n">
-        <v>329.3168919117792</v>
+        <v>316.4459797155189</v>
       </c>
       <c r="G5" t="n">
-        <v>316.4459797155159</v>
+        <v>23.2232409131478</v>
       </c>
       <c r="H5" t="n">
-        <v>23.22324091314757</v>
+        <v>23.2232409131478</v>
       </c>
       <c r="I5" t="n">
-        <v>23.22324091314757</v>
+        <v>23.2232409131478</v>
       </c>
       <c r="J5" t="n">
-        <v>59.13673382951856</v>
+        <v>59.13673382952038</v>
       </c>
       <c r="K5" t="n">
-        <v>163.7002683444935</v>
+        <v>163.7002683444962</v>
       </c>
       <c r="L5" t="n">
-        <v>330.3223409084605</v>
+        <v>330.3223409084648</v>
       </c>
       <c r="M5" t="n">
-        <v>547.3909387162818</v>
+        <v>547.3909387162877</v>
       </c>
       <c r="N5" t="n">
-        <v>772.5857417536985</v>
+        <v>772.5857417537061</v>
       </c>
       <c r="O5" t="n">
-        <v>971.895547241684</v>
+        <v>971.8955472416931</v>
       </c>
       <c r="P5" t="n">
-        <v>1107.500854171405</v>
+        <v>1107.500854171415</v>
       </c>
       <c r="Q5" t="n">
-        <v>1161.162045657378</v>
+        <v>1161.16204565739</v>
       </c>
       <c r="R5" t="n">
-        <v>1161.162045657378</v>
+        <v>1161.16204565739</v>
       </c>
       <c r="S5" t="n">
-        <v>1161.162045657378</v>
+        <v>1161.16204565739</v>
       </c>
       <c r="T5" t="n">
-        <v>1161.162045657378</v>
+        <v>1161.16204565739</v>
       </c>
       <c r="U5" t="n">
-        <v>1161.162045657378</v>
+        <v>1161.16204565739</v>
       </c>
       <c r="V5" t="n">
-        <v>1161.162045657378</v>
+        <v>1161.16204565739</v>
       </c>
       <c r="W5" t="n">
-        <v>1161.162045657378</v>
+        <v>1161.16204565739</v>
       </c>
       <c r="X5" t="n">
-        <v>1161.162045657378</v>
+        <v>1161.16204565739</v>
       </c>
       <c r="Y5" t="n">
-        <v>1161.162045657378</v>
+        <v>867.9393068550187</v>
       </c>
     </row>
     <row r="6">
@@ -4622,76 +4622,76 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>515.6993133785957</v>
+        <v>326.9330616695333</v>
       </c>
       <c r="C6" t="n">
-        <v>515.6993133785957</v>
+        <v>152.4800323884063</v>
       </c>
       <c r="D6" t="n">
-        <v>366.7649037173444</v>
+        <v>23.2232409131478</v>
       </c>
       <c r="E6" t="n">
-        <v>207.5274487118889</v>
+        <v>23.2232409131478</v>
       </c>
       <c r="F6" t="n">
-        <v>60.99289073877387</v>
+        <v>23.2232409131478</v>
       </c>
       <c r="G6" t="n">
-        <v>60.99289073877387</v>
+        <v>23.2232409131478</v>
       </c>
       <c r="H6" t="n">
-        <v>60.99289073877387</v>
+        <v>23.2232409131478</v>
       </c>
       <c r="I6" t="n">
-        <v>23.22324091314757</v>
+        <v>23.2232409131478</v>
       </c>
       <c r="J6" t="n">
-        <v>150.6253492920935</v>
+        <v>25.79522430508943</v>
       </c>
       <c r="K6" t="n">
-        <v>233.1761032933329</v>
+        <v>108.3459783063296</v>
       </c>
       <c r="L6" t="n">
-        <v>390.4983205989436</v>
+        <v>265.6681956119414</v>
       </c>
       <c r="M6" t="n">
-        <v>593.4427959572549</v>
+        <v>468.612670970254</v>
       </c>
       <c r="N6" t="n">
-        <v>816.1672526139146</v>
+        <v>691.337127626915</v>
       </c>
       <c r="O6" t="n">
-        <v>997.6968225015443</v>
+        <v>872.866697514546</v>
       </c>
       <c r="P6" t="n">
-        <v>1124.05724002267</v>
+        <v>999.2271150356726</v>
       </c>
       <c r="Q6" t="n">
-        <v>1161.162045657378</v>
+        <v>1161.16204565739</v>
       </c>
       <c r="R6" t="n">
-        <v>1145.912305891819</v>
+        <v>1145.912305891831</v>
       </c>
       <c r="S6" t="n">
-        <v>1145.912305891819</v>
+        <v>1145.912305891831</v>
       </c>
       <c r="T6" t="n">
-        <v>1145.912305891819</v>
+        <v>1145.912305891831</v>
       </c>
       <c r="U6" t="n">
-        <v>1145.912305891819</v>
+        <v>1145.912305891831</v>
       </c>
       <c r="V6" t="n">
-        <v>1145.912305891819</v>
+        <v>910.7601976600881</v>
       </c>
       <c r="W6" t="n">
-        <v>891.6749491636176</v>
+        <v>910.7601976600881</v>
       </c>
       <c r="X6" t="n">
-        <v>891.6749491636176</v>
+        <v>702.9086974545553</v>
       </c>
       <c r="Y6" t="n">
-        <v>683.9146503986638</v>
+        <v>495.1483986896014</v>
       </c>
     </row>
     <row r="7">
@@ -4701,76 +4701,76 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>669.9719324798381</v>
+        <v>23.2232409131478</v>
       </c>
       <c r="C7" t="n">
-        <v>501.0357495519312</v>
+        <v>23.2232409131478</v>
       </c>
       <c r="D7" t="n">
-        <v>350.9191101395954</v>
+        <v>23.2232409131478</v>
       </c>
       <c r="E7" t="n">
-        <v>350.9191101395954</v>
+        <v>23.2232409131478</v>
       </c>
       <c r="F7" t="n">
-        <v>204.029162641685</v>
+        <v>23.2232409131478</v>
       </c>
       <c r="G7" t="n">
-        <v>35.50147399739537</v>
+        <v>23.2232409131478</v>
       </c>
       <c r="H7" t="n">
-        <v>35.50147399739537</v>
+        <v>23.2232409131478</v>
       </c>
       <c r="I7" t="n">
-        <v>35.50147399739537</v>
+        <v>23.2232409131478</v>
       </c>
       <c r="J7" t="n">
-        <v>23.22324091314757</v>
+        <v>23.2232409131478</v>
       </c>
       <c r="K7" t="n">
-        <v>133.2846894279142</v>
+        <v>133.2846894279149</v>
       </c>
       <c r="L7" t="n">
-        <v>329.6518852993031</v>
+        <v>329.6518852993045</v>
       </c>
       <c r="M7" t="n">
-        <v>547.0826837276977</v>
+        <v>547.0826837276996</v>
       </c>
       <c r="N7" t="n">
-        <v>764.7780801730482</v>
+        <v>764.7780801730509</v>
       </c>
       <c r="O7" t="n">
-        <v>949.8387182967841</v>
+        <v>949.8387182967873</v>
       </c>
       <c r="P7" t="n">
-        <v>1084.669382195905</v>
+        <v>1084.669382195909</v>
       </c>
       <c r="Q7" t="n">
-        <v>1094.584064899861</v>
+        <v>1094.584064899865</v>
       </c>
       <c r="R7" t="n">
-        <v>1094.584064899861</v>
+        <v>1094.584064899865</v>
       </c>
       <c r="S7" t="n">
-        <v>1094.584064899861</v>
+        <v>1094.584064899865</v>
       </c>
       <c r="T7" t="n">
-        <v>1094.584064899861</v>
+        <v>1094.584064899865</v>
       </c>
       <c r="U7" t="n">
-        <v>897.9614833778554</v>
+        <v>1094.584064899865</v>
       </c>
       <c r="V7" t="n">
-        <v>897.9614833778554</v>
+        <v>943.0710058218956</v>
       </c>
       <c r="W7" t="n">
-        <v>897.9614833778554</v>
+        <v>653.6538357849349</v>
       </c>
       <c r="X7" t="n">
-        <v>669.9719324798381</v>
+        <v>425.6642848869176</v>
       </c>
       <c r="Y7" t="n">
-        <v>669.9719324798381</v>
+        <v>204.8717057433875</v>
       </c>
     </row>
     <row r="8">
@@ -4780,49 +4780,49 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1330.099343395678</v>
+        <v>918.0161179218651</v>
       </c>
       <c r="C8" t="n">
-        <v>1330.099343395678</v>
+        <v>918.0161179218651</v>
       </c>
       <c r="D8" t="n">
-        <v>1330.099343395678</v>
+        <v>918.0161179218651</v>
       </c>
       <c r="E8" t="n">
-        <v>944.3110907974335</v>
+        <v>532.2278653236208</v>
       </c>
       <c r="F8" t="n">
-        <v>533.3251860078259</v>
+        <v>121.2419605340132</v>
       </c>
       <c r="G8" t="n">
-        <v>117.6204357321147</v>
+        <v>109.5776142987062</v>
       </c>
       <c r="H8" t="n">
-        <v>117.6204357321147</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="I8" t="n">
         <v>51.24678656800311</v>
       </c>
       <c r="J8" t="n">
-        <v>187.5281822362818</v>
+        <v>187.5281822362822</v>
       </c>
       <c r="K8" t="n">
-        <v>442.5171852816081</v>
+        <v>442.5171852816088</v>
       </c>
       <c r="L8" t="n">
-        <v>795.755353087291</v>
+        <v>795.755353087292</v>
       </c>
       <c r="M8" t="n">
-        <v>1220.470313923561</v>
+        <v>1220.470313923562</v>
       </c>
       <c r="N8" t="n">
-        <v>1656.671415230816</v>
+        <v>1656.671415230817</v>
       </c>
       <c r="O8" t="n">
-        <v>2055.228484740839</v>
+        <v>2055.22848474084</v>
       </c>
       <c r="P8" t="n">
-        <v>2360.886721764998</v>
+        <v>2360.886721764997</v>
       </c>
       <c r="Q8" t="n">
         <v>2542.25058172385</v>
@@ -4837,19 +4837,19 @@
         <v>2228.89447953245</v>
       </c>
       <c r="U8" t="n">
-        <v>2228.89447953245</v>
+        <v>1975.31341879663</v>
       </c>
       <c r="V8" t="n">
-        <v>2228.89447953245</v>
+        <v>1644.250531453059</v>
       </c>
       <c r="W8" t="n">
-        <v>1876.125824262336</v>
+        <v>1291.481876182945</v>
       </c>
       <c r="X8" t="n">
-        <v>1876.125824262336</v>
+        <v>918.0161179218651</v>
       </c>
       <c r="Y8" t="n">
-        <v>1485.986492286524</v>
+        <v>918.0161179218651</v>
       </c>
     </row>
     <row r="9">
@@ -4871,13 +4871,13 @@
         <v>448.679247148805</v>
       </c>
       <c r="F9" t="n">
-        <v>302.1446891756899</v>
+        <v>302.14468917569</v>
       </c>
       <c r="G9" t="n">
-        <v>165.4432786182521</v>
+        <v>165.443278618252</v>
       </c>
       <c r="H9" t="n">
-        <v>71.67401812057906</v>
+        <v>71.67401812057901</v>
       </c>
       <c r="I9" t="n">
         <v>51.24678656800311</v>
@@ -4938,22 +4938,22 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>199.9856847044969</v>
+        <v>665.1026499885492</v>
       </c>
       <c r="C10" t="n">
-        <v>199.9856847044969</v>
+        <v>496.1664670606423</v>
       </c>
       <c r="D10" t="n">
-        <v>199.9856847044969</v>
+        <v>346.0498276483066</v>
       </c>
       <c r="E10" t="n">
-        <v>199.9856847044969</v>
+        <v>198.1367340659135</v>
       </c>
       <c r="F10" t="n">
-        <v>199.9856847044969</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="G10" t="n">
-        <v>199.9856847044969</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="H10" t="n">
         <v>51.24678656800311</v>
@@ -4992,22 +4992,22 @@
         <v>1636.446120074497</v>
       </c>
       <c r="T10" t="n">
-        <v>1435.646724417277</v>
+        <v>1636.446120074497</v>
       </c>
       <c r="U10" t="n">
-        <v>1146.528386921114</v>
+        <v>1390.852773061637</v>
       </c>
       <c r="V10" t="n">
-        <v>891.8438987152274</v>
+        <v>1136.16828485575</v>
       </c>
       <c r="W10" t="n">
-        <v>602.4267286782667</v>
+        <v>846.7511148187889</v>
       </c>
       <c r="X10" t="n">
-        <v>602.4267286782667</v>
+        <v>846.7511148187889</v>
       </c>
       <c r="Y10" t="n">
-        <v>381.6341495347366</v>
+        <v>846.7511148187889</v>
       </c>
     </row>
     <row r="11">
@@ -5020,7 +5020,7 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C11" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611464</v>
       </c>
       <c r="D11" t="n">
         <v>1590.547811004713</v>
@@ -5035,46 +5035,46 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H11" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I11" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192616</v>
       </c>
       <c r="J11" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111718</v>
       </c>
       <c r="K11" t="n">
         <v>852.8523611075811</v>
       </c>
       <c r="L11" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M11" t="n">
         <v>2206.558663014779</v>
       </c>
       <c r="N11" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O11" t="n">
         <v>3640.42229106801</v>
       </c>
       <c r="P11" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q11" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R11" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S11" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T11" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U11" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466574</v>
       </c>
       <c r="V11" t="n">
         <v>3820.749612123003</v>
@@ -5105,7 +5105,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E12" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F12" t="n">
         <v>314.2396613568978</v>
@@ -5114,10 +5114,10 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H12" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I12" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J12" t="n">
         <v>243.4633055756266</v>
@@ -5126,16 +5126,16 @@
         <v>243.4633055756266</v>
       </c>
       <c r="L12" t="n">
-        <v>542.9134462654469</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="M12" t="n">
-        <v>1140.291933891999</v>
+        <v>716.6687843969303</v>
       </c>
       <c r="N12" t="n">
-        <v>1767.889897446606</v>
+        <v>1344.266747951537</v>
       </c>
       <c r="O12" t="n">
-        <v>2319.799627685893</v>
+        <v>1896.176478190824</v>
       </c>
       <c r="P12" t="n">
         <v>2319.799627685893</v>
@@ -5175,76 +5175,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>1098.667160263527</v>
+        <v>705.9324428257312</v>
       </c>
       <c r="C13" t="n">
-        <v>929.7309773356195</v>
+        <v>705.9324428257312</v>
       </c>
       <c r="D13" t="n">
-        <v>779.6143379232838</v>
+        <v>555.8158034133954</v>
       </c>
       <c r="E13" t="n">
-        <v>631.7012443408906</v>
+        <v>407.9027098310023</v>
       </c>
       <c r="F13" t="n">
-        <v>484.8112968429803</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="G13" t="n">
-        <v>317.6151975578602</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="H13" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I13" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J13" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K13" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L13" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M13" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N13" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O13" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P13" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q13" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R13" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="S13" t="n">
-        <v>2197.062545487567</v>
+        <v>2389.141387573227</v>
       </c>
       <c r="T13" t="n">
-        <v>1977.461080510508</v>
+        <v>2169.539922596168</v>
       </c>
       <c r="U13" t="n">
-        <v>1977.461080510508</v>
+        <v>1880.464695940366</v>
       </c>
       <c r="V13" t="n">
-        <v>1722.776592304621</v>
+        <v>1625.780207734479</v>
       </c>
       <c r="W13" t="n">
-        <v>1433.359422267661</v>
+        <v>1336.363037697518</v>
       </c>
       <c r="X13" t="n">
-        <v>1205.369871369643</v>
+        <v>1108.373486799501</v>
       </c>
       <c r="Y13" t="n">
-        <v>1205.369871369643</v>
+        <v>887.5809076559709</v>
       </c>
     </row>
     <row r="14">
@@ -5260,28 +5260,28 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D14" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E14" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F14" t="n">
-        <v>793.7736536168607</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G14" t="n">
-        <v>379.8308874362681</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H14" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I14" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192616</v>
       </c>
       <c r="J14" t="n">
-        <v>378.1925803111712</v>
+        <v>378.1925803111718</v>
       </c>
       <c r="K14" t="n">
-        <v>852.8523611075805</v>
+        <v>852.8523611075811</v>
       </c>
       <c r="L14" t="n">
         <v>1478.611553332387</v>
@@ -5296,7 +5296,7 @@
         <v>3640.42229106801</v>
       </c>
       <c r="P14" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q14" t="n">
         <v>4562.265728852255</v>
@@ -5314,13 +5314,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V14" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W14" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X14" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y14" t="n">
         <v>2704.375866615997</v>
@@ -5363,22 +5363,22 @@
         <v>243.4633055756266</v>
       </c>
       <c r="L15" t="n">
-        <v>243.4633055756266</v>
+        <v>352.5519571452613</v>
       </c>
       <c r="M15" t="n">
-        <v>680.0291294438176</v>
+        <v>949.9304447718132</v>
       </c>
       <c r="N15" t="n">
-        <v>1307.627092998424</v>
+        <v>1577.52840832642</v>
       </c>
       <c r="O15" t="n">
-        <v>1859.536823237711</v>
+        <v>2129.438138565707</v>
       </c>
       <c r="P15" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q15" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R15" t="n">
         <v>2553.061288060775</v>
@@ -5412,22 +5412,22 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>697.5276345711974</v>
+        <v>763.7541388327652</v>
       </c>
       <c r="C16" t="n">
-        <v>697.5276345711974</v>
+        <v>594.8179559048583</v>
       </c>
       <c r="D16" t="n">
-        <v>697.5276345711974</v>
+        <v>444.7013164925226</v>
       </c>
       <c r="E16" t="n">
-        <v>549.6145409888043</v>
+        <v>296.7882229101294</v>
       </c>
       <c r="F16" t="n">
-        <v>402.7245934908939</v>
+        <v>149.8982754122191</v>
       </c>
       <c r="G16" t="n">
-        <v>235.5284942057738</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H16" t="n">
         <v>93.81666304797187</v>
@@ -5436,52 +5436,52 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J16" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K16" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L16" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M16" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N16" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O16" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P16" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q16" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R16" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="S16" t="n">
-        <v>2197.062545487567</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="T16" t="n">
-        <v>1977.461080510508</v>
+        <v>2227.361618603202</v>
       </c>
       <c r="U16" t="n">
-        <v>1690.411422855592</v>
+        <v>1938.2863919474</v>
       </c>
       <c r="V16" t="n">
-        <v>1435.726934649706</v>
+        <v>1683.601903741513</v>
       </c>
       <c r="W16" t="n">
-        <v>1146.309764612745</v>
+        <v>1394.184733704552</v>
       </c>
       <c r="X16" t="n">
-        <v>918.3202137147275</v>
+        <v>1166.195182806535</v>
       </c>
       <c r="Y16" t="n">
-        <v>697.5276345711974</v>
+        <v>945.4026036630049</v>
       </c>
     </row>
     <row r="17">
@@ -5512,13 +5512,13 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I17" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J17" t="n">
-        <v>378.1925803111712</v>
+        <v>378.1925803111716</v>
       </c>
       <c r="K17" t="n">
-        <v>852.8523611075802</v>
+        <v>852.8523611075798</v>
       </c>
       <c r="L17" t="n">
         <v>1478.611553332386</v>
@@ -5527,10 +5527,10 @@
         <v>2206.558663014778</v>
       </c>
       <c r="N17" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O17" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P17" t="n">
         <v>4194.413870694707</v>
@@ -5591,25 +5591,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I18" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273905</v>
       </c>
       <c r="J18" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K18" t="n">
-        <v>577.3880777468471</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L18" t="n">
-        <v>1072.713683962606</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M18" t="n">
-        <v>1670.092171589158</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N18" t="n">
-        <v>2297.690135143765</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O18" t="n">
-        <v>2297.690135143765</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P18" t="n">
         <v>2553.061288060775</v>
@@ -5649,76 +5649,76 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>1098.667160263527</v>
+        <v>951.7772127656159</v>
       </c>
       <c r="C19" t="n">
-        <v>929.7309773356195</v>
+        <v>782.841029837709</v>
       </c>
       <c r="D19" t="n">
-        <v>779.6143379232838</v>
+        <v>632.7243904253733</v>
       </c>
       <c r="E19" t="n">
-        <v>631.7012443408906</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="F19" t="n">
-        <v>484.8112968429803</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="G19" t="n">
-        <v>317.6151975578602</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="H19" t="n">
-        <v>175.9033664000583</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="I19" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J19" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K19" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L19" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M19" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N19" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O19" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P19" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q19" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R19" t="n">
-        <v>2379.917379832663</v>
+        <v>2406.996606615095</v>
       </c>
       <c r="S19" t="n">
-        <v>2197.062545487567</v>
+        <v>2406.996606615095</v>
       </c>
       <c r="T19" t="n">
-        <v>1977.461080510508</v>
+        <v>2187.395141638036</v>
       </c>
       <c r="U19" t="n">
-        <v>1688.385853854706</v>
+        <v>1898.319914982233</v>
       </c>
       <c r="V19" t="n">
-        <v>1608.876909444017</v>
+        <v>1643.635426776346</v>
       </c>
       <c r="W19" t="n">
-        <v>1319.459739407057</v>
+        <v>1354.218256739386</v>
       </c>
       <c r="X19" t="n">
-        <v>1319.459739407057</v>
+        <v>1354.218256739386</v>
       </c>
       <c r="Y19" t="n">
-        <v>1098.667160263527</v>
+        <v>1133.425677595856</v>
       </c>
     </row>
     <row r="20">
@@ -5734,7 +5734,7 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D20" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E20" t="n">
         <v>1204.759558406469</v>
@@ -5788,13 +5788,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V20" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W20" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X20" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y20" t="n">
         <v>2704.375866615997</v>
@@ -5828,31 +5828,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I21" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J21" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K21" t="n">
-        <v>243.4633055756266</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L21" t="n">
-        <v>680.0291294438176</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M21" t="n">
-        <v>680.0291294438176</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N21" t="n">
-        <v>1307.627092998424</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O21" t="n">
-        <v>1859.536823237711</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P21" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q21" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R21" t="n">
         <v>2553.061288060775</v>
@@ -5886,22 +5886,22 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>513.8536007400712</v>
+        <v>951.777212765616</v>
       </c>
       <c r="C22" t="n">
-        <v>513.8536007400712</v>
+        <v>782.8410298377091</v>
       </c>
       <c r="D22" t="n">
-        <v>513.8536007400712</v>
+        <v>632.7243904253734</v>
       </c>
       <c r="E22" t="n">
-        <v>365.9405071576781</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="F22" t="n">
-        <v>219.0505596597677</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="G22" t="n">
-        <v>175.9033664000583</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H22" t="n">
         <v>175.9033664000583</v>
@@ -5943,19 +5943,19 @@
         <v>1977.461080510508</v>
       </c>
       <c r="U22" t="n">
-        <v>1688.385853854706</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="V22" t="n">
-        <v>1433.701365648819</v>
+        <v>1722.776592304621</v>
       </c>
       <c r="W22" t="n">
-        <v>1144.284195611858</v>
+        <v>1582.207807637403</v>
       </c>
       <c r="X22" t="n">
-        <v>916.2946447138411</v>
+        <v>1354.218256739386</v>
       </c>
       <c r="Y22" t="n">
-        <v>695.5020655703109</v>
+        <v>1133.425677595856</v>
       </c>
     </row>
     <row r="23">
@@ -5986,13 +5986,13 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I23" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192548</v>
       </c>
       <c r="J23" t="n">
-        <v>378.1925803111712</v>
+        <v>378.1925803111708</v>
       </c>
       <c r="K23" t="n">
-        <v>852.8523611075802</v>
+        <v>852.85236110758</v>
       </c>
       <c r="L23" t="n">
         <v>1478.611553332386</v>
@@ -6025,13 +6025,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V23" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W23" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X23" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y23" t="n">
         <v>2704.375866615997</v>
@@ -6065,31 +6065,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I24" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J24" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K24" t="n">
-        <v>243.4633055756266</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L24" t="n">
-        <v>315.9123021921482</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M24" t="n">
-        <v>913.2907898187001</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N24" t="n">
-        <v>1540.888753373307</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O24" t="n">
-        <v>2092.798483612594</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P24" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q24" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R24" t="n">
         <v>2553.061288060775</v>
@@ -6123,25 +6123,25 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>636.6680198981028</v>
+        <v>727.9786782557277</v>
       </c>
       <c r="C25" t="n">
-        <v>467.7318369701959</v>
+        <v>559.0424953278208</v>
       </c>
       <c r="D25" t="n">
-        <v>317.6151975578602</v>
+        <v>408.925855915485</v>
       </c>
       <c r="E25" t="n">
-        <v>317.6151975578602</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="F25" t="n">
-        <v>317.6151975578602</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="G25" t="n">
-        <v>317.6151975578602</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H25" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I25" t="n">
         <v>93.81666304797187</v>
@@ -6174,25 +6174,25 @@
         <v>2379.917379832663</v>
       </c>
       <c r="S25" t="n">
-        <v>2197.062545487567</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="T25" t="n">
-        <v>2100.27549966854</v>
+        <v>2191.586158026164</v>
       </c>
       <c r="U25" t="n">
-        <v>1811.200273012738</v>
+        <v>1902.510931370362</v>
       </c>
       <c r="V25" t="n">
-        <v>1556.515784806851</v>
+        <v>1647.826443164475</v>
       </c>
       <c r="W25" t="n">
-        <v>1267.09861476989</v>
+        <v>1358.409273127515</v>
       </c>
       <c r="X25" t="n">
-        <v>1039.109063871873</v>
+        <v>1130.419722229497</v>
       </c>
       <c r="Y25" t="n">
-        <v>818.3164847283425</v>
+        <v>909.6271430859674</v>
       </c>
     </row>
     <row r="26">
@@ -6223,22 +6223,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I26" t="n">
-        <v>95.34095638192616</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J26" t="n">
         <v>378.1925803111717</v>
       </c>
       <c r="K26" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L26" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M26" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N26" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O26" t="n">
         <v>3640.42229106801</v>
@@ -6302,28 +6302,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I27" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J27" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K27" t="n">
-        <v>243.4633055756266</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L27" t="n">
-        <v>243.4633055756266</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M27" t="n">
-        <v>840.8417932021785</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N27" t="n">
-        <v>1344.266747951538</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O27" t="n">
-        <v>1896.176478190825</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P27" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q27" t="n">
         <v>2553.061288060775</v>
@@ -6360,25 +6360,25 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>983.3556038098237</v>
+        <v>950.7540666811333</v>
       </c>
       <c r="C28" t="n">
-        <v>814.4194208819168</v>
+        <v>781.8178837532264</v>
       </c>
       <c r="D28" t="n">
-        <v>664.3027814695811</v>
+        <v>631.7012443408906</v>
       </c>
       <c r="E28" t="n">
-        <v>516.389687887188</v>
+        <v>631.7012443408906</v>
       </c>
       <c r="F28" t="n">
-        <v>369.4997403892776</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="G28" t="n">
-        <v>202.3036411041575</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H28" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I28" t="n">
         <v>93.81666304797187</v>
@@ -6411,25 +6411,25 @@
         <v>2446.96308358026</v>
       </c>
       <c r="S28" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.278523222742</v>
       </c>
       <c r="T28" t="n">
-        <v>2446.96308358026</v>
+        <v>2159.677058245683</v>
       </c>
       <c r="U28" t="n">
-        <v>2157.887856924458</v>
+        <v>1870.601831589881</v>
       </c>
       <c r="V28" t="n">
-        <v>1903.203368718571</v>
+        <v>1870.601831589881</v>
       </c>
       <c r="W28" t="n">
-        <v>1613.786198681611</v>
+        <v>1581.18466155292</v>
       </c>
       <c r="X28" t="n">
-        <v>1385.796647783593</v>
+        <v>1353.195110654903</v>
       </c>
       <c r="Y28" t="n">
-        <v>1165.004068640063</v>
+        <v>1132.402531511373</v>
       </c>
     </row>
     <row r="29">
@@ -6451,31 +6451,31 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F29" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G29" t="n">
         <v>379.8308874362686</v>
       </c>
       <c r="H29" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I29" t="n">
-        <v>95.34095638192616</v>
+        <v>95.3409563819265</v>
       </c>
       <c r="J29" t="n">
-        <v>378.1925803111717</v>
+        <v>378.192580311172</v>
       </c>
       <c r="K29" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L29" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M29" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N29" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O29" t="n">
         <v>3640.42229106801</v>
@@ -6484,28 +6484,28 @@
         <v>4194.413870694707</v>
       </c>
       <c r="Q29" t="n">
-        <v>4562.265728852254</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R29" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S29" t="n">
-        <v>4606.285157492577</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T29" t="n">
-        <v>4405.252601474783</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U29" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V29" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W29" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X29" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y29" t="n">
         <v>2704.375866615997</v>
@@ -6536,34 +6536,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H30" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I30" t="n">
-        <v>93.81666304797186</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J30" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K30" t="n">
-        <v>417.9651836029414</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L30" t="n">
-        <v>913.2907898187001</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M30" t="n">
-        <v>913.2907898187001</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N30" t="n">
-        <v>1540.888753373307</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O30" t="n">
-        <v>2092.798483612594</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P30" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q30" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R30" t="n">
         <v>2553.061288060775</v>
@@ -6597,28 +6597,28 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>513.8536007400712</v>
+        <v>571.6607764188008</v>
       </c>
       <c r="C31" t="n">
-        <v>344.9174178121643</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="D31" t="n">
-        <v>194.8007783998286</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="E31" t="n">
-        <v>194.8007783998286</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="F31" t="n">
-        <v>194.8007783998286</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G31" t="n">
-        <v>93.81666304797186</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H31" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I31" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J31" t="n">
         <v>174.0526814782957</v>
@@ -6651,22 +6651,22 @@
         <v>2197.062545487567</v>
       </c>
       <c r="T31" t="n">
-        <v>1977.461080510508</v>
+        <v>2035.268256189238</v>
       </c>
       <c r="U31" t="n">
-        <v>1688.385853854706</v>
+        <v>1746.193029533436</v>
       </c>
       <c r="V31" t="n">
-        <v>1433.701365648819</v>
+        <v>1491.508541327549</v>
       </c>
       <c r="W31" t="n">
-        <v>1144.284195611858</v>
+        <v>1202.091371290588</v>
       </c>
       <c r="X31" t="n">
-        <v>916.2946447138411</v>
+        <v>974.1018203925706</v>
       </c>
       <c r="Y31" t="n">
-        <v>695.5020655703109</v>
+        <v>753.3092412490405</v>
       </c>
     </row>
     <row r="32">
@@ -6676,10 +6676,10 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C32" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D32" t="n">
         <v>1590.547811004712</v>
@@ -6688,7 +6688,7 @@
         <v>1204.759558406468</v>
       </c>
       <c r="F32" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168609</v>
       </c>
       <c r="G32" t="n">
         <v>379.8308874362686</v>
@@ -6700,19 +6700,19 @@
         <v>95.34095638192593</v>
       </c>
       <c r="J32" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111712</v>
       </c>
       <c r="K32" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L32" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M32" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N32" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O32" t="n">
         <v>3640.42229106801</v>
@@ -6733,19 +6733,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U32" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V32" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W32" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X32" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y32" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="33">
@@ -6776,31 +6776,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I33" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J33" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K33" t="n">
-        <v>577.3880777468471</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L33" t="n">
-        <v>1072.713683962606</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M33" t="n">
-        <v>1072.713683962606</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N33" t="n">
-        <v>1540.888753373307</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O33" t="n">
-        <v>2092.798483612594</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P33" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q33" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R33" t="n">
         <v>2553.061288060775</v>
@@ -6834,25 +6834,25 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>1098.667160263527</v>
+        <v>571.6607764188008</v>
       </c>
       <c r="C34" t="n">
-        <v>929.7309773356195</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="D34" t="n">
-        <v>779.6143379232838</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="E34" t="n">
-        <v>631.7012443408906</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="F34" t="n">
-        <v>484.8112968429803</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G34" t="n">
-        <v>317.6151975578602</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H34" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I34" t="n">
         <v>93.81666304797187</v>
@@ -6882,28 +6882,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R34" t="n">
-        <v>2446.96308358026</v>
+        <v>2437.724555511392</v>
       </c>
       <c r="S34" t="n">
-        <v>2446.96308358026</v>
+        <v>2254.869721166297</v>
       </c>
       <c r="T34" t="n">
-        <v>2227.361618603201</v>
+        <v>2035.268256189238</v>
       </c>
       <c r="U34" t="n">
-        <v>2227.361618603201</v>
+        <v>1746.193029533436</v>
       </c>
       <c r="V34" t="n">
-        <v>1972.677130397314</v>
+        <v>1491.508541327549</v>
       </c>
       <c r="W34" t="n">
-        <v>1683.259960360354</v>
+        <v>1202.091371290588</v>
       </c>
       <c r="X34" t="n">
-        <v>1501.108204237296</v>
+        <v>974.1018203925706</v>
       </c>
       <c r="Y34" t="n">
-        <v>1280.315625093766</v>
+        <v>753.3092412490405</v>
       </c>
     </row>
     <row r="35">
@@ -6931,7 +6931,7 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H35" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I35" t="n">
         <v>95.34095638192616</v>
@@ -6973,13 +6973,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V35" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W35" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X35" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y35" t="n">
         <v>2704.375866615997</v>
@@ -7013,31 +7013,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I36" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J36" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K36" t="n">
-        <v>577.3880777468471</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L36" t="n">
-        <v>577.3880777468471</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M36" t="n">
-        <v>1174.766565373399</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N36" t="n">
-        <v>1802.364528928006</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O36" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P36" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q36" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R36" t="n">
         <v>2553.061288060775</v>
@@ -7119,19 +7119,19 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R37" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S37" t="n">
-        <v>2264.108249235165</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="T37" t="n">
-        <v>2044.506784258106</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="U37" t="n">
-        <v>1755.431557602304</v>
+        <v>2273.199413378161</v>
       </c>
       <c r="V37" t="n">
-        <v>1755.431557602304</v>
+        <v>2018.514925172274</v>
       </c>
       <c r="W37" t="n">
         <v>1729.097755135313</v>
@@ -7171,25 +7171,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I38" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192616</v>
       </c>
       <c r="J38" t="n">
         <v>378.1925803111717</v>
       </c>
       <c r="K38" t="n">
-        <v>852.8523611075811</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L38" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M38" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N38" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O38" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P38" t="n">
         <v>4194.413870694707</v>
@@ -7250,31 +7250,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I39" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J39" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K39" t="n">
-        <v>243.4633055756266</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L39" t="n">
-        <v>243.4633055756266</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M39" t="n">
-        <v>680.0291294438176</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N39" t="n">
-        <v>1307.627092998424</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O39" t="n">
-        <v>1859.536823237711</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P39" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q39" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R39" t="n">
         <v>2553.061288060775</v>
@@ -7308,25 +7308,25 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>800.5007694647277</v>
+        <v>956.9553291057244</v>
       </c>
       <c r="C40" t="n">
-        <v>631.5645865368208</v>
+        <v>788.0191461778176</v>
       </c>
       <c r="D40" t="n">
-        <v>481.447947124485</v>
+        <v>637.9025067654818</v>
       </c>
       <c r="E40" t="n">
-        <v>333.5348535420919</v>
+        <v>489.9894131830887</v>
       </c>
       <c r="F40" t="n">
-        <v>261.0127623330919</v>
+        <v>343.0994656851783</v>
       </c>
       <c r="G40" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="H40" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I40" t="n">
         <v>93.81666304797187</v>
@@ -7356,28 +7356,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R40" t="n">
-        <v>2446.96308358026</v>
+        <v>2413.381092470059</v>
       </c>
       <c r="S40" t="n">
-        <v>2264.108249235165</v>
+        <v>2230.526258124964</v>
       </c>
       <c r="T40" t="n">
-        <v>2264.108249235165</v>
+        <v>2010.924793147904</v>
       </c>
       <c r="U40" t="n">
-        <v>1975.033022579363</v>
+        <v>1721.849566492102</v>
       </c>
       <c r="V40" t="n">
-        <v>1720.348534373476</v>
+        <v>1467.165078286215</v>
       </c>
       <c r="W40" t="n">
-        <v>1430.931364336515</v>
+        <v>1177.747908249255</v>
       </c>
       <c r="X40" t="n">
-        <v>1202.941813438498</v>
+        <v>1177.747908249255</v>
       </c>
       <c r="Y40" t="n">
-        <v>982.1492342949674</v>
+        <v>956.9553291057244</v>
       </c>
     </row>
     <row r="41">
@@ -7393,7 +7393,7 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D41" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E41" t="n">
         <v>1204.759558406469</v>
@@ -7408,13 +7408,13 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I41" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192616</v>
       </c>
       <c r="J41" t="n">
-        <v>378.1925803111712</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K41" t="n">
-        <v>852.8523611075805</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L41" t="n">
         <v>1478.611553332387</v>
@@ -7447,13 +7447,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V41" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W41" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X41" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y41" t="n">
         <v>2704.375866615997</v>
@@ -7466,76 +7466,76 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>3081.170977615666</v>
+        <v>943.3991132778466</v>
       </c>
       <c r="C42" t="n">
-        <v>2906.717948334539</v>
+        <v>768.9460839967196</v>
       </c>
       <c r="D42" t="n">
-        <v>2757.783538673288</v>
+        <v>620.0116743354683</v>
       </c>
       <c r="E42" t="n">
-        <v>2598.546083667832</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F42" t="n">
-        <v>2452.011525694717</v>
+        <v>314.2396613568978</v>
       </c>
       <c r="G42" t="n">
-        <v>2316.252859740625</v>
+        <v>178.4809954028057</v>
       </c>
       <c r="H42" t="n">
-        <v>2231.588527385791</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I42" t="n">
-        <v>2231.588527385791</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J42" t="n">
-        <v>2381.235169913446</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K42" t="n">
-        <v>2715.159942084666</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L42" t="n">
-        <v>2715.159942084666</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M42" t="n">
-        <v>3312.538429711218</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N42" t="n">
-        <v>3940.136393265825</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O42" t="n">
-        <v>4420.931837070599</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="P42" t="n">
-        <v>4420.931837070599</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="Q42" t="n">
-        <v>4654.193497445481</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R42" t="n">
-        <v>4690.833152398593</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="S42" t="n">
-        <v>4572.622366301206</v>
+        <v>2434.850501963388</v>
       </c>
       <c r="T42" t="n">
-        <v>4382.41566002298</v>
+        <v>2244.643795685161</v>
       </c>
       <c r="U42" t="n">
-        <v>4154.387578566165</v>
+        <v>2016.615714228345</v>
       </c>
       <c r="V42" t="n">
-        <v>3919.235470334422</v>
+        <v>1781.463605996603</v>
       </c>
       <c r="W42" t="n">
-        <v>3664.998113606221</v>
+        <v>1527.226249268401</v>
       </c>
       <c r="X42" t="n">
-        <v>3457.146613400688</v>
+        <v>1319.374749062868</v>
       </c>
       <c r="Y42" t="n">
-        <v>3249.386314635734</v>
+        <v>1111.614450297915</v>
       </c>
     </row>
     <row r="43">
@@ -7545,76 +7545,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>2977.325134535463</v>
+        <v>634.927936255316</v>
       </c>
       <c r="C43" t="n">
-        <v>2808.388951607556</v>
+        <v>634.927936255316</v>
       </c>
       <c r="D43" t="n">
-        <v>2658.272312195221</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="E43" t="n">
-        <v>2658.272312195221</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="F43" t="n">
-        <v>2658.272312195221</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="G43" t="n">
-        <v>2561.485266376193</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H43" t="n">
-        <v>2419.773435218391</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I43" t="n">
-        <v>2337.686731866304</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J43" t="n">
-        <v>2417.922750296628</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K43" t="n">
-        <v>2679.612012822167</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L43" t="n">
-        <v>3070.010606998107</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M43" t="n">
-        <v>3492.020309729142</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N43" t="n">
-        <v>3909.43018138915</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O43" t="n">
-        <v>4278.959462098135</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P43" t="n">
-        <v>4571.634917671694</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q43" t="n">
-        <v>4690.833152398593</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R43" t="n">
-        <v>4623.787448650995</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S43" t="n">
-        <v>4440.9326143059</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T43" t="n">
-        <v>4440.9326143059</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U43" t="n">
-        <v>4151.857387650098</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V43" t="n">
-        <v>3897.172899444211</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W43" t="n">
-        <v>3607.75572940725</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X43" t="n">
-        <v>3379.766178509233</v>
+        <v>1037.368980229086</v>
       </c>
       <c r="Y43" t="n">
-        <v>3158.973599365703</v>
+        <v>816.5764010855557</v>
       </c>
     </row>
     <row r="44">
@@ -7645,13 +7645,13 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I44" t="n">
-        <v>95.34095638192616</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J44" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K44" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L44" t="n">
         <v>1478.611553332387</v>
@@ -7684,13 +7684,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V44" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W44" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X44" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y44" t="n">
         <v>2704.375866615997</v>
@@ -7730,25 +7730,25 @@
         <v>243.4633055756266</v>
       </c>
       <c r="K45" t="n">
-        <v>243.4633055756266</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L45" t="n">
-        <v>738.7889117913853</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M45" t="n">
-        <v>738.7889117913853</v>
+        <v>1373.553594266881</v>
       </c>
       <c r="N45" t="n">
-        <v>1307.627092998424</v>
+        <v>2001.151557821488</v>
       </c>
       <c r="O45" t="n">
-        <v>1859.536823237711</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P45" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q45" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R45" t="n">
         <v>2553.061288060775</v>
@@ -7782,22 +7782,22 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>763.7541388327643</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C46" t="n">
-        <v>594.8179559048574</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="D46" t="n">
-        <v>594.8179559048574</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="E46" t="n">
-        <v>446.9048623224643</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="F46" t="n">
-        <v>300.0149148245539</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G46" t="n">
-        <v>132.8188155394338</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H46" t="n">
         <v>93.81666304797187</v>
@@ -7830,28 +7830,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R46" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S46" t="n">
-        <v>2446.96308358026</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T46" t="n">
-        <v>2227.361618603201</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U46" t="n">
-        <v>1938.286391947399</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V46" t="n">
-        <v>1683.601903741512</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W46" t="n">
-        <v>1394.184733704551</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X46" t="n">
-        <v>1166.195182806534</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y46" t="n">
-        <v>945.402603663004</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
   </sheetData>
@@ -8057,16 +8057,16 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J3" t="n">
-        <v>6.233205181928398</v>
+        <v>6.233205181928426</v>
       </c>
       <c r="K3" t="n">
-        <v>8.287118509957125</v>
+        <v>0</v>
       </c>
       <c r="L3" t="n">
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>58.49750737927792</v>
+        <v>0</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -8078,7 +8078,7 @@
         <v>0</v>
       </c>
       <c r="Q3" t="n">
-        <v>0</v>
+        <v>66.78462588923516</v>
       </c>
       <c r="R3" t="n">
         <v>45.52166981132082</v>
@@ -8145,7 +8145,7 @@
         <v>162.4747015415544</v>
       </c>
       <c r="M4" t="n">
-        <v>178.5096609094456</v>
+        <v>118.01721167243</v>
       </c>
       <c r="N4" t="n">
         <v>171.8177168444618</v>
@@ -8154,7 +8154,7 @@
         <v>163.0416663658825</v>
       </c>
       <c r="P4" t="n">
-        <v>74.51411407702575</v>
+        <v>135.0065633140411</v>
       </c>
       <c r="Q4" t="n">
         <v>65.34295837775146</v>
@@ -8239,7 +8239,7 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>54.74236624506838</v>
+        <v>54.74236624506779</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -8294,7 +8294,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J6" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K6" t="n">
         <v>0</v>
@@ -8315,7 +8315,7 @@
         <v>0</v>
       </c>
       <c r="Q6" t="n">
-        <v>2.581221505605285</v>
+        <v>128.6722568460175</v>
       </c>
       <c r="R6" t="n">
         <v>45.52166981132082</v>
@@ -23415,10 +23415,10 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>74.19629618688168</v>
+        <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
         <v>0</v>
@@ -23433,10 +23433,10 @@
         <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23463,16 +23463,16 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>123.7828069546809</v>
       </c>
       <c r="T13" t="n">
         <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>286.1844743892441</v>
+        <v>0</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -23484,7 +23484,7 @@
         <v>0</v>
       </c>
       <c r="Y13" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -23652,13 +23652,13 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
         <v>0</v>
@@ -23667,13 +23667,13 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>110.0033420516641</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I16" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23700,16 +23700,16 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T16" t="n">
         <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>2.005313310877511</v>
+        <v>0</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -23889,7 +23889,7 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C19" t="n">
         <v>0</v>
@@ -23901,7 +23901,7 @@
         <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
         <v>0</v>
@@ -23937,10 +23937,10 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>26.80843451460703</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T19" t="n">
         <v>0</v>
@@ -23949,7 +23949,7 @@
         <v>0</v>
       </c>
       <c r="V19" t="n">
-        <v>173.4237883572461</v>
+        <v>0</v>
       </c>
       <c r="W19" t="n">
         <v>0</v>
@@ -24129,22 +24129,22 @@
         <v>0</v>
       </c>
       <c r="C22" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
         <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
-        <v>122.8084169651565</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
         <v>0</v>
@@ -24183,13 +24183,13 @@
         <v>0</v>
       </c>
       <c r="U22" t="n">
-        <v>0</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
       </c>
       <c r="W22" t="n">
-        <v>0</v>
+        <v>147.3599015160449</v>
       </c>
       <c r="X22" t="n">
         <v>0</v>
@@ -24372,19 +24372,19 @@
         <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24414,10 +24414,10 @@
         <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T25" t="n">
-        <v>121.5862749664512</v>
+        <v>30.95754073885482</v>
       </c>
       <c r="U25" t="n">
         <v>0</v>
@@ -24609,7 +24609,7 @@
         <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
         <v>0</v>
@@ -24618,10 +24618,10 @@
         <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>32.8926045706001</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24651,16 +24651,16 @@
         <v>66.37524671012169</v>
       </c>
       <c r="S28" t="n">
-        <v>181.0262860016446</v>
+        <v>114.0185712477009</v>
       </c>
       <c r="T28" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U28" t="n">
         <v>0</v>
       </c>
       <c r="V28" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W28" t="n">
         <v>0</v>
@@ -24843,7 +24843,7 @@
         <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
         <v>146.4339626465692</v>
@@ -24852,10 +24852,10 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
-        <v>65.54986409393068</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
         <v>81.26583631856553</v>
@@ -24891,7 +24891,7 @@
         <v>0</v>
       </c>
       <c r="T31" t="n">
-        <v>0</v>
+        <v>57.22910392194237</v>
       </c>
       <c r="U31" t="n">
         <v>0</v>
@@ -25080,13 +25080,13 @@
         <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F34" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
         <v>0</v>
@@ -25095,7 +25095,7 @@
         <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25122,16 +25122,16 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>66.37524671012169</v>
+        <v>57.2291039219422</v>
       </c>
       <c r="S34" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T34" t="n">
         <v>0</v>
       </c>
       <c r="U34" t="n">
-        <v>286.1844743892441</v>
+        <v>0</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -25140,7 +25140,7 @@
         <v>0</v>
       </c>
       <c r="X34" t="n">
-        <v>45.37941682721018</v>
+        <v>0</v>
       </c>
       <c r="Y34" t="n">
         <v>0</v>
@@ -25359,22 +25359,22 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T37" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U37" t="n">
-        <v>0</v>
+        <v>180.5336875992872</v>
       </c>
       <c r="V37" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W37" t="n">
-        <v>260.4525338942707</v>
+        <v>0</v>
       </c>
       <c r="X37" t="n">
         <v>0</v>
@@ -25548,7 +25548,7 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C40" t="n">
         <v>0</v>
@@ -25560,7 +25560,7 @@
         <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>73.62417772602126</v>
+        <v>0</v>
       </c>
       <c r="G40" t="n">
         <v>0</v>
@@ -25569,7 +25569,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I40" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25596,13 +25596,13 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>66.37524671012169</v>
+        <v>33.12907551102249</v>
       </c>
       <c r="S40" t="n">
         <v>0</v>
       </c>
       <c r="T40" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U40" t="n">
         <v>0</v>
@@ -25614,7 +25614,7 @@
         <v>0</v>
       </c>
       <c r="X40" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y40" t="n">
         <v>0</v>
@@ -25788,7 +25788,7 @@
         <v>0</v>
       </c>
       <c r="C43" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D43" t="n">
         <v>0</v>
@@ -25800,7 +25800,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
-        <v>69.70496293143093</v>
+        <v>0</v>
       </c>
       <c r="H43" t="n">
         <v>0</v>
@@ -25839,7 +25839,7 @@
         <v>0</v>
       </c>
       <c r="T43" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U43" t="n">
         <v>0</v>
@@ -25851,7 +25851,7 @@
         <v>0</v>
       </c>
       <c r="X43" t="n">
-        <v>0</v>
+        <v>119.8635921600922</v>
       </c>
       <c r="Y43" t="n">
         <v>0</v>
@@ -26025,22 +26025,22 @@
         <v>0</v>
       </c>
       <c r="C46" t="n">
-        <v>0</v>
+        <v>57.22910392194228</v>
       </c>
       <c r="D46" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E46" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F46" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
         <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>101.6825818796765</v>
+        <v>0</v>
       </c>
       <c r="I46" t="n">
         <v>81.26583631856553</v>
@@ -26070,10 +26070,10 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T46" t="n">
         <v>0</v>
@@ -26133,7 +26133,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>900905.1051655903</v>
+        <v>900905.1051655904</v>
       </c>
     </row>
     <row r="4">
@@ -26205,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>879881.4739670031</v>
+        <v>879881.4739670029</v>
       </c>
     </row>
     <row r="13">
@@ -26229,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>879881.4739670031</v>
+        <v>879881.4739670029</v>
       </c>
     </row>
     <row r="16">
@@ -26313,49 +26313,49 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>554203.1946583914</v>
+        <v>554203.1946583916</v>
       </c>
       <c r="C2" t="n">
+        <v>554203.1946583912</v>
+      </c>
+      <c r="D2" t="n">
         <v>554203.1946583913</v>
       </c>
-      <c r="D2" t="n">
-        <v>554203.1946583915</v>
-      </c>
       <c r="E2" t="n">
-        <v>544823.9547907539</v>
+        <v>544823.954790754</v>
       </c>
       <c r="F2" t="n">
         <v>544823.9547907539</v>
       </c>
       <c r="G2" t="n">
-        <v>544823.954790754</v>
+        <v>544823.9547907539</v>
       </c>
       <c r="H2" t="n">
-        <v>544823.9547907539</v>
+        <v>544823.9547907542</v>
       </c>
       <c r="I2" t="n">
-        <v>544823.9547907539</v>
+        <v>544823.9547907541</v>
       </c>
       <c r="J2" t="n">
-        <v>544823.954790754</v>
+        <v>544823.9547907541</v>
       </c>
       <c r="K2" t="n">
-        <v>544823.9547907539</v>
+        <v>544823.9547907541</v>
       </c>
       <c r="L2" t="n">
         <v>544823.9547907542</v>
       </c>
       <c r="M2" t="n">
-        <v>544823.9547907544</v>
+        <v>544823.9547907542</v>
       </c>
       <c r="N2" t="n">
-        <v>544823.9547907538</v>
+        <v>544823.9547907542</v>
       </c>
       <c r="O2" t="n">
-        <v>544823.9547907538</v>
+        <v>544823.954790754</v>
       </c>
       <c r="P2" t="n">
-        <v>544823.9547907539</v>
+        <v>544823.9547907537</v>
       </c>
     </row>
     <row r="3">
@@ -26365,16 +26365,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>652246.4444800894</v>
+        <v>652246.4444800892</v>
       </c>
       <c r="C3" t="n">
-        <v>55881.32342210722</v>
+        <v>55881.32342211045</v>
       </c>
       <c r="D3" t="n">
-        <v>363279.8866276258</v>
+        <v>363279.8866276229</v>
       </c>
       <c r="E3" t="n">
-        <v>507485.4416245459</v>
+        <v>507485.4416245462</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26389,13 +26389,13 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>62744.31078353593</v>
+        <v>62744.3107835359</v>
       </c>
       <c r="K3" t="n">
-        <v>12992.59634440409</v>
+        <v>12992.59634440496</v>
       </c>
       <c r="L3" t="n">
-        <v>88656.33991666316</v>
+        <v>88656.33991666233</v>
       </c>
       <c r="M3" t="n">
         <v>132607.2937289267</v>
@@ -26417,10 +26417,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>261062.8075060263</v>
+        <v>261062.8075060264</v>
       </c>
       <c r="C4" t="n">
-        <v>246054.6603431043</v>
+        <v>246054.6603431035</v>
       </c>
       <c r="D4" t="n">
         <v>143951.0939828189</v>
@@ -26444,7 +26444,7 @@
         <v>12996.86414683044</v>
       </c>
       <c r="K4" t="n">
-        <v>12996.86414683049</v>
+        <v>12996.86414683044</v>
       </c>
       <c r="L4" t="n">
         <v>12996.86414683044</v>
@@ -26469,10 +26469,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>61145.70223437331</v>
+        <v>61145.7022343733</v>
       </c>
       <c r="C5" t="n">
-        <v>65162.40123302688</v>
+        <v>65162.40123302711</v>
       </c>
       <c r="D5" t="n">
         <v>92937.7724398447</v>
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-420251.7595620975</v>
+        <v>-420251.7595620973</v>
       </c>
       <c r="C6" t="n">
-        <v>187104.8096601529</v>
+        <v>187104.8096601501</v>
       </c>
       <c r="D6" t="n">
-        <v>-45965.55839189791</v>
+        <v>-45965.55839189523</v>
       </c>
       <c r="E6" t="n">
-        <v>-76780.88080452956</v>
+        <v>-77128.26005888668</v>
       </c>
       <c r="F6" t="n">
-        <v>430704.5608200164</v>
+        <v>430357.1815656594</v>
       </c>
       <c r="G6" t="n">
-        <v>430704.5608200165</v>
+        <v>430357.1815656594</v>
       </c>
       <c r="H6" t="n">
-        <v>430704.5608200164</v>
+        <v>430357.1815656599</v>
       </c>
       <c r="I6" t="n">
-        <v>430704.5608200164</v>
+        <v>430357.1815656596</v>
       </c>
       <c r="J6" t="n">
-        <v>367960.2500364805</v>
+        <v>367612.8707821237</v>
       </c>
       <c r="K6" t="n">
-        <v>417711.9644756123</v>
+        <v>417364.5852212546</v>
       </c>
       <c r="L6" t="n">
-        <v>342048.2209033535</v>
+        <v>341700.8416489974</v>
       </c>
       <c r="M6" t="n">
-        <v>298097.2670910901</v>
+        <v>297749.887836733</v>
       </c>
       <c r="N6" t="n">
-        <v>430704.5608200163</v>
+        <v>430357.1815656598</v>
       </c>
       <c r="O6" t="n">
-        <v>430704.5608200163</v>
+        <v>430357.1815656595</v>
       </c>
       <c r="P6" t="n">
-        <v>430704.5608200164</v>
+        <v>430357.1815656592</v>
       </c>
     </row>
   </sheetData>
@@ -26737,10 +26737,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>593.476100338065</v>
+        <v>593.4761003380648</v>
       </c>
       <c r="C3" t="n">
-        <v>636.9329421575563</v>
+        <v>636.9329421575587</v>
       </c>
       <c r="D3" t="n">
         <v>934.0648921175391</v>
@@ -26789,16 +26789,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>239.807948141505</v>
+        <v>239.8079481415049</v>
       </c>
       <c r="C4" t="n">
-        <v>290.2905114143446</v>
+        <v>290.2905114143475</v>
       </c>
       <c r="D4" t="n">
         <v>640.5848321000389</v>
       </c>
       <c r="E4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="F4" t="n">
         <v>1172.708288099648</v>
@@ -26959,16 +26959,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>593.476100338065</v>
+        <v>593.4761003380648</v>
       </c>
       <c r="C3" t="n">
-        <v>43.45684181949139</v>
+        <v>43.45684181949389</v>
       </c>
       <c r="D3" t="n">
-        <v>297.1319499599828</v>
+        <v>297.1319499599804</v>
       </c>
       <c r="E3" t="n">
-        <v>433.9106082241346</v>
+        <v>433.9106082241349</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26977,7 +26977,7 @@
         <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
+        <v>-2.273736754432321e-13</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
@@ -27011,16 +27011,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>239.807948141505</v>
+        <v>239.8079481415049</v>
       </c>
       <c r="C4" t="n">
-        <v>50.48256327283968</v>
+        <v>50.48256327284263</v>
       </c>
       <c r="D4" t="n">
-        <v>350.2943206856942</v>
+        <v>350.2943206856914</v>
       </c>
       <c r="E4" t="n">
-        <v>532.1234559996095</v>
+        <v>532.1234559996097</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27035,16 +27035,16 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>239.807948141505</v>
+        <v>239.8079481415049</v>
       </c>
       <c r="K4" t="n">
-        <v>50.48256327283923</v>
+        <v>50.48256327284263</v>
       </c>
       <c r="L4" t="n">
-        <v>350.2943206856947</v>
+        <v>350.2943206856914</v>
       </c>
       <c r="M4" t="n">
-        <v>532.1234559996095</v>
+        <v>532.1234559996097</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27257,16 +27257,16 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>239.807948141505</v>
+        <v>239.8079481415049</v>
       </c>
       <c r="K4" t="n">
-        <v>50.48256327283968</v>
+        <v>50.48256327284263</v>
       </c>
       <c r="L4" t="n">
-        <v>350.2943206856942</v>
+        <v>350.2943206856914</v>
       </c>
       <c r="M4" t="n">
-        <v>532.1234559996095</v>
+        <v>532.1234559996097</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27378,28 +27378,28 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>142.9258935219756</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
-        <v>154.05005104797</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
-        <v>381.9303700722618</v>
+        <v>289.2035702431147</v>
       </c>
       <c r="F2" t="n">
-        <v>167.0680976002065</v>
+        <v>167.0680976002066</v>
       </c>
       <c r="G2" t="n">
-        <v>173.1089558044318</v>
+        <v>173.108955804432</v>
       </c>
       <c r="H2" t="n">
         <v>315.0408840752156</v>
       </c>
       <c r="I2" t="n">
-        <v>118.4960408938903</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -27435,7 +27435,7 @@
         <v>212.651863114966</v>
       </c>
       <c r="U2" t="n">
-        <v>251.1547862223006</v>
+        <v>11.34683808079578</v>
       </c>
       <c r="V2" t="n">
         <v>327.7522584701349</v>
@@ -27460,16 +27460,16 @@
         <v>0</v>
       </c>
       <c r="C3" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F3" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G3" t="n">
         <v>136.0669836643703</v>
@@ -27478,7 +27478,7 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>25.00776302211993</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -27505,7 +27505,7 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>20.90078060183511</v>
+        <v>0</v>
       </c>
       <c r="S3" t="n">
         <v>147.9721212459916</v>
@@ -27520,13 +27520,13 @@
         <v>232.8005871494253</v>
       </c>
       <c r="W3" t="n">
-        <v>44.38978916024658</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X3" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y3" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="4">
@@ -27536,19 +27536,19 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C4" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
         <v>166.9207765545704</v>
@@ -27557,7 +27557,7 @@
         <v>152.7120966692326</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>123.266557879417</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -27584,16 +27584,16 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>129.1731816677913</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>205.3658819001187</v>
       </c>
       <c r="T4" t="n">
-        <v>0</v>
+        <v>223.3729047207587</v>
       </c>
       <c r="U4" t="n">
-        <v>234.3203177423365</v>
+        <v>286.260654658097</v>
       </c>
       <c r="V4" t="n">
         <v>252.137643323828</v>
@@ -27602,10 +27602,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X4" t="n">
-        <v>225.7096553890372</v>
+        <v>139.0607702616897</v>
       </c>
       <c r="Y4" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -27615,10 +27615,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>92.44333024913595</v>
+        <v>127.0459592097232</v>
       </c>
       <c r="C5" t="n">
-        <v>74.98238035666293</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
         <v>354.683041620683</v>
@@ -27627,16 +27627,16 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
-        <v>163.9303663622574</v>
+        <v>116.585534327364</v>
       </c>
       <c r="G5" t="n">
-        <v>400</v>
+        <v>122.4516916599532</v>
       </c>
       <c r="H5" t="n">
-        <v>22.96121735922727</v>
+        <v>313.2517287735718</v>
       </c>
       <c r="I5" t="n">
-        <v>111.7608855401378</v>
+        <v>111.7608855401374</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27666,10 +27666,10 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>150.6718910157315</v>
+        <v>150.6718910157313</v>
       </c>
       <c r="T5" t="n">
-        <v>211.8871100493788</v>
+        <v>211.8871100493787</v>
       </c>
       <c r="U5" t="n">
         <v>251.1408101525697</v>
@@ -27684,7 +27684,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
-        <v>386.2379386560536</v>
+        <v>95.94742724170612</v>
       </c>
     </row>
     <row r="6">
@@ -27697,25 +27697,25 @@
         <v>0</v>
       </c>
       <c r="C6" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D6" t="n">
-        <v>0</v>
+        <v>19.48084200413282</v>
       </c>
       <c r="E6" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F6" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G6" t="n">
         <v>135.9735104574378</v>
       </c>
       <c r="H6" t="n">
-        <v>99.0040636833744</v>
+        <v>99.00406368337434</v>
       </c>
       <c r="I6" t="n">
-        <v>4.835588996339212</v>
+        <v>42.22754232370907</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -27745,7 +27745,7 @@
         <v>0</v>
       </c>
       <c r="S6" t="n">
-        <v>146.2358974242411</v>
+        <v>146.235897424241</v>
       </c>
       <c r="T6" t="n">
         <v>194.6426402623424</v>
@@ -27754,13 +27754,13 @@
         <v>225.8512500608582</v>
       </c>
       <c r="V6" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W6" t="n">
-        <v>0</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X6" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y6" t="n">
         <v>0</v>
@@ -27773,31 +27773,31 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>166.8424117578468</v>
       </c>
       <c r="H7" t="n">
         <v>152.0153623856348</v>
       </c>
       <c r="I7" t="n">
-        <v>120.9099147197633</v>
+        <v>120.9099147197631</v>
       </c>
       <c r="J7" t="n">
-        <v>0</v>
+        <v>12.15545075340502</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -27821,28 +27821,28 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>125.6496154441978</v>
+        <v>125.6496154441976</v>
       </c>
       <c r="S7" t="n">
-        <v>204.0001972153979</v>
+        <v>204.0001972153978</v>
       </c>
       <c r="T7" t="n">
         <v>223.0380733165757</v>
       </c>
       <c r="U7" t="n">
-        <v>91.60002450785379</v>
+        <v>286.2563802146393</v>
       </c>
       <c r="V7" t="n">
-        <v>252.137643323828</v>
+        <v>102.1397148366382</v>
       </c>
       <c r="W7" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X7" t="n">
         <v>0</v>
       </c>
       <c r="Y7" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -27852,7 +27852,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>228.4055642615426</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
         <v>365.2728917710076</v>
@@ -27867,13 +27867,13 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="H8" t="n">
-        <v>301.0185525624054</v>
+        <v>243.2710331090094</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>65.70991267247049</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27909,19 +27909,19 @@
         <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>251.045250128462</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
         <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="9">
@@ -28013,22 +28013,22 @@
         <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
         <v>166.3066000448042</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>147.2515091551289</v>
       </c>
       <c r="I10" t="n">
         <v>104.7965952039006</v>
@@ -28064,10 +28064,10 @@
         <v>194.6624603617375</v>
       </c>
       <c r="T10" t="n">
-        <v>21.95729429656373</v>
+        <v>220.7486959972119</v>
       </c>
       <c r="U10" t="n">
-        <v>0</v>
+        <v>43.08974057846876</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -28079,7 +28079,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="11">
@@ -29571,7 +29571,7 @@
         <v>0</v>
       </c>
       <c r="V29" t="n">
-        <v>1.193711796076968e-12</v>
+        <v>0</v>
       </c>
       <c r="W29" t="n">
         <v>0</v>
@@ -31047,22 +31047,22 @@
         <v>24.43391804055157</v>
       </c>
       <c r="I2" t="n">
-        <v>91.97984867651559</v>
+        <v>91.97984867651557</v>
       </c>
       <c r="J2" t="n">
         <v>202.4946418937401</v>
       </c>
       <c r="K2" t="n">
-        <v>303.4869768779021</v>
+        <v>303.486976877902</v>
       </c>
       <c r="L2" t="n">
         <v>376.502430971253</v>
       </c>
       <c r="M2" t="n">
-        <v>418.9314987074824</v>
+        <v>418.9314987074823</v>
       </c>
       <c r="N2" t="n">
-        <v>425.710248335967</v>
+        <v>425.7102483359669</v>
       </c>
       <c r="O2" t="n">
         <v>401.9861157822518</v>
@@ -31074,10 +31074,10 @@
         <v>257.6431848457576</v>
       </c>
       <c r="R2" t="n">
-        <v>149.8691179411497</v>
+        <v>149.8691179411496</v>
       </c>
       <c r="S2" t="n">
-        <v>54.36718245810516</v>
+        <v>54.36718245810515</v>
       </c>
       <c r="T2" t="n">
         <v>10.44398644916534</v>
@@ -31126,7 +31126,7 @@
         <v>12.32862615985301</v>
       </c>
       <c r="I3" t="n">
-        <v>43.9508244118284</v>
+        <v>43.95082441182839</v>
       </c>
       <c r="J3" t="n">
         <v>120.6044214847383</v>
@@ -31135,16 +31135,16 @@
         <v>206.1321659070428</v>
       </c>
       <c r="L3" t="n">
-        <v>277.1701353512822</v>
+        <v>277.1701353512821</v>
       </c>
       <c r="M3" t="n">
         <v>323.4444746842453</v>
       </c>
       <c r="N3" t="n">
-        <v>332.0050874900653</v>
+        <v>332.0050874900652</v>
       </c>
       <c r="O3" t="n">
-        <v>303.7197925947077</v>
+        <v>303.7197925947076</v>
       </c>
       <c r="P3" t="n">
         <v>243.7619099671573</v>
@@ -31153,16 +31153,16 @@
         <v>162.9483813607457</v>
       </c>
       <c r="R3" t="n">
-        <v>79.25705355080802</v>
+        <v>79.25705355080801</v>
       </c>
       <c r="S3" t="n">
         <v>23.71104985784626</v>
       </c>
       <c r="T3" t="n">
-        <v>5.145325813308316</v>
+        <v>5.145325813308315</v>
       </c>
       <c r="U3" t="n">
-        <v>0.0839824670289715</v>
+        <v>0.08398246702897147</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -31202,25 +31202,25 @@
         <v>1.070202803888314</v>
       </c>
       <c r="H4" t="n">
-        <v>9.515075838207014</v>
+        <v>9.515075838207013</v>
       </c>
       <c r="I4" t="n">
-        <v>32.1839170478413</v>
+        <v>32.18391704784129</v>
       </c>
       <c r="J4" t="n">
-        <v>75.66333823490378</v>
+        <v>75.66333823490376</v>
       </c>
       <c r="K4" t="n">
-        <v>124.3381075790241</v>
+        <v>124.338107579024</v>
       </c>
       <c r="L4" t="n">
         <v>159.1099695889953</v>
       </c>
       <c r="M4" t="n">
-        <v>167.7591540676927</v>
+        <v>167.7591540676926</v>
       </c>
       <c r="N4" t="n">
-        <v>163.7702163441091</v>
+        <v>163.770216344109</v>
       </c>
       <c r="O4" t="n">
         <v>151.2683017714137</v>
@@ -31229,19 +31229,19 @@
         <v>129.436164572092</v>
       </c>
       <c r="Q4" t="n">
-        <v>89.6148911510478</v>
+        <v>89.61489115104779</v>
       </c>
       <c r="R4" t="n">
-        <v>48.12020970937817</v>
+        <v>48.12020970937816</v>
       </c>
       <c r="S4" t="n">
-        <v>18.65071613685361</v>
+        <v>18.6507161368536</v>
       </c>
       <c r="T4" t="n">
-        <v>4.572684707522794</v>
+        <v>4.572684707522793</v>
       </c>
       <c r="U4" t="n">
-        <v>0.05837469839390809</v>
+        <v>0.05837469839390808</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -31278,49 +31278,49 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>2.560534440834395</v>
+        <v>2.560534440834405</v>
       </c>
       <c r="H5" t="n">
-        <v>26.22307334219526</v>
+        <v>26.22307334219536</v>
       </c>
       <c r="I5" t="n">
-        <v>98.71500403026812</v>
+        <v>98.71500403026849</v>
       </c>
       <c r="J5" t="n">
-        <v>217.3221599977685</v>
+        <v>217.3221599977693</v>
       </c>
       <c r="K5" t="n">
-        <v>325.7095828782885</v>
+        <v>325.7095828782897</v>
       </c>
       <c r="L5" t="n">
-        <v>404.0715387719742</v>
+        <v>404.0715387719757</v>
       </c>
       <c r="M5" t="n">
-        <v>449.6074431341628</v>
+        <v>449.6074431341646</v>
       </c>
       <c r="N5" t="n">
-        <v>456.8825616141836</v>
+        <v>456.8825616141854</v>
       </c>
       <c r="O5" t="n">
-        <v>431.4212472681366</v>
+        <v>431.4212472681382</v>
       </c>
       <c r="P5" t="n">
-        <v>368.2080532600374</v>
+        <v>368.2080532600388</v>
       </c>
       <c r="Q5" t="n">
-        <v>276.5089135976555</v>
+        <v>276.5089135976565</v>
       </c>
       <c r="R5" t="n">
-        <v>160.8431715690637</v>
+        <v>160.8431715690643</v>
       </c>
       <c r="S5" t="n">
-        <v>58.34817857051384</v>
+        <v>58.34817857051407</v>
       </c>
       <c r="T5" t="n">
-        <v>11.20873951475257</v>
+        <v>11.20873951475261</v>
       </c>
       <c r="U5" t="n">
-        <v>0.2048427552667516</v>
+        <v>0.2048427552667524</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
@@ -31357,49 +31357,49 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>1.370006705772857</v>
+        <v>1.370006705772862</v>
       </c>
       <c r="H6" t="n">
-        <v>13.23138055312207</v>
+        <v>13.23138055312212</v>
       </c>
       <c r="I6" t="n">
-        <v>47.16909052770583</v>
+        <v>47.169090527706</v>
       </c>
       <c r="J6" t="n">
-        <v>129.4355896888295</v>
+        <v>129.43558968883</v>
       </c>
       <c r="K6" t="n">
-        <v>221.2260389756109</v>
+        <v>221.2260389756117</v>
       </c>
       <c r="L6" t="n">
-        <v>297.4657103916022</v>
+        <v>297.4657103916033</v>
       </c>
       <c r="M6" t="n">
-        <v>347.1284534758682</v>
+        <v>347.1284534758694</v>
       </c>
       <c r="N6" t="n">
-        <v>356.3159107264239</v>
+        <v>356.3159107264253</v>
       </c>
       <c r="O6" t="n">
-        <v>325.9594463511411</v>
+        <v>325.9594463511423</v>
       </c>
       <c r="P6" t="n">
-        <v>261.6111927892046</v>
+        <v>261.6111927892056</v>
       </c>
       <c r="Q6" t="n">
-        <v>174.880154231637</v>
+        <v>174.8801542316376</v>
       </c>
       <c r="R6" t="n">
-        <v>85.06059178473936</v>
+        <v>85.06059178473967</v>
       </c>
       <c r="S6" t="n">
-        <v>25.44727367959669</v>
+        <v>25.44727367959679</v>
       </c>
       <c r="T6" t="n">
-        <v>5.522088432479189</v>
+        <v>5.52208843247921</v>
       </c>
       <c r="U6" t="n">
-        <v>0.09013202011663538</v>
+        <v>0.09013202011663571</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -31436,49 +31436,49 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>1.148567600611987</v>
+        <v>1.148567600611991</v>
       </c>
       <c r="H7" t="n">
-        <v>10.21181012180476</v>
+        <v>10.2118101218048</v>
       </c>
       <c r="I7" t="n">
-        <v>34.54056020749503</v>
+        <v>34.54056020749516</v>
       </c>
       <c r="J7" t="n">
-        <v>81.20372936326746</v>
+        <v>81.20372936326775</v>
       </c>
       <c r="K7" t="n">
-        <v>133.442672143829</v>
+        <v>133.4426721438295</v>
       </c>
       <c r="L7" t="n">
-        <v>170.7606776400767</v>
+        <v>170.7606776400773</v>
       </c>
       <c r="M7" t="n">
-        <v>180.0431921577499</v>
+        <v>180.0431921577505</v>
       </c>
       <c r="N7" t="n">
-        <v>175.7621674645599</v>
+        <v>175.7621674645605</v>
       </c>
       <c r="O7" t="n">
-        <v>162.3448095846834</v>
+        <v>162.344809584684</v>
       </c>
       <c r="P7" t="n">
-        <v>138.9140305321988</v>
+        <v>138.9140305321993</v>
       </c>
       <c r="Q7" t="n">
-        <v>96.176874265791</v>
+        <v>96.17687426579137</v>
       </c>
       <c r="R7" t="n">
-        <v>51.64377593297168</v>
+        <v>51.64377593297188</v>
       </c>
       <c r="S7" t="n">
-        <v>20.01640082157434</v>
+        <v>20.01640082157442</v>
       </c>
       <c r="T7" t="n">
-        <v>4.90751611170576</v>
+        <v>4.907516111705778</v>
       </c>
       <c r="U7" t="n">
-        <v>0.06264914185156298</v>
+        <v>0.06264914185156321</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -31752,7 +31752,7 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H11" t="n">
         <v>56.32071997135341</v>
@@ -31764,31 +31764,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K11" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L11" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M11" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N11" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O11" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P11" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q11" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R11" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S11" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T11" t="n">
         <v>24.07361910651528</v>
@@ -31831,10 +31831,10 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H12" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I12" t="n">
         <v>99.52238</v>
@@ -31846,34 +31846,34 @@
         <v>137.841438974359</v>
       </c>
       <c r="L12" t="n">
-        <v>441.0292693655512</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M12" t="n">
-        <v>745.5466476862121</v>
+        <v>620.1193660647493</v>
       </c>
       <c r="N12" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O12" t="n">
-        <v>700.0808204437243</v>
+        <v>700.0808204437244</v>
       </c>
       <c r="P12" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214699</v>
       </c>
       <c r="Q12" t="n">
-        <v>375.599612848529</v>
+        <v>375.5996128485291</v>
       </c>
       <c r="R12" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S12" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T12" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U12" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -31913,25 +31913,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H13" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I13" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J13" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K13" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L13" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M13" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N13" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O13" t="n">
         <v>348.6767717920058</v>
@@ -31940,19 +31940,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q13" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R13" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S13" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T13" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U13" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -31989,7 +31989,7 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H14" t="n">
         <v>56.32071997135341</v>
@@ -32001,31 +32001,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K14" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L14" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M14" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N14" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O14" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P14" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q14" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R14" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S14" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T14" t="n">
         <v>24.07361910651528</v>
@@ -32068,10 +32068,10 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H15" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I15" t="n">
         <v>99.52238</v>
@@ -32083,34 +32083,34 @@
         <v>137.841438974359</v>
       </c>
       <c r="L15" t="n">
-        <v>138.5543797798742</v>
+        <v>248.7449369209194</v>
       </c>
       <c r="M15" t="n">
-        <v>583.1096135868578</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N15" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O15" t="n">
-        <v>700.0808204437243</v>
+        <v>700.0808204437244</v>
       </c>
       <c r="P15" t="n">
-        <v>561.8765786214698</v>
+        <v>561.8765786214699</v>
       </c>
       <c r="Q15" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R15" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S15" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T15" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U15" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
@@ -32150,25 +32150,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H16" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I16" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J16" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K16" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L16" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M16" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N16" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O16" t="n">
         <v>348.6767717920058</v>
@@ -32177,19 +32177,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q16" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R16" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S16" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T16" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U16" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32226,7 +32226,7 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H17" t="n">
         <v>56.32071997135341</v>
@@ -32238,31 +32238,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K17" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L17" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M17" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N17" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O17" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P17" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q17" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R17" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S17" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T17" t="n">
         <v>24.07361910651528</v>
@@ -32305,34 +32305,34 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H18" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I18" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J18" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K18" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L18" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M18" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N18" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O18" t="n">
-        <v>142.5962444444444</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P18" t="n">
-        <v>391.925066926462</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q18" t="n">
         <v>139.9817740860215</v>
@@ -32341,13 +32341,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S18" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T18" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U18" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V18" t="n">
         <v>0</v>
@@ -32387,25 +32387,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H19" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I19" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J19" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K19" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L19" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M19" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N19" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O19" t="n">
         <v>348.6767717920058</v>
@@ -32414,19 +32414,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q19" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R19" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S19" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T19" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U19" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32548,34 +32548,34 @@
         <v>28.417755205211</v>
       </c>
       <c r="I21" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J21" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K21" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L21" t="n">
-        <v>579.5299594447137</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M21" t="n">
-        <v>142.1340339220183</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N21" t="n">
         <v>765.2790490071785</v>
       </c>
       <c r="O21" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P21" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q21" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R21" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S21" t="n">
         <v>54.65449286742438</v>
@@ -32785,16 +32785,16 @@
         <v>28.417755205211</v>
       </c>
       <c r="I24" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J24" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K24" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L24" t="n">
-        <v>211.7351844430274</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M24" t="n">
         <v>745.5466476862121</v>
@@ -32803,16 +32803,16 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O24" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P24" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q24" t="n">
         <v>139.9817740860215</v>
       </c>
       <c r="R24" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S24" t="n">
         <v>54.65449286742438</v>
@@ -33022,31 +33022,31 @@
         <v>28.417755205211</v>
       </c>
       <c r="I27" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J27" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K27" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L27" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M27" t="n">
         <v>745.5466476862121</v>
       </c>
       <c r="N27" t="n">
-        <v>639.8517673857162</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O27" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P27" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q27" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R27" t="n">
         <v>145.679503963964</v>
@@ -33180,7 +33180,7 @@
         <v>56.32071997135341</v>
       </c>
       <c r="I29" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067237</v>
       </c>
       <c r="J29" t="n">
         <v>466.7546155663283</v>
@@ -33259,34 +33259,34 @@
         <v>28.417755205211</v>
       </c>
       <c r="I30" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J30" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K30" t="n">
-        <v>314.105962234273</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L30" t="n">
         <v>638.8832749473072</v>
       </c>
       <c r="M30" t="n">
-        <v>142.1340339220183</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N30" t="n">
         <v>765.2790490071785</v>
       </c>
       <c r="O30" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P30" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q30" t="n">
         <v>139.9817740860215</v>
       </c>
       <c r="R30" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S30" t="n">
         <v>54.65449286742438</v>
@@ -33496,7 +33496,7 @@
         <v>28.417755205211</v>
       </c>
       <c r="I33" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J33" t="n">
         <v>277.9958514420755</v>
@@ -33508,22 +33508,22 @@
         <v>638.8832749473072</v>
       </c>
       <c r="M33" t="n">
-        <v>142.1340339220183</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N33" t="n">
-        <v>604.245822599193</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O33" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P33" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q33" t="n">
         <v>139.9817740860215</v>
       </c>
       <c r="R33" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S33" t="n">
         <v>54.65449286742438</v>
@@ -33733,7 +33733,7 @@
         <v>28.417755205211</v>
       </c>
       <c r="I36" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J36" t="n">
         <v>277.9958514420755</v>
@@ -33742,7 +33742,7 @@
         <v>475.1391886422585</v>
       </c>
       <c r="L36" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M36" t="n">
         <v>745.5466476862121</v>
@@ -33751,16 +33751,16 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O36" t="n">
-        <v>628.2482078836097</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P36" t="n">
         <v>133.9744074143302</v>
       </c>
       <c r="Q36" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R36" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S36" t="n">
         <v>54.65449286742438</v>
@@ -33970,34 +33970,34 @@
         <v>28.417755205211</v>
       </c>
       <c r="I39" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J39" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K39" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L39" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M39" t="n">
-        <v>583.1096135868578</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N39" t="n">
         <v>765.2790490071785</v>
       </c>
       <c r="O39" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P39" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q39" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R39" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S39" t="n">
         <v>54.65449286742438</v>
@@ -34216,7 +34216,7 @@
         <v>475.1391886422585</v>
       </c>
       <c r="L42" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M42" t="n">
         <v>745.5466476862121</v>
@@ -34225,7 +34225,7 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O42" t="n">
-        <v>628.2482078836097</v>
+        <v>164.9290651940687</v>
       </c>
       <c r="P42" t="n">
         <v>133.9744074143302</v>
@@ -34234,7 +34234,7 @@
         <v>375.599612848529</v>
       </c>
       <c r="R42" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S42" t="n">
         <v>54.65449286742438</v>
@@ -34450,28 +34450,28 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K45" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L45" t="n">
         <v>638.8832749473072</v>
       </c>
       <c r="M45" t="n">
-        <v>142.1340339220183</v>
+        <v>446.0127311990643</v>
       </c>
       <c r="N45" t="n">
-        <v>705.9257335045849</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O45" t="n">
         <v>700.0808204437243</v>
       </c>
       <c r="P45" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q45" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R45" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S45" t="n">
         <v>54.65449286742438</v>
@@ -34698,28 +34698,28 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>21.44873736705381</v>
+        <v>21.44873736705378</v>
       </c>
       <c r="K2" t="n">
-        <v>83.39712583292152</v>
+        <v>83.39712583292146</v>
       </c>
       <c r="L2" t="n">
-        <v>140.7360160012658</v>
+        <v>140.7360160012657</v>
       </c>
       <c r="M2" t="n">
         <v>188.5852654802096</v>
       </c>
       <c r="N2" t="n">
-        <v>196.2971847393761</v>
+        <v>196.297184739376</v>
       </c>
       <c r="O2" t="n">
-        <v>171.8879043605651</v>
+        <v>171.887904360565</v>
       </c>
       <c r="P2" t="n">
-        <v>111.8528537874005</v>
+        <v>111.8528537874004</v>
       </c>
       <c r="Q2" t="n">
-        <v>35.33749497130813</v>
+        <v>35.33749497130808</v>
       </c>
       <c r="R2" t="n">
         <v>0</v>
@@ -34780,13 +34780,13 @@
         <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>76.57784544264096</v>
+        <v>68.29072693268378</v>
       </c>
       <c r="L3" t="n">
-        <v>138.615755571408</v>
+        <v>138.6157555714079</v>
       </c>
       <c r="M3" t="n">
-        <v>239.807948141505</v>
+        <v>181.310440762227</v>
       </c>
       <c r="N3" t="n">
         <v>200.6633754067319</v>
@@ -34795,10 +34795,10 @@
         <v>161.1235481502632</v>
       </c>
       <c r="P3" t="n">
-        <v>109.7875025528271</v>
+        <v>109.787502552827</v>
       </c>
       <c r="Q3" t="n">
-        <v>22.9666072747242</v>
+        <v>89.7512331639593</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34862,22 +34862,22 @@
         <v>102.0686157531412</v>
       </c>
       <c r="L4" t="n">
-        <v>186.6999948493115</v>
+        <v>186.6999948493114</v>
       </c>
       <c r="M4" t="n">
-        <v>207.3430310295333</v>
+        <v>146.8505817925175</v>
       </c>
       <c r="N4" t="n">
-        <v>207.9023887233377</v>
+        <v>207.9023887233376</v>
       </c>
       <c r="O4" t="n">
         <v>175.8534296854534</v>
       </c>
       <c r="P4" t="n">
-        <v>66.22227459997013</v>
+        <v>126.7147238369855</v>
       </c>
       <c r="Q4" t="n">
-        <v>3.452847899353415</v>
+        <v>3.452847899353401</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -34935,28 +34935,28 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>36.27625547108218</v>
+        <v>36.276255471083</v>
       </c>
       <c r="K5" t="n">
-        <v>105.6197318333079</v>
+        <v>105.6197318333092</v>
       </c>
       <c r="L5" t="n">
-        <v>168.305123801987</v>
+        <v>168.3051238019885</v>
       </c>
       <c r="M5" t="n">
-        <v>219.2612099068901</v>
+        <v>219.2612099068918</v>
       </c>
       <c r="N5" t="n">
-        <v>227.4694980175927</v>
+        <v>227.4694980175944</v>
       </c>
       <c r="O5" t="n">
-        <v>201.3230358464499</v>
+        <v>201.3230358464515</v>
       </c>
       <c r="P5" t="n">
-        <v>136.9750575047678</v>
+        <v>136.9750575047692</v>
       </c>
       <c r="Q5" t="n">
-        <v>54.20322372320604</v>
+        <v>54.20322372320706</v>
       </c>
       <c r="R5" t="n">
         <v>0</v>
@@ -35014,28 +35014,28 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>128.6889983625716</v>
+        <v>2.59796302216327</v>
       </c>
       <c r="K6" t="n">
-        <v>83.3846000012519</v>
+        <v>83.38460000125272</v>
       </c>
       <c r="L6" t="n">
-        <v>158.911330611728</v>
+        <v>158.9113306117291</v>
       </c>
       <c r="M6" t="n">
-        <v>204.9944195538499</v>
+        <v>204.9944195538511</v>
       </c>
       <c r="N6" t="n">
-        <v>224.9741986430906</v>
+        <v>224.974198643092</v>
       </c>
       <c r="O6" t="n">
-        <v>183.3632019066967</v>
+        <v>183.3632019066979</v>
       </c>
       <c r="P6" t="n">
-        <v>127.6367853748744</v>
+        <v>127.6367853748754</v>
       </c>
       <c r="Q6" t="n">
-        <v>37.47960165122076</v>
+        <v>163.5706369916336</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35096,25 +35096,25 @@
         <v>0</v>
       </c>
       <c r="K7" t="n">
-        <v>111.1731803179461</v>
+        <v>111.1731803179466</v>
       </c>
       <c r="L7" t="n">
-        <v>198.3507029003928</v>
+        <v>198.3507029003935</v>
       </c>
       <c r="M7" t="n">
-        <v>219.6270691195905</v>
+        <v>219.6270691195911</v>
       </c>
       <c r="N7" t="n">
-        <v>219.8943398437885</v>
+        <v>219.8943398437891</v>
       </c>
       <c r="O7" t="n">
-        <v>186.9299374987231</v>
+        <v>186.9299374987237</v>
       </c>
       <c r="P7" t="n">
-        <v>136.1925897970923</v>
+        <v>136.1925897970928</v>
       </c>
       <c r="Q7" t="n">
-        <v>10.01483101409661</v>
+        <v>10.01483101409698</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -35406,34 +35406,34 @@
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J11" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K11" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L11" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M11" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N11" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O11" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P11" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q11" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R11" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35494,22 +35494,22 @@
         <v>0</v>
       </c>
       <c r="L12" t="n">
-        <v>302.474889585677</v>
+        <v>0</v>
       </c>
       <c r="M12" t="n">
-        <v>603.4126137641938</v>
+        <v>477.985332142731</v>
       </c>
       <c r="N12" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O12" t="n">
-        <v>557.4845759992799</v>
+        <v>557.48457599928</v>
       </c>
       <c r="P12" t="n">
-        <v>0</v>
+        <v>427.9021712071396</v>
       </c>
       <c r="Q12" t="n">
-        <v>235.6178387625075</v>
+        <v>235.6178387625076</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35567,22 +35567,22 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K13" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L13" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M13" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N13" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O13" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P13" t="n">
         <v>295.631773306625</v>
@@ -35643,34 +35643,34 @@
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J14" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K14" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L14" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M14" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N14" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O14" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P14" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q14" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R14" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35731,25 +35731,25 @@
         <v>0</v>
       </c>
       <c r="L15" t="n">
-        <v>0</v>
+        <v>110.1905571410452</v>
       </c>
       <c r="M15" t="n">
-        <v>440.9755796648395</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N15" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O15" t="n">
-        <v>557.4845759992799</v>
+        <v>557.48457599928</v>
       </c>
       <c r="P15" t="n">
-        <v>427.9021712071395</v>
+        <v>427.9021712071396</v>
       </c>
       <c r="Q15" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -35804,22 +35804,22 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K16" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L16" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M16" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N16" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O16" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P16" t="n">
         <v>295.631773306625</v>
@@ -35880,34 +35880,34 @@
         <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J17" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K17" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L17" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M17" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N17" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O17" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P17" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q17" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R17" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35959,7 +35959,7 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>0</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J18" t="n">
         <v>151.1582247754088</v>
@@ -35968,19 +35968,19 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L18" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M18" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N18" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O18" t="n">
-        <v>0</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P18" t="n">
-        <v>257.9506595121318</v>
+        <v>0</v>
       </c>
       <c r="Q18" t="n">
         <v>0</v>
@@ -36041,22 +36041,22 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K19" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L19" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M19" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N19" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O19" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P19" t="n">
         <v>295.631773306625</v>
@@ -36196,34 +36196,34 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J21" t="n">
         <v>151.1582247754088</v>
       </c>
       <c r="K21" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L21" t="n">
-        <v>440.9755796648395</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M21" t="n">
-        <v>0</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N21" t="n">
         <v>633.9373369238452</v>
       </c>
       <c r="O21" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P21" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q21" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -36433,16 +36433,16 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J24" t="n">
         <v>151.1582247754088</v>
       </c>
       <c r="K24" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L24" t="n">
-        <v>73.18080466315317</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M24" t="n">
         <v>603.4126137641938</v>
@@ -36451,16 +36451,16 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O24" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P24" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q24" t="n">
         <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -36670,31 +36670,31 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J27" t="n">
         <v>151.1582247754088</v>
       </c>
       <c r="K27" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L27" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M27" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N27" t="n">
-        <v>508.510055302383</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O27" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P27" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q27" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R27" t="n">
         <v>0</v>
@@ -36828,7 +36828,7 @@
         <v>0</v>
       </c>
       <c r="I29" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317809</v>
       </c>
       <c r="J29" t="n">
         <v>285.708711039642</v>
@@ -36907,34 +36907,34 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J30" t="n">
         <v>151.1582247754088</v>
       </c>
       <c r="K30" t="n">
-        <v>176.264523259914</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L30" t="n">
         <v>500.328895167433</v>
       </c>
       <c r="M30" t="n">
-        <v>0</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N30" t="n">
         <v>633.9373369238452</v>
       </c>
       <c r="O30" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P30" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q30" t="n">
         <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -37144,7 +37144,7 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J33" t="n">
         <v>151.1582247754088</v>
@@ -37156,22 +37156,22 @@
         <v>500.328895167433</v>
       </c>
       <c r="M33" t="n">
-        <v>0</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N33" t="n">
-        <v>472.9041105158597</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O33" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P33" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q33" t="n">
         <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -37381,7 +37381,7 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J36" t="n">
         <v>151.1582247754088</v>
@@ -37390,7 +37390,7 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L36" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M36" t="n">
         <v>603.4126137641938</v>
@@ -37399,16 +37399,16 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O36" t="n">
-        <v>485.6519634391653</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P36" t="n">
         <v>0</v>
       </c>
       <c r="Q36" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -37618,34 +37618,34 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J39" t="n">
         <v>151.1582247754088</v>
       </c>
       <c r="K39" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L39" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M39" t="n">
-        <v>440.9755796648395</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N39" t="n">
         <v>633.9373369238452</v>
       </c>
       <c r="O39" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P39" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q39" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -37864,7 +37864,7 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L42" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M42" t="n">
         <v>603.4126137641938</v>
@@ -37873,7 +37873,7 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O42" t="n">
-        <v>485.6519634391653</v>
+        <v>22.33282074962425</v>
       </c>
       <c r="P42" t="n">
         <v>0</v>
@@ -37882,7 +37882,7 @@
         <v>235.6178387625075</v>
       </c>
       <c r="R42" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -38025,7 +38025,7 @@
         <v>632.0799921462688</v>
       </c>
       <c r="M44" t="n">
-        <v>735.3001107902948</v>
+        <v>735.3001107902952</v>
       </c>
       <c r="N44" t="n">
         <v>751.8584478193516</v>
@@ -38098,28 +38098,28 @@
         <v>151.1582247754088</v>
       </c>
       <c r="K45" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L45" t="n">
         <v>500.328895167433</v>
       </c>
       <c r="M45" t="n">
-        <v>0</v>
+        <v>303.8786972770459</v>
       </c>
       <c r="N45" t="n">
-        <v>574.5840214212516</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O45" t="n">
         <v>557.4845759992799</v>
       </c>
       <c r="P45" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q45" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>

--- a/Outputs/1. Budget/Grid Search/Output Files/1500000/Output_20_27.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/1500000/Output_20_27.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.01</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1760638.380612453</v>
+        <v>1762398.910915239</v>
       </c>
     </row>
     <row r="7">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>416855.1052283185</v>
+        <v>416855.1052283188</v>
       </c>
     </row>
     <row r="9">
@@ -658,28 +658,28 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>198.3059367771007</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>239.807948141505</v>
       </c>
       <c r="D2" t="n">
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>92.72679982914711</v>
+        <v>239.807948141505</v>
       </c>
       <c r="F2" t="n">
-        <v>239.8079481415049</v>
+        <v>239.807948141505</v>
       </c>
       <c r="G2" t="n">
-        <v>239.8079481415049</v>
+        <v>12.9169039459368</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>118.4960408938903</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -715,7 +715,7 @@
         <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>239.8079481415049</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
@@ -746,7 +746,7 @@
         <v>147.4450655646388</v>
       </c>
       <c r="E3" t="n">
-        <v>157.6450804554009</v>
+        <v>93.11773934786932</v>
       </c>
       <c r="F3" t="n">
         <v>145.0692123933839</v>
@@ -755,10 +755,10 @@
         <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>99.90681807664345</v>
+        <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>20.43804541746675</v>
+        <v>0</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -785,7 +785,7 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>20.90078060183512</v>
+        <v>0</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
@@ -803,7 +803,7 @@
         <v>0</v>
       </c>
       <c r="X3" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y3" t="n">
         <v>0</v>
@@ -816,19 +816,19 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C4" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
         <v>0</v>
@@ -837,10 +837,10 @@
         <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>123.266557879417</v>
       </c>
       <c r="J4" t="n">
-        <v>17.69584188176901</v>
+        <v>0</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -867,7 +867,7 @@
         <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>205.3658819001186</v>
       </c>
       <c r="T4" t="n">
         <v>0</v>
@@ -876,16 +876,16 @@
         <v>0</v>
       </c>
       <c r="V4" t="n">
-        <v>0</v>
+        <v>239.807948141505</v>
       </c>
       <c r="W4" t="n">
-        <v>0</v>
+        <v>182.3743170445746</v>
       </c>
       <c r="X4" t="n">
-        <v>86.64888512734748</v>
+        <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -895,28 +895,28 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>255.6878824537573</v>
+        <v>124.308748097606</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>290.2905114143457</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>290.2905114143457</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>290.2905114143457</v>
       </c>
       <c r="F5" t="n">
-        <v>290.2905114143475</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G5" t="n">
-        <v>290.2905114143475</v>
+        <v>12.74220307430065</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>111.7608855401377</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -964,7 +964,7 @@
         <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>290.2905114143475</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -977,10 +977,10 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C6" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D6" t="n">
-        <v>127.9642235605059</v>
+        <v>0</v>
       </c>
       <c r="E6" t="n">
         <v>0</v>
@@ -992,7 +992,7 @@
         <v>0</v>
       </c>
       <c r="H6" t="n">
-        <v>0</v>
+        <v>48.97773938789506</v>
       </c>
       <c r="I6" t="n">
         <v>0</v>
@@ -1022,7 +1022,7 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>15.09724236790346</v>
+        <v>15.09724236790366</v>
       </c>
       <c r="S6" t="n">
         <v>0</v>
@@ -1037,7 +1037,7 @@
         <v>232.8005871494253</v>
       </c>
       <c r="W6" t="n">
-        <v>0</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X6" t="n">
         <v>205.7729852034775</v>
@@ -1056,13 +1056,13 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>122.8401430785817</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
         <v>0</v>
@@ -1113,10 +1113,10 @@
         <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>149.9979284871898</v>
+        <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X7" t="n">
         <v>225.7096553890372</v>
@@ -1132,10 +1132,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
         <v>0</v>
@@ -1147,13 +1147,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G8" t="n">
-        <v>11.54770277295399</v>
+        <v>196.2020632744399</v>
       </c>
       <c r="H8" t="n">
-        <v>57.74751945339602</v>
+        <v>301.0185525624053</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>65.70991267247013</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1183,25 +1183,25 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>123.4522153987944</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>206.6581849802338</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>251.045250128462</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="9">
@@ -1229,10 +1229,10 @@
         <v>135.3343964518635</v>
       </c>
       <c r="H9" t="n">
-        <v>92.83156789269626</v>
+        <v>92.8315678926962</v>
       </c>
       <c r="I9" t="n">
-        <v>20.22295923705015</v>
+        <v>20.22295923704996</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -1262,7 +1262,7 @@
         <v>0</v>
       </c>
       <c r="S9" t="n">
-        <v>134.3646350838588</v>
+        <v>134.3646350838587</v>
       </c>
       <c r="T9" t="n">
         <v>192.0665623188214</v>
@@ -1347,7 +1347,7 @@
         <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>243.1374135427318</v>
+        <v>243.1374135427364</v>
       </c>
       <c r="V10" t="n">
         <v>252.137643323828</v>
@@ -1381,13 +1381,13 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F11" t="n">
-        <v>406.8760457417118</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G11" t="n">
         <v>409.8033385187866</v>
       </c>
       <c r="H11" t="n">
-        <v>283.1540821444137</v>
+        <v>283.1540821444132</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -1420,7 +1420,7 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T11" t="n">
         <v>199.0222304576161</v>
@@ -1530,7 +1530,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
         <v>148.6154730182124</v>
@@ -1539,10 +1539,10 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
         <v>0</v>
@@ -1575,10 +1575,10 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S13" t="n">
-        <v>57.24347904696366</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T13" t="n">
         <v>217.4054503272883</v>
@@ -1593,7 +1593,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X13" t="n">
-        <v>225.7096553890372</v>
+        <v>179.2499669408062</v>
       </c>
       <c r="Y13" t="n">
         <v>218.5846533520948</v>
@@ -1657,10 +1657,10 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T14" t="n">
-        <v>199.0222304576164</v>
+        <v>199.0222304576161</v>
       </c>
       <c r="U14" t="n">
         <v>250.9057009881286</v>
@@ -1672,7 +1672,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X14" t="n">
-        <v>369.731100678469</v>
+        <v>369.7311006784686</v>
       </c>
       <c r="Y14" t="n">
         <v>386.2379386560536</v>
@@ -1764,7 +1764,7 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>179.8319801819373</v>
+        <v>95.05806357631725</v>
       </c>
       <c r="C16" t="n">
         <v>167.2468210986278</v>
@@ -1779,10 +1779,10 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
-        <v>55.52079624060473</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I16" t="n">
         <v>0</v>
@@ -1861,7 +1861,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H17" t="n">
-        <v>283.1540821444137</v>
+        <v>283.1540821444132</v>
       </c>
       <c r="I17" t="n">
         <v>0</v>
@@ -1894,10 +1894,10 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T17" t="n">
-        <v>199.0222304576164</v>
+        <v>199.0222304576161</v>
       </c>
       <c r="U17" t="n">
         <v>250.9057009881286</v>
@@ -2007,13 +2007,13 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
-        <v>148.6154730182124</v>
+        <v>34.45703212904674</v>
       </c>
       <c r="E19" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
         <v>165.5241382922688</v>
@@ -2022,7 +2022,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I19" t="n">
-        <v>81.26583631856552</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2049,13 +2049,13 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>39.56681219551463</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
         <v>0</v>
       </c>
       <c r="T19" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U19" t="n">
         <v>286.1844743892441</v>
@@ -2067,7 +2067,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X19" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y19" t="n">
         <v>218.5846533520948</v>
@@ -2086,10 +2086,10 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D20" t="n">
-        <v>354.683041620683</v>
+        <v>354.6830416206824</v>
       </c>
       <c r="E20" t="n">
-        <v>381.9303700722614</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F20" t="n">
         <v>406.8760457417114</v>
@@ -2244,13 +2244,13 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>33.58398714687277</v>
       </c>
       <c r="G22" t="n">
         <v>165.5241382922688</v>
@@ -2286,7 +2286,7 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
         <v>181.0262860016446</v>
@@ -2295,13 +2295,13 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U22" t="n">
-        <v>0</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V22" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W22" t="n">
-        <v>139.1630968205461</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X22" t="n">
         <v>225.7096553890372</v>
@@ -2332,7 +2332,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G23" t="n">
-        <v>409.8033385187871</v>
+        <v>409.8033385187866</v>
       </c>
       <c r="H23" t="n">
         <v>283.1540821444137</v>
@@ -2368,7 +2368,7 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T23" t="n">
         <v>199.0222304576161</v>
@@ -2481,10 +2481,10 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
         <v>0</v>
@@ -2493,10 +2493,10 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2526,10 +2526,10 @@
         <v>66.37524671012169</v>
       </c>
       <c r="S25" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T25" t="n">
-        <v>186.4479095884334</v>
+        <v>78.9105100867805</v>
       </c>
       <c r="U25" t="n">
         <v>286.1844743892441</v>
@@ -2572,7 +2572,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H26" t="n">
-        <v>283.1540821444132</v>
+        <v>283.1540821444137</v>
       </c>
       <c r="I26" t="n">
         <v>0</v>
@@ -2721,7 +2721,7 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
         <v>145.4210480229312</v>
@@ -2763,25 +2763,25 @@
         <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>67.00771475394369</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T28" t="n">
         <v>217.4054503272883</v>
       </c>
       <c r="U28" t="n">
-        <v>286.1844743892441</v>
+        <v>0</v>
       </c>
       <c r="V28" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W28" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X28" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y28" t="n">
-        <v>218.5846533520948</v>
+        <v>217.8886059122772</v>
       </c>
     </row>
     <row r="29">
@@ -2952,10 +2952,10 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C31" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>28.75188085812005</v>
       </c>
       <c r="E31" t="n">
         <v>0</v>
@@ -2970,7 +2970,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -3003,7 +3003,7 @@
         <v>181.0262860016446</v>
       </c>
       <c r="T31" t="n">
-        <v>160.1763464053459</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U31" t="n">
         <v>286.1844743892441</v>
@@ -3085,10 +3085,10 @@
         <v>199.0222304576161</v>
       </c>
       <c r="U32" t="n">
-        <v>250.9057009881287</v>
+        <v>250.9057009881286</v>
       </c>
       <c r="V32" t="n">
-        <v>327.7522584701349</v>
+        <v>327.7522584701346</v>
       </c>
       <c r="W32" t="n">
         <v>349.240968717413</v>
@@ -3192,19 +3192,19 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D34" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
-        <v>0</v>
+        <v>141.9273329298508</v>
       </c>
       <c r="F34" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H34" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
         <v>0</v>
@@ -3234,7 +3234,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>9.146142788179482</v>
+        <v>0</v>
       </c>
       <c r="S34" t="n">
         <v>181.0262860016446</v>
@@ -3249,7 +3249,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W34" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X34" t="n">
         <v>225.7096553890372</v>
@@ -3319,7 +3319,7 @@
         <v>83.7025149569553</v>
       </c>
       <c r="T35" t="n">
-        <v>199.0222304576161</v>
+        <v>199.0222304576164</v>
       </c>
       <c r="U35" t="n">
         <v>250.9057009881286</v>
@@ -3429,16 +3429,16 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D37" t="n">
-        <v>148.6154730182124</v>
+        <v>99.17988875728673</v>
       </c>
       <c r="E37" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F37" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H37" t="n">
         <v>140.2947128462239</v>
@@ -3474,13 +3474,13 @@
         <v>66.37524671012169</v>
       </c>
       <c r="S37" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T37" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U37" t="n">
-        <v>105.6507867899569</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V37" t="n">
         <v>252.137643323828</v>
@@ -3492,7 +3492,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y37" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38">
@@ -3508,7 +3508,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D38" t="n">
-        <v>354.6830416206824</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E38" t="n">
         <v>381.9303700722618</v>
@@ -3553,7 +3553,7 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T38" t="n">
         <v>199.0222304576161</v>
@@ -3660,28 +3660,28 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C40" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D40" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G40" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>83.06560892428168</v>
       </c>
       <c r="I40" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3708,7 +3708,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>33.2461711990992</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S40" t="n">
         <v>181.0262860016446</v>
@@ -3726,7 +3726,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X40" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y40" t="n">
         <v>218.5846533520948</v>
@@ -3757,7 +3757,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H41" t="n">
-        <v>283.1540821444137</v>
+        <v>283.1540821444132</v>
       </c>
       <c r="I41" t="n">
         <v>0</v>
@@ -3790,7 +3790,7 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T41" t="n">
         <v>199.0222304576161</v>
@@ -3900,7 +3900,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C43" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D43" t="n">
         <v>148.6154730182124</v>
@@ -3909,16 +3909,16 @@
         <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>0</v>
+        <v>0.8253826161909023</v>
       </c>
       <c r="G43" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H43" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3945,7 +3945,7 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S43" t="n">
         <v>181.0262860016446</v>
@@ -3963,7 +3963,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X43" t="n">
-        <v>105.8460632289449</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y43" t="n">
         <v>218.5846533520948</v>
@@ -3994,7 +3994,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H44" t="n">
-        <v>283.1540821444137</v>
+        <v>283.1540821444132</v>
       </c>
       <c r="I44" t="n">
         <v>0</v>
@@ -4137,16 +4137,16 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C46" t="n">
-        <v>110.0177171766856</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D46" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E46" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F46" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
         <v>165.5241382922688</v>
@@ -4182,7 +4182,7 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S46" t="n">
         <v>181.0262860016446</v>
@@ -4191,13 +4191,13 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U46" t="n">
-        <v>286.1844743892441</v>
+        <v>0</v>
       </c>
       <c r="V46" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W46" t="n">
-        <v>286.522998336591</v>
+        <v>141.383131826302</v>
       </c>
       <c r="X46" t="n">
         <v>225.7096553890372</v>
@@ -4306,76 +4306,76 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>717.0015419180347</v>
+        <v>758.9227655184434</v>
       </c>
       <c r="C2" t="n">
-        <v>717.0015419180347</v>
+        <v>516.6925148704586</v>
       </c>
       <c r="D2" t="n">
-        <v>717.0015419180347</v>
+        <v>516.6925148704586</v>
       </c>
       <c r="E2" t="n">
-        <v>623.338107747179</v>
+        <v>274.4622642224737</v>
       </c>
       <c r="F2" t="n">
-        <v>381.1078570991943</v>
+        <v>32.23201357448888</v>
       </c>
       <c r="G2" t="n">
-        <v>138.8776064512096</v>
+        <v>19.1846358513204</v>
       </c>
       <c r="H2" t="n">
-        <v>138.8776064512096</v>
+        <v>19.1846358513204</v>
       </c>
       <c r="I2" t="n">
-        <v>19.18463585132039</v>
+        <v>19.1846358513204</v>
       </c>
       <c r="J2" t="n">
-        <v>40.41888584470325</v>
+        <v>40.41888584470371</v>
       </c>
       <c r="K2" t="n">
-        <v>122.9820404192956</v>
+        <v>122.982040419296</v>
       </c>
       <c r="L2" t="n">
-        <v>262.3106962605486</v>
+        <v>262.3106962605485</v>
       </c>
       <c r="M2" t="n">
         <v>449.0101090859561</v>
       </c>
       <c r="N2" t="n">
-        <v>643.3443219779382</v>
+        <v>643.3443219779383</v>
       </c>
       <c r="O2" t="n">
-        <v>813.5133472948976</v>
+        <v>813.5133472948978</v>
       </c>
       <c r="P2" t="n">
-        <v>924.2476725444243</v>
+        <v>924.2476725444249</v>
       </c>
       <c r="Q2" t="n">
-        <v>959.2317925660193</v>
+        <v>959.2317925660199</v>
       </c>
       <c r="R2" t="n">
-        <v>959.2317925660194</v>
+        <v>959.2317925660199</v>
       </c>
       <c r="S2" t="n">
-        <v>959.2317925660194</v>
+        <v>959.2317925660199</v>
       </c>
       <c r="T2" t="n">
-        <v>959.2317925660194</v>
+        <v>959.2317925660199</v>
       </c>
       <c r="U2" t="n">
-        <v>717.0015419180347</v>
+        <v>959.2317925660199</v>
       </c>
       <c r="V2" t="n">
-        <v>717.0015419180347</v>
+        <v>959.2317925660199</v>
       </c>
       <c r="W2" t="n">
-        <v>717.0015419180347</v>
+        <v>959.2317925660199</v>
       </c>
       <c r="X2" t="n">
-        <v>717.0015419180347</v>
+        <v>959.2317925660199</v>
       </c>
       <c r="Y2" t="n">
-        <v>717.0015419180347</v>
+        <v>959.2317925660199</v>
       </c>
     </row>
     <row r="3">
@@ -4385,76 +4385,76 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>769.9045559481381</v>
+        <v>583.1649553404191</v>
       </c>
       <c r="C3" t="n">
-        <v>595.4515266670111</v>
+        <v>408.7119260592921</v>
       </c>
       <c r="D3" t="n">
-        <v>446.5171170057598</v>
+        <v>259.7775163980408</v>
       </c>
       <c r="E3" t="n">
-        <v>287.2796620003043</v>
+        <v>165.7191938244354</v>
       </c>
       <c r="F3" t="n">
-        <v>140.7451040271893</v>
+        <v>19.1846358513204</v>
       </c>
       <c r="G3" t="n">
-        <v>140.7451040271893</v>
+        <v>19.1846358513204</v>
       </c>
       <c r="H3" t="n">
-        <v>39.82912617199388</v>
+        <v>19.1846358513204</v>
       </c>
       <c r="I3" t="n">
-        <v>19.18463585132039</v>
+        <v>19.1846358513204</v>
       </c>
       <c r="J3" t="n">
-        <v>19.18463585132039</v>
+        <v>19.1846358513204</v>
       </c>
       <c r="K3" t="n">
-        <v>86.79245551467734</v>
+        <v>86.7924555146774</v>
       </c>
       <c r="L3" t="n">
-        <v>224.0220535303712</v>
+        <v>224.0220535303713</v>
       </c>
       <c r="M3" t="n">
-        <v>403.5193898849759</v>
+        <v>403.519389884976</v>
       </c>
       <c r="N3" t="n">
-        <v>602.1761315376405</v>
+        <v>602.1761315376407</v>
       </c>
       <c r="O3" t="n">
-        <v>761.688444206401</v>
+        <v>761.6884442064013</v>
       </c>
       <c r="P3" t="n">
-        <v>870.3780717336997</v>
+        <v>870.3780717337002</v>
       </c>
       <c r="Q3" t="n">
-        <v>959.2317925660194</v>
+        <v>959.2317925660199</v>
       </c>
       <c r="R3" t="n">
-        <v>938.1198929682062</v>
+        <v>959.2317925660199</v>
       </c>
       <c r="S3" t="n">
-        <v>938.1198929682062</v>
+        <v>959.2317925660199</v>
       </c>
       <c r="T3" t="n">
-        <v>938.1198929682062</v>
+        <v>959.2317925660199</v>
       </c>
       <c r="U3" t="n">
-        <v>938.1198929682062</v>
+        <v>959.2317925660199</v>
       </c>
       <c r="V3" t="n">
-        <v>938.1198929682062</v>
+        <v>959.2317925660199</v>
       </c>
       <c r="W3" t="n">
-        <v>938.1198929682062</v>
+        <v>959.2317925660199</v>
       </c>
       <c r="X3" t="n">
-        <v>938.1198929682062</v>
+        <v>751.380292360487</v>
       </c>
       <c r="Y3" t="n">
-        <v>938.1198929682062</v>
+        <v>751.380292360487</v>
       </c>
     </row>
     <row r="4">
@@ -4464,76 +4464,76 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>650.9150870312292</v>
+        <v>143.6963104769941</v>
       </c>
       <c r="C4" t="n">
-        <v>481.9789041033223</v>
+        <v>143.6963104769941</v>
       </c>
       <c r="D4" t="n">
-        <v>331.8622646909865</v>
+        <v>143.6963104769941</v>
       </c>
       <c r="E4" t="n">
-        <v>183.9491711085934</v>
+        <v>143.6963104769941</v>
       </c>
       <c r="F4" t="n">
-        <v>37.05922361068303</v>
+        <v>143.6963104769941</v>
       </c>
       <c r="G4" t="n">
-        <v>37.05922361068303</v>
+        <v>143.6963104769941</v>
       </c>
       <c r="H4" t="n">
-        <v>37.05922361068303</v>
+        <v>143.6963104769941</v>
       </c>
       <c r="I4" t="n">
-        <v>37.05922361068303</v>
+        <v>19.1846358513204</v>
       </c>
       <c r="J4" t="n">
-        <v>19.18463585132039</v>
+        <v>19.1846358513204</v>
       </c>
       <c r="K4" t="n">
-        <v>120.2325654469302</v>
+        <v>63.76336012264483</v>
       </c>
       <c r="L4" t="n">
-        <v>305.0655603477485</v>
+        <v>248.5963550234632</v>
       </c>
       <c r="M4" t="n">
-        <v>450.4476363223408</v>
+        <v>453.8659557427011</v>
       </c>
       <c r="N4" t="n">
-        <v>656.2710011584451</v>
+        <v>659.6893205788053</v>
       </c>
       <c r="O4" t="n">
-        <v>830.3658965470439</v>
+        <v>833.7842159674042</v>
       </c>
       <c r="P4" t="n">
-        <v>955.8134731456595</v>
+        <v>959.2317925660199</v>
       </c>
       <c r="Q4" t="n">
-        <v>959.2317925660194</v>
+        <v>959.2317925660199</v>
       </c>
       <c r="R4" t="n">
-        <v>959.2317925660194</v>
+        <v>959.2317925660199</v>
       </c>
       <c r="S4" t="n">
-        <v>959.2317925660194</v>
+        <v>751.7915078184253</v>
       </c>
       <c r="T4" t="n">
-        <v>959.2317925660194</v>
+        <v>751.7915078184253</v>
       </c>
       <c r="U4" t="n">
-        <v>959.2317925660194</v>
+        <v>751.7915078184253</v>
       </c>
       <c r="V4" t="n">
-        <v>959.2317925660194</v>
+        <v>509.5612571704405</v>
       </c>
       <c r="W4" t="n">
-        <v>959.2317925660194</v>
+        <v>325.3447753072338</v>
       </c>
       <c r="X4" t="n">
-        <v>871.7076661747593</v>
+        <v>325.3447753072338</v>
       </c>
       <c r="Y4" t="n">
-        <v>650.9150870312292</v>
+        <v>325.3447753072338</v>
       </c>
     </row>
     <row r="5">
@@ -4543,76 +4543,76 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>609.6687185178901</v>
+        <v>1035.597653639599</v>
       </c>
       <c r="C5" t="n">
-        <v>609.6687185178901</v>
+        <v>742.3749148372297</v>
       </c>
       <c r="D5" t="n">
-        <v>609.6687185178901</v>
+        <v>449.1521760348602</v>
       </c>
       <c r="E5" t="n">
-        <v>609.6687185178901</v>
+        <v>155.9294372324908</v>
       </c>
       <c r="F5" t="n">
-        <v>316.4459797155189</v>
+        <v>148.9839364832874</v>
       </c>
       <c r="G5" t="n">
-        <v>23.2232409131478</v>
+        <v>136.1130242870241</v>
       </c>
       <c r="H5" t="n">
-        <v>23.2232409131478</v>
+        <v>136.1130242870241</v>
       </c>
       <c r="I5" t="n">
-        <v>23.2232409131478</v>
+        <v>23.22324091314766</v>
       </c>
       <c r="J5" t="n">
-        <v>59.13673382952038</v>
+        <v>59.13673382951947</v>
       </c>
       <c r="K5" t="n">
-        <v>163.7002683444962</v>
+        <v>163.7002683444948</v>
       </c>
       <c r="L5" t="n">
-        <v>330.3223409084648</v>
+        <v>330.3223409084627</v>
       </c>
       <c r="M5" t="n">
-        <v>547.3909387162877</v>
+        <v>547.3909387162846</v>
       </c>
       <c r="N5" t="n">
-        <v>772.5857417537061</v>
+        <v>772.585741753702</v>
       </c>
       <c r="O5" t="n">
-        <v>971.8955472416931</v>
+        <v>971.8955472416878</v>
       </c>
       <c r="P5" t="n">
-        <v>1107.500854171415</v>
+        <v>1107.500854171408</v>
       </c>
       <c r="Q5" t="n">
-        <v>1161.16204565739</v>
+        <v>1161.162045657383</v>
       </c>
       <c r="R5" t="n">
-        <v>1161.16204565739</v>
+        <v>1161.162045657383</v>
       </c>
       <c r="S5" t="n">
-        <v>1161.16204565739</v>
+        <v>1161.162045657383</v>
       </c>
       <c r="T5" t="n">
-        <v>1161.16204565739</v>
+        <v>1161.162045657383</v>
       </c>
       <c r="U5" t="n">
-        <v>1161.16204565739</v>
+        <v>1161.162045657383</v>
       </c>
       <c r="V5" t="n">
-        <v>1161.16204565739</v>
+        <v>1161.162045657383</v>
       </c>
       <c r="W5" t="n">
-        <v>1161.16204565739</v>
+        <v>1161.162045657383</v>
       </c>
       <c r="X5" t="n">
-        <v>1161.16204565739</v>
+        <v>1161.162045657383</v>
       </c>
       <c r="Y5" t="n">
-        <v>867.9393068550187</v>
+        <v>1161.162045657383</v>
       </c>
     </row>
     <row r="6">
@@ -4622,76 +4622,76 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>326.9330616695333</v>
+        <v>72.69570494132449</v>
       </c>
       <c r="C6" t="n">
-        <v>152.4800323884063</v>
+        <v>72.69570494132449</v>
       </c>
       <c r="D6" t="n">
-        <v>23.2232409131478</v>
+        <v>72.69570494132449</v>
       </c>
       <c r="E6" t="n">
-        <v>23.2232409131478</v>
+        <v>72.69570494132449</v>
       </c>
       <c r="F6" t="n">
-        <v>23.2232409131478</v>
+        <v>72.69570494132449</v>
       </c>
       <c r="G6" t="n">
-        <v>23.2232409131478</v>
+        <v>72.69570494132449</v>
       </c>
       <c r="H6" t="n">
-        <v>23.2232409131478</v>
+        <v>23.22324091314766</v>
       </c>
       <c r="I6" t="n">
-        <v>23.2232409131478</v>
+        <v>23.22324091314766</v>
       </c>
       <c r="J6" t="n">
-        <v>25.79522430508943</v>
+        <v>25.79522430508898</v>
       </c>
       <c r="K6" t="n">
-        <v>108.3459783063296</v>
+        <v>235.731512583884</v>
       </c>
       <c r="L6" t="n">
-        <v>265.6681956119414</v>
+        <v>393.0537298894951</v>
       </c>
       <c r="M6" t="n">
-        <v>468.612670970254</v>
+        <v>595.9982052478069</v>
       </c>
       <c r="N6" t="n">
-        <v>691.337127626915</v>
+        <v>818.7226619044671</v>
       </c>
       <c r="O6" t="n">
-        <v>872.866697514546</v>
+        <v>1000.252231792097</v>
       </c>
       <c r="P6" t="n">
-        <v>999.2271150356726</v>
+        <v>1126.612649313223</v>
       </c>
       <c r="Q6" t="n">
-        <v>1161.16204565739</v>
+        <v>1161.162045657383</v>
       </c>
       <c r="R6" t="n">
-        <v>1145.912305891831</v>
+        <v>1145.912305891824</v>
       </c>
       <c r="S6" t="n">
-        <v>1145.912305891831</v>
+        <v>1145.912305891824</v>
       </c>
       <c r="T6" t="n">
-        <v>1145.912305891831</v>
+        <v>1145.912305891824</v>
       </c>
       <c r="U6" t="n">
-        <v>1145.912305891831</v>
+        <v>1145.912305891824</v>
       </c>
       <c r="V6" t="n">
-        <v>910.7601976600881</v>
+        <v>910.7601976600808</v>
       </c>
       <c r="W6" t="n">
-        <v>910.7601976600881</v>
+        <v>656.5228409318793</v>
       </c>
       <c r="X6" t="n">
-        <v>702.9086974545553</v>
+        <v>448.6713407263464</v>
       </c>
       <c r="Y6" t="n">
-        <v>495.1483986896014</v>
+        <v>240.9110419613925</v>
       </c>
     </row>
     <row r="7">
@@ -4701,76 +4701,76 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>23.2232409131478</v>
+        <v>464.1534700280756</v>
       </c>
       <c r="C7" t="n">
-        <v>23.2232409131478</v>
+        <v>295.2172871001687</v>
       </c>
       <c r="D7" t="n">
-        <v>23.2232409131478</v>
+        <v>171.1363344955408</v>
       </c>
       <c r="E7" t="n">
-        <v>23.2232409131478</v>
+        <v>23.22324091314766</v>
       </c>
       <c r="F7" t="n">
-        <v>23.2232409131478</v>
+        <v>23.22324091314766</v>
       </c>
       <c r="G7" t="n">
-        <v>23.2232409131478</v>
+        <v>23.22324091314766</v>
       </c>
       <c r="H7" t="n">
-        <v>23.2232409131478</v>
+        <v>23.22324091314766</v>
       </c>
       <c r="I7" t="n">
-        <v>23.2232409131478</v>
+        <v>23.22324091314766</v>
       </c>
       <c r="J7" t="n">
-        <v>23.2232409131478</v>
+        <v>23.22324091314766</v>
       </c>
       <c r="K7" t="n">
-        <v>133.2846894279149</v>
+        <v>133.2846894279145</v>
       </c>
       <c r="L7" t="n">
-        <v>329.6518852993045</v>
+        <v>329.6518852993036</v>
       </c>
       <c r="M7" t="n">
-        <v>547.0826837276996</v>
+        <v>547.0826837276984</v>
       </c>
       <c r="N7" t="n">
-        <v>764.7780801730509</v>
+        <v>764.7780801730493</v>
       </c>
       <c r="O7" t="n">
-        <v>949.8387182967873</v>
+        <v>949.8387182967854</v>
       </c>
       <c r="P7" t="n">
-        <v>1084.669382195909</v>
+        <v>1084.669382195907</v>
       </c>
       <c r="Q7" t="n">
-        <v>1094.584064899865</v>
+        <v>1094.584064899863</v>
       </c>
       <c r="R7" t="n">
-        <v>1094.584064899865</v>
+        <v>1094.584064899863</v>
       </c>
       <c r="S7" t="n">
-        <v>1094.584064899865</v>
+        <v>1094.584064899863</v>
       </c>
       <c r="T7" t="n">
-        <v>1094.584064899865</v>
+        <v>1094.584064899863</v>
       </c>
       <c r="U7" t="n">
-        <v>1094.584064899865</v>
+        <v>1094.584064899863</v>
       </c>
       <c r="V7" t="n">
-        <v>943.0710058218956</v>
+        <v>1094.584064899863</v>
       </c>
       <c r="W7" t="n">
-        <v>653.6538357849349</v>
+        <v>1094.584064899863</v>
       </c>
       <c r="X7" t="n">
-        <v>425.6642848869176</v>
+        <v>866.5945140018455</v>
       </c>
       <c r="Y7" t="n">
-        <v>204.8717057433875</v>
+        <v>645.8019348583153</v>
       </c>
     </row>
     <row r="8">
@@ -4780,76 +4780,76 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>918.0161179218651</v>
+        <v>1785.600156360221</v>
       </c>
       <c r="C8" t="n">
-        <v>918.0161179218651</v>
+        <v>1416.63763941981</v>
       </c>
       <c r="D8" t="n">
-        <v>918.0161179218651</v>
+        <v>1416.63763941981</v>
       </c>
       <c r="E8" t="n">
-        <v>532.2278653236208</v>
+        <v>1030.849386821566</v>
       </c>
       <c r="F8" t="n">
-        <v>121.2419605340132</v>
+        <v>619.863482031958</v>
       </c>
       <c r="G8" t="n">
-        <v>109.5776142987062</v>
+        <v>421.6795797345439</v>
       </c>
       <c r="H8" t="n">
-        <v>51.24678656800311</v>
+        <v>117.6204357321143</v>
       </c>
       <c r="I8" t="n">
-        <v>51.24678656800311</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="J8" t="n">
-        <v>187.5281822362822</v>
+        <v>187.5281822362826</v>
       </c>
       <c r="K8" t="n">
-        <v>442.5171852816088</v>
+        <v>442.51718528161</v>
       </c>
       <c r="L8" t="n">
-        <v>795.755353087292</v>
+        <v>795.7553530872947</v>
       </c>
       <c r="M8" t="n">
-        <v>1220.470313923562</v>
+        <v>1220.470313923566</v>
       </c>
       <c r="N8" t="n">
-        <v>1656.671415230817</v>
+        <v>1656.671415230823</v>
       </c>
       <c r="O8" t="n">
-        <v>2055.22848474084</v>
+        <v>2055.228484740848</v>
       </c>
       <c r="P8" t="n">
-        <v>2360.886721764997</v>
+        <v>2360.886721765007</v>
       </c>
       <c r="Q8" t="n">
-        <v>2542.25058172385</v>
+        <v>2542.250581723849</v>
       </c>
       <c r="R8" t="n">
         <v>2562.339328400155</v>
       </c>
       <c r="S8" t="n">
-        <v>2437.640120926626</v>
+        <v>2562.339328400155</v>
       </c>
       <c r="T8" t="n">
-        <v>2228.89447953245</v>
+        <v>2562.339328400155</v>
       </c>
       <c r="U8" t="n">
-        <v>1975.31341879663</v>
+        <v>2562.339328400155</v>
       </c>
       <c r="V8" t="n">
-        <v>1644.250531453059</v>
+        <v>2562.339328400155</v>
       </c>
       <c r="W8" t="n">
-        <v>1291.481876182945</v>
+        <v>2562.339328400155</v>
       </c>
       <c r="X8" t="n">
-        <v>918.0161179218651</v>
+        <v>2562.339328400155</v>
       </c>
       <c r="Y8" t="n">
-        <v>918.0161179218651</v>
+        <v>2172.199996424343</v>
       </c>
     </row>
     <row r="9">
@@ -4859,52 +4859,52 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>931.3041410966389</v>
+        <v>931.3041410966384</v>
       </c>
       <c r="C9" t="n">
-        <v>756.8511118155119</v>
+        <v>756.8511118155114</v>
       </c>
       <c r="D9" t="n">
-        <v>607.9167021542605</v>
+        <v>607.9167021542601</v>
       </c>
       <c r="E9" t="n">
-        <v>448.679247148805</v>
+        <v>448.6792471488045</v>
       </c>
       <c r="F9" t="n">
-        <v>302.14468917569</v>
+        <v>302.1446891756896</v>
       </c>
       <c r="G9" t="n">
-        <v>165.443278618252</v>
+        <v>165.4432786182518</v>
       </c>
       <c r="H9" t="n">
-        <v>71.67401812057901</v>
+        <v>71.67401812057882</v>
       </c>
       <c r="I9" t="n">
-        <v>51.24678656800311</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="J9" t="n">
-        <v>238.4273302370161</v>
+        <v>113.5972052500118</v>
       </c>
       <c r="K9" t="n">
-        <v>590.2049751143501</v>
+        <v>560.1394111735154</v>
       </c>
       <c r="L9" t="n">
-        <v>884.9085321458217</v>
+        <v>909.2465818694893</v>
       </c>
       <c r="M9" t="n">
-        <v>1248.170551105042</v>
+        <v>1272.508600828711</v>
       </c>
       <c r="N9" t="n">
-        <v>1635.455679701987</v>
+        <v>1659.793729425657</v>
       </c>
       <c r="O9" t="n">
-        <v>1967.526114878149</v>
+        <v>1991.86416460182</v>
       </c>
       <c r="P9" t="n">
-        <v>2214.708848710446</v>
+        <v>2239.046898434118</v>
       </c>
       <c r="Q9" t="n">
-        <v>2538.001278676482</v>
+        <v>2562.339328400155</v>
       </c>
       <c r="R9" t="n">
         <v>2562.339328400155</v>
@@ -4916,16 +4916,16 @@
         <v>2232.610846175226</v>
       </c>
       <c r="U9" t="n">
-        <v>2004.520742047138</v>
+        <v>2004.520742047137</v>
       </c>
       <c r="V9" t="n">
         <v>1769.368633815395</v>
       </c>
       <c r="W9" t="n">
-        <v>1515.131277087194</v>
+        <v>1515.131277087193</v>
       </c>
       <c r="X9" t="n">
-        <v>1307.279776881661</v>
+        <v>1307.27977688166</v>
       </c>
       <c r="Y9" t="n">
         <v>1099.519478116707</v>
@@ -4950,49 +4950,49 @@
         <v>198.1367340659135</v>
       </c>
       <c r="F10" t="n">
-        <v>51.24678656800311</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="G10" t="n">
-        <v>51.24678656800311</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="H10" t="n">
-        <v>51.24678656800311</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="I10" t="n">
-        <v>51.24678656800311</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="J10" t="n">
-        <v>76.71595955312198</v>
+        <v>76.71595955312227</v>
       </c>
       <c r="K10" t="n">
-        <v>248.4064713020475</v>
+        <v>248.4064713020483</v>
       </c>
       <c r="L10" t="n">
-        <v>523.6376499693233</v>
+        <v>523.6376499693248</v>
       </c>
       <c r="M10" t="n">
-        <v>824.2194607096585</v>
+        <v>824.2194607096608</v>
       </c>
       <c r="N10" t="n">
-        <v>1123.088724245823</v>
+        <v>1123.088724245826</v>
       </c>
       <c r="O10" t="n">
-        <v>1383.126566999034</v>
+        <v>1383.126566999038</v>
       </c>
       <c r="P10" t="n">
-        <v>1582.113182171023</v>
+        <v>1582.113182171028</v>
       </c>
       <c r="Q10" t="n">
-        <v>1636.446120074497</v>
+        <v>1636.446120074502</v>
       </c>
       <c r="R10" t="n">
-        <v>1636.446120074497</v>
+        <v>1636.446120074502</v>
       </c>
       <c r="S10" t="n">
-        <v>1636.446120074497</v>
+        <v>1636.446120074502</v>
       </c>
       <c r="T10" t="n">
-        <v>1636.446120074497</v>
+        <v>1636.446120074502</v>
       </c>
       <c r="U10" t="n">
         <v>1390.852773061637</v>
@@ -5020,31 +5020,31 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C11" t="n">
-        <v>1948.813509611464</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D11" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E11" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F11" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168607</v>
       </c>
       <c r="G11" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362681</v>
       </c>
       <c r="H11" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I11" t="n">
-        <v>95.34095638192616</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J11" t="n">
-        <v>378.1925803111718</v>
+        <v>378.1925803111712</v>
       </c>
       <c r="K11" t="n">
-        <v>852.8523611075811</v>
+        <v>852.8523611075805</v>
       </c>
       <c r="L11" t="n">
         <v>1478.611553332387</v>
@@ -5053,37 +5053,37 @@
         <v>2206.558663014779</v>
       </c>
       <c r="N11" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O11" t="n">
         <v>3640.42229106801</v>
       </c>
       <c r="P11" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q11" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R11" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S11" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T11" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U11" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V11" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W11" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X11" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y11" t="n">
         <v>2704.375866615997</v>
@@ -5105,7 +5105,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E12" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F12" t="n">
         <v>314.2396613568978</v>
@@ -5114,10 +5114,10 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H12" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I12" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J12" t="n">
         <v>243.4633055756266</v>
@@ -5126,19 +5126,19 @@
         <v>243.4633055756266</v>
       </c>
       <c r="L12" t="n">
-        <v>243.4633055756266</v>
+        <v>738.7889117913853</v>
       </c>
       <c r="M12" t="n">
-        <v>716.6687843969303</v>
+        <v>1336.167399417937</v>
       </c>
       <c r="N12" t="n">
-        <v>1344.266747951537</v>
+        <v>1963.765362972544</v>
       </c>
       <c r="O12" t="n">
-        <v>1896.176478190824</v>
+        <v>2515.675093211831</v>
       </c>
       <c r="P12" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q12" t="n">
         <v>2553.061288060775</v>
@@ -5175,76 +5175,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>705.9324428257312</v>
+        <v>560.7825789706076</v>
       </c>
       <c r="C13" t="n">
-        <v>705.9324428257312</v>
+        <v>391.8463960427007</v>
       </c>
       <c r="D13" t="n">
-        <v>555.8158034133954</v>
+        <v>241.729756630365</v>
       </c>
       <c r="E13" t="n">
-        <v>407.9027098310023</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="F13" t="n">
-        <v>261.0127623330919</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G13" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H13" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I13" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J13" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K13" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L13" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M13" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N13" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O13" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P13" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q13" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R13" t="n">
-        <v>2446.963083580261</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S13" t="n">
-        <v>2389.141387573227</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T13" t="n">
-        <v>2169.539922596168</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U13" t="n">
-        <v>1880.464695940366</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V13" t="n">
-        <v>1625.780207734479</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W13" t="n">
-        <v>1336.363037697518</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X13" t="n">
-        <v>1108.373486799501</v>
+        <v>963.2236229443774</v>
       </c>
       <c r="Y13" t="n">
-        <v>887.5809076559709</v>
+        <v>742.4310438008473</v>
       </c>
     </row>
     <row r="14">
@@ -5278,10 +5278,10 @@
         <v>95.34095638192616</v>
       </c>
       <c r="J14" t="n">
-        <v>378.1925803111718</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K14" t="n">
-        <v>852.8523611075811</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L14" t="n">
         <v>1478.611553332387</v>
@@ -5296,7 +5296,7 @@
         <v>3640.42229106801</v>
       </c>
       <c r="P14" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q14" t="n">
         <v>4562.265728852255</v>
@@ -5314,10 +5314,10 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V14" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W14" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X14" t="n">
         <v>3094.515198591809</v>
@@ -5363,10 +5363,10 @@
         <v>243.4633055756266</v>
       </c>
       <c r="L15" t="n">
-        <v>352.5519571452613</v>
+        <v>352.5519571452614</v>
       </c>
       <c r="M15" t="n">
-        <v>949.9304447718132</v>
+        <v>949.9304447718133</v>
       </c>
       <c r="N15" t="n">
         <v>1577.52840832642</v>
@@ -5412,22 +5412,22 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>763.7541388327652</v>
+        <v>849.3843576263199</v>
       </c>
       <c r="C16" t="n">
-        <v>594.8179559048583</v>
+        <v>680.448174698413</v>
       </c>
       <c r="D16" t="n">
-        <v>444.7013164925226</v>
+        <v>530.3315352860773</v>
       </c>
       <c r="E16" t="n">
-        <v>296.7882229101294</v>
+        <v>382.4184417036842</v>
       </c>
       <c r="F16" t="n">
-        <v>149.8982754122191</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="G16" t="n">
-        <v>93.81666304797187</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H16" t="n">
         <v>93.81666304797187</v>
@@ -5436,52 +5436,52 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J16" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K16" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L16" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M16" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N16" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O16" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P16" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q16" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R16" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S16" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="T16" t="n">
-        <v>2227.361618603202</v>
+        <v>2227.361618603201</v>
       </c>
       <c r="U16" t="n">
-        <v>1938.2863919474</v>
+        <v>1938.286391947399</v>
       </c>
       <c r="V16" t="n">
-        <v>1683.601903741513</v>
+        <v>1683.601903741512</v>
       </c>
       <c r="W16" t="n">
-        <v>1394.184733704552</v>
+        <v>1394.184733704551</v>
       </c>
       <c r="X16" t="n">
-        <v>1166.195182806535</v>
+        <v>1166.195182806534</v>
       </c>
       <c r="Y16" t="n">
-        <v>945.4026036630049</v>
+        <v>945.402603663004</v>
       </c>
     </row>
     <row r="17">
@@ -5497,28 +5497,28 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D17" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E17" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F17" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168607</v>
       </c>
       <c r="G17" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362681</v>
       </c>
       <c r="H17" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I17" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J17" t="n">
-        <v>378.1925803111716</v>
+        <v>378.1925803111712</v>
       </c>
       <c r="K17" t="n">
-        <v>852.8523611075798</v>
+        <v>852.8523611075802</v>
       </c>
       <c r="L17" t="n">
         <v>1478.611553332386</v>
@@ -5527,10 +5527,10 @@
         <v>2206.558663014778</v>
       </c>
       <c r="N17" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O17" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P17" t="n">
         <v>4194.413870694707</v>
@@ -5551,13 +5551,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V17" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W17" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X17" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y17" t="n">
         <v>2704.375866615997</v>
@@ -5591,25 +5591,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I18" t="n">
-        <v>95.58405025273905</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J18" t="n">
-        <v>245.2306927803938</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K18" t="n">
-        <v>579.1554649516144</v>
+        <v>409.1360811687896</v>
       </c>
       <c r="L18" t="n">
-        <v>1074.481071167373</v>
+        <v>904.4616873845483</v>
       </c>
       <c r="M18" t="n">
-        <v>1671.859558793925</v>
+        <v>1501.8401750111</v>
       </c>
       <c r="N18" t="n">
-        <v>2299.457522348532</v>
+        <v>2129.438138565707</v>
       </c>
       <c r="O18" t="n">
-        <v>2553.061288060775</v>
+        <v>2129.438138565707</v>
       </c>
       <c r="P18" t="n">
         <v>2553.061288060775</v>
@@ -5649,76 +5649,76 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>951.7772127656159</v>
+        <v>983.3556038098237</v>
       </c>
       <c r="C19" t="n">
-        <v>782.841029837709</v>
+        <v>814.4194208819168</v>
       </c>
       <c r="D19" t="n">
-        <v>632.7243904253733</v>
+        <v>779.6143379232838</v>
       </c>
       <c r="E19" t="n">
-        <v>484.8112968429802</v>
+        <v>631.7012443408906</v>
       </c>
       <c r="F19" t="n">
-        <v>484.8112968429802</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="G19" t="n">
-        <v>317.6151975578601</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H19" t="n">
-        <v>175.9033664000582</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I19" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J19" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K19" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L19" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M19" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N19" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O19" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P19" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q19" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R19" t="n">
-        <v>2406.996606615095</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S19" t="n">
-        <v>2406.996606615095</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="T19" t="n">
-        <v>2187.395141638036</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="U19" t="n">
-        <v>1898.319914982233</v>
+        <v>2157.887856924458</v>
       </c>
       <c r="V19" t="n">
-        <v>1643.635426776346</v>
+        <v>1903.203368718571</v>
       </c>
       <c r="W19" t="n">
-        <v>1354.218256739386</v>
+        <v>1613.786198681611</v>
       </c>
       <c r="X19" t="n">
-        <v>1354.218256739386</v>
+        <v>1385.796647783593</v>
       </c>
       <c r="Y19" t="n">
-        <v>1133.425677595856</v>
+        <v>1165.004068640063</v>
       </c>
     </row>
     <row r="20">
@@ -5734,7 +5734,7 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D20" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E20" t="n">
         <v>1204.759558406469</v>
@@ -5886,16 +5886,16 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>951.777212765616</v>
+        <v>835.5837926935558</v>
       </c>
       <c r="C22" t="n">
-        <v>782.8410298377091</v>
+        <v>666.6476097656489</v>
       </c>
       <c r="D22" t="n">
-        <v>632.7243904253734</v>
+        <v>666.6476097656489</v>
       </c>
       <c r="E22" t="n">
-        <v>484.8112968429803</v>
+        <v>518.7345161832558</v>
       </c>
       <c r="F22" t="n">
         <v>484.8112968429803</v>
@@ -5934,28 +5934,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R22" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S22" t="n">
-        <v>2197.062545487567</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="T22" t="n">
-        <v>1977.461080510508</v>
+        <v>2044.506784258106</v>
       </c>
       <c r="U22" t="n">
-        <v>1977.461080510508</v>
+        <v>1755.431557602304</v>
       </c>
       <c r="V22" t="n">
-        <v>1722.776592304621</v>
+        <v>1755.431557602304</v>
       </c>
       <c r="W22" t="n">
-        <v>1582.207807637403</v>
+        <v>1466.014387565343</v>
       </c>
       <c r="X22" t="n">
-        <v>1354.218256739386</v>
+        <v>1238.024836667326</v>
       </c>
       <c r="Y22" t="n">
-        <v>1133.425677595856</v>
+        <v>1017.232257523796</v>
       </c>
     </row>
     <row r="23">
@@ -5986,13 +5986,13 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I23" t="n">
-        <v>95.34095638192548</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J23" t="n">
-        <v>378.1925803111708</v>
+        <v>378.1925803111712</v>
       </c>
       <c r="K23" t="n">
-        <v>852.85236110758</v>
+        <v>852.8523611075802</v>
       </c>
       <c r="L23" t="n">
         <v>1478.611553332386</v>
@@ -6025,13 +6025,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V23" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W23" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X23" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y23" t="n">
         <v>2704.375866615997</v>
@@ -6123,25 +6123,25 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>727.9786782557277</v>
+        <v>653.7474797708871</v>
       </c>
       <c r="C25" t="n">
-        <v>559.0424953278208</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="D25" t="n">
-        <v>408.925855915485</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="E25" t="n">
-        <v>261.0127623330919</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="F25" t="n">
-        <v>261.0127623330919</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="G25" t="n">
-        <v>93.81666304797187</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H25" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I25" t="n">
         <v>93.81666304797187</v>
@@ -6174,25 +6174,25 @@
         <v>2379.917379832663</v>
       </c>
       <c r="S25" t="n">
-        <v>2379.917379832663</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T25" t="n">
-        <v>2191.586158026164</v>
+        <v>2117.354959541324</v>
       </c>
       <c r="U25" t="n">
-        <v>1902.510931370362</v>
+        <v>1828.279732885522</v>
       </c>
       <c r="V25" t="n">
-        <v>1647.826443164475</v>
+        <v>1573.595244679635</v>
       </c>
       <c r="W25" t="n">
-        <v>1358.409273127515</v>
+        <v>1284.178074642674</v>
       </c>
       <c r="X25" t="n">
-        <v>1130.419722229497</v>
+        <v>1056.188523744657</v>
       </c>
       <c r="Y25" t="n">
-        <v>909.6271430859674</v>
+        <v>835.3959446011269</v>
       </c>
     </row>
     <row r="26">
@@ -6208,16 +6208,16 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D26" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E26" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F26" t="n">
-        <v>793.7736536168607</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G26" t="n">
-        <v>379.8308874362681</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H26" t="n">
         <v>93.81666304797187</v>
@@ -6360,13 +6360,13 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>950.7540666811333</v>
+        <v>1098.667160263527</v>
       </c>
       <c r="C28" t="n">
-        <v>781.8178837532264</v>
+        <v>929.7309773356195</v>
       </c>
       <c r="D28" t="n">
-        <v>631.7012443408906</v>
+        <v>779.6143379232838</v>
       </c>
       <c r="E28" t="n">
         <v>631.7012443408906</v>
@@ -6411,25 +6411,25 @@
         <v>2446.96308358026</v>
       </c>
       <c r="S28" t="n">
-        <v>2379.278523222742</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="T28" t="n">
-        <v>2159.677058245683</v>
+        <v>2044.506784258106</v>
       </c>
       <c r="U28" t="n">
-        <v>1870.601831589881</v>
+        <v>2044.506784258106</v>
       </c>
       <c r="V28" t="n">
-        <v>1870.601831589881</v>
+        <v>1789.822296052219</v>
       </c>
       <c r="W28" t="n">
-        <v>1581.18466155292</v>
+        <v>1500.405126015258</v>
       </c>
       <c r="X28" t="n">
-        <v>1353.195110654903</v>
+        <v>1500.405126015258</v>
       </c>
       <c r="Y28" t="n">
-        <v>1132.402531511373</v>
+        <v>1280.315625093766</v>
       </c>
     </row>
     <row r="29">
@@ -6451,7 +6451,7 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F29" t="n">
-        <v>793.7736536168613</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G29" t="n">
         <v>379.8308874362686</v>
@@ -6460,22 +6460,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I29" t="n">
-        <v>95.3409563819265</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J29" t="n">
-        <v>378.192580311172</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K29" t="n">
-        <v>852.8523611075813</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L29" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M29" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N29" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O29" t="n">
         <v>3640.42229106801</v>
@@ -6484,7 +6484,7 @@
         <v>4194.413870694707</v>
       </c>
       <c r="Q29" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R29" t="n">
         <v>4690.833152398593</v>
@@ -6597,25 +6597,25 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>571.6607764188008</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C31" t="n">
-        <v>402.7245934908939</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="D31" t="n">
-        <v>402.7245934908939</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="E31" t="n">
-        <v>402.7245934908939</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="F31" t="n">
-        <v>402.7245934908939</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="G31" t="n">
-        <v>235.5284942057738</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H31" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I31" t="n">
         <v>93.81666304797187</v>
@@ -6651,22 +6651,22 @@
         <v>2197.062545487567</v>
       </c>
       <c r="T31" t="n">
-        <v>2035.268256189238</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U31" t="n">
-        <v>1746.193029533436</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V31" t="n">
-        <v>1491.508541327549</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W31" t="n">
-        <v>1202.091371290588</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X31" t="n">
-        <v>974.1018203925706</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y31" t="n">
-        <v>753.3092412490405</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="32">
@@ -6676,19 +6676,19 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C32" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D32" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E32" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F32" t="n">
-        <v>793.7736536168609</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G32" t="n">
         <v>379.8308874362686</v>
@@ -6697,13 +6697,13 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I32" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192616</v>
       </c>
       <c r="J32" t="n">
-        <v>378.1925803111712</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K32" t="n">
-        <v>852.8523611075813</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L32" t="n">
         <v>1478.611553332387</v>
@@ -6733,19 +6733,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U32" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V32" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W32" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X32" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y32" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="33">
@@ -6834,22 +6834,22 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>571.6607764188008</v>
+        <v>870.3164745246296</v>
       </c>
       <c r="C34" t="n">
-        <v>402.7245934908939</v>
+        <v>701.3802915967227</v>
       </c>
       <c r="D34" t="n">
-        <v>402.7245934908939</v>
+        <v>551.263652184387</v>
       </c>
       <c r="E34" t="n">
-        <v>402.7245934908939</v>
+        <v>407.9027098310023</v>
       </c>
       <c r="F34" t="n">
-        <v>402.7245934908939</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="G34" t="n">
-        <v>235.5284942057738</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H34" t="n">
         <v>93.81666304797187</v>
@@ -6882,28 +6882,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R34" t="n">
-        <v>2437.724555511392</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S34" t="n">
-        <v>2254.869721166297</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="T34" t="n">
-        <v>2035.268256189238</v>
+        <v>2044.506784258106</v>
       </c>
       <c r="U34" t="n">
-        <v>1746.193029533436</v>
+        <v>1755.431557602304</v>
       </c>
       <c r="V34" t="n">
-        <v>1491.508541327549</v>
+        <v>1500.747069396417</v>
       </c>
       <c r="W34" t="n">
-        <v>1202.091371290588</v>
+        <v>1500.747069396417</v>
       </c>
       <c r="X34" t="n">
-        <v>974.1018203925706</v>
+        <v>1272.757518498399</v>
       </c>
       <c r="Y34" t="n">
-        <v>753.3092412490405</v>
+        <v>1051.964939354869</v>
       </c>
     </row>
     <row r="35">
@@ -6931,10 +6931,10 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H35" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I35" t="n">
-        <v>95.34095638192616</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J35" t="n">
         <v>378.1925803111717</v>
@@ -6973,13 +6973,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V35" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W35" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X35" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y35" t="n">
         <v>2704.375866615997</v>
@@ -7071,19 +7071,19 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>1098.667160263527</v>
+        <v>734.6461798836013</v>
       </c>
       <c r="C37" t="n">
-        <v>929.7309773356195</v>
+        <v>565.7099969556945</v>
       </c>
       <c r="D37" t="n">
-        <v>779.6143379232838</v>
+        <v>465.5282911402533</v>
       </c>
       <c r="E37" t="n">
-        <v>631.7012443408906</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="F37" t="n">
-        <v>484.8112968429803</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="G37" t="n">
         <v>317.6151975578602</v>
@@ -7122,25 +7122,25 @@
         <v>2379.917379832663</v>
       </c>
       <c r="S37" t="n">
-        <v>2379.917379832663</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T37" t="n">
-        <v>2379.917379832663</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U37" t="n">
-        <v>2273.199413378161</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V37" t="n">
-        <v>2018.514925172274</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W37" t="n">
-        <v>1729.097755135313</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X37" t="n">
-        <v>1501.108204237296</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y37" t="n">
-        <v>1280.315625093766</v>
+        <v>916.2946447138411</v>
       </c>
     </row>
     <row r="38">
@@ -7171,22 +7171,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I38" t="n">
-        <v>95.34095638192616</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J38" t="n">
         <v>378.1925803111717</v>
       </c>
       <c r="K38" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L38" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M38" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N38" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O38" t="n">
         <v>3640.42229106801</v>
@@ -7210,13 +7210,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V38" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W38" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X38" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y38" t="n">
         <v>2704.375866615997</v>
@@ -7308,25 +7308,25 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>956.9553291057244</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C40" t="n">
-        <v>788.0191461778176</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D40" t="n">
-        <v>637.9025067654818</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E40" t="n">
-        <v>489.9894131830887</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="F40" t="n">
-        <v>343.0994656851783</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="G40" t="n">
-        <v>175.9033664000583</v>
+        <v>177.7213185270443</v>
       </c>
       <c r="H40" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I40" t="n">
         <v>93.81666304797187</v>
@@ -7356,28 +7356,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R40" t="n">
-        <v>2413.381092470059</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S40" t="n">
-        <v>2230.526258124964</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T40" t="n">
-        <v>2010.924793147904</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U40" t="n">
-        <v>1721.849566492102</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V40" t="n">
-        <v>1467.165078286215</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W40" t="n">
-        <v>1177.747908249255</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X40" t="n">
-        <v>1177.747908249255</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y40" t="n">
-        <v>956.9553291057244</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="41">
@@ -7393,37 +7393,37 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D41" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E41" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F41" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168607</v>
       </c>
       <c r="G41" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362681</v>
       </c>
       <c r="H41" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I41" t="n">
-        <v>95.34095638192616</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J41" t="n">
         <v>378.1925803111717</v>
       </c>
       <c r="K41" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075811</v>
       </c>
       <c r="L41" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M41" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N41" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O41" t="n">
         <v>3640.42229106801</v>
@@ -7447,13 +7447,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V41" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W41" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X41" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y41" t="n">
         <v>2704.375866615997</v>
@@ -7487,28 +7487,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I42" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J42" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K42" t="n">
-        <v>577.3880777468471</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L42" t="n">
-        <v>1072.713683962606</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M42" t="n">
-        <v>1670.092171589158</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N42" t="n">
-        <v>2297.690135143765</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O42" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P42" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q42" t="n">
         <v>2553.061288060775</v>
@@ -7545,25 +7545,25 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>634.927936255316</v>
+        <v>580.8993044876688</v>
       </c>
       <c r="C43" t="n">
-        <v>634.927936255316</v>
+        <v>411.9631215597619</v>
       </c>
       <c r="D43" t="n">
-        <v>484.8112968429803</v>
+        <v>261.8464821474262</v>
       </c>
       <c r="E43" t="n">
-        <v>484.8112968429803</v>
+        <v>261.8464821474262</v>
       </c>
       <c r="F43" t="n">
-        <v>484.8112968429803</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="G43" t="n">
-        <v>317.6151975578602</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H43" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I43" t="n">
         <v>93.81666304797187</v>
@@ -7593,28 +7593,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R43" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S43" t="n">
-        <v>2197.062545487567</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="T43" t="n">
-        <v>1977.461080510508</v>
+        <v>2044.506784258106</v>
       </c>
       <c r="U43" t="n">
-        <v>1688.385853854706</v>
+        <v>1755.431557602304</v>
       </c>
       <c r="V43" t="n">
-        <v>1433.701365648819</v>
+        <v>1500.747069396417</v>
       </c>
       <c r="W43" t="n">
-        <v>1144.284195611858</v>
+        <v>1211.329899359456</v>
       </c>
       <c r="X43" t="n">
-        <v>1037.368980229086</v>
+        <v>983.3403484614387</v>
       </c>
       <c r="Y43" t="n">
-        <v>816.5764010855557</v>
+        <v>762.5477693179085</v>
       </c>
     </row>
     <row r="44">
@@ -7630,28 +7630,28 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D44" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E44" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F44" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168607</v>
       </c>
       <c r="G44" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362681</v>
       </c>
       <c r="H44" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I44" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J44" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111712</v>
       </c>
       <c r="K44" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075805</v>
       </c>
       <c r="L44" t="n">
         <v>1478.611553332387</v>
@@ -7724,22 +7724,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I45" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J45" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K45" t="n">
-        <v>577.3880777468471</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L45" t="n">
-        <v>1072.713683962606</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M45" t="n">
-        <v>1373.553594266881</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N45" t="n">
-        <v>2001.151557821488</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O45" t="n">
         <v>2553.061288060775</v>
@@ -7782,16 +7782,16 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>513.8536007400712</v>
+        <v>1016.58045691144</v>
       </c>
       <c r="C46" t="n">
-        <v>402.7245934908939</v>
+        <v>847.6442739835331</v>
       </c>
       <c r="D46" t="n">
-        <v>402.7245934908939</v>
+        <v>697.5276345711974</v>
       </c>
       <c r="E46" t="n">
-        <v>402.7245934908939</v>
+        <v>549.6145409888043</v>
       </c>
       <c r="F46" t="n">
         <v>402.7245934908939</v>
@@ -7830,28 +7830,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R46" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S46" t="n">
-        <v>2197.062545487567</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="T46" t="n">
-        <v>1977.461080510508</v>
+        <v>2044.506784258106</v>
       </c>
       <c r="U46" t="n">
-        <v>1688.385853854706</v>
+        <v>2044.506784258106</v>
       </c>
       <c r="V46" t="n">
-        <v>1433.701365648819</v>
+        <v>1789.822296052219</v>
       </c>
       <c r="W46" t="n">
-        <v>1144.284195611858</v>
+        <v>1647.011051783227</v>
       </c>
       <c r="X46" t="n">
-        <v>916.2946447138411</v>
+        <v>1419.02150088521</v>
       </c>
       <c r="Y46" t="n">
-        <v>695.5020655703109</v>
+        <v>1198.22892174168</v>
       </c>
     </row>
   </sheetData>
@@ -8057,7 +8057,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J3" t="n">
-        <v>6.233205181928426</v>
+        <v>6.233205181928398</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -8078,7 +8078,7 @@
         <v>0</v>
       </c>
       <c r="Q3" t="n">
-        <v>66.78462588923516</v>
+        <v>66.7846258892351</v>
       </c>
       <c r="R3" t="n">
         <v>45.52166981132082</v>
@@ -8139,13 +8139,13 @@
         <v>33.63624132272333</v>
       </c>
       <c r="K4" t="n">
-        <v>106.7437663446525</v>
+        <v>49.70416500699055</v>
       </c>
       <c r="L4" t="n">
         <v>162.4747015415544</v>
       </c>
       <c r="M4" t="n">
-        <v>118.01721167243</v>
+        <v>178.5096609094456</v>
       </c>
       <c r="N4" t="n">
         <v>171.8177168444618</v>
@@ -8157,7 +8157,7 @@
         <v>135.0065633140411</v>
       </c>
       <c r="Q4" t="n">
-        <v>65.34295837775146</v>
+        <v>61.89011047839804</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -8239,7 +8239,7 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>54.74236624506779</v>
+        <v>54.74236624506815</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -8297,7 +8297,7 @@
         <v>0</v>
       </c>
       <c r="K6" t="n">
-        <v>0</v>
+        <v>128.6722568460155</v>
       </c>
       <c r="L6" t="n">
         <v>0</v>
@@ -8315,7 +8315,7 @@
         <v>0</v>
       </c>
       <c r="Q6" t="n">
-        <v>128.6722568460175</v>
+        <v>0</v>
       </c>
       <c r="R6" t="n">
         <v>45.52166981132082</v>
@@ -8531,13 +8531,13 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J9" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K9" t="n">
-        <v>168.7434581780647</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L9" t="n">
-        <v>0</v>
+        <v>54.95314511565766</v>
       </c>
       <c r="M9" t="n">
         <v>0</v>
@@ -8555,7 +8555,7 @@
         <v>210.0772877358491</v>
       </c>
       <c r="R9" t="n">
-        <v>45.52166981132082</v>
+        <v>20.93778120154957</v>
       </c>
       <c r="S9" t="n">
         <v>0</v>
@@ -23418,7 +23418,7 @@
         <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
         <v>0</v>
@@ -23427,16 +23427,16 @@
         <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H13" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I13" t="n">
-        <v>81.26583631856552</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23463,10 +23463,10 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>66.37524671012166</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>123.7828069546809</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
         <v>0</v>
@@ -23481,7 +23481,7 @@
         <v>0</v>
       </c>
       <c r="X13" t="n">
-        <v>0</v>
+        <v>46.45968844823099</v>
       </c>
       <c r="Y13" t="n">
         <v>0</v>
@@ -23652,7 +23652,7 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0</v>
+        <v>84.77391660562004</v>
       </c>
       <c r="C16" t="n">
         <v>0</v>
@@ -23667,13 +23667,13 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>110.0033420516641</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H16" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>81.26583631856552</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23700,7 +23700,7 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S16" t="n">
         <v>181.0262860016446</v>
@@ -23895,13 +23895,13 @@
         <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>114.1584408891656</v>
       </c>
       <c r="E19" t="n">
         <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
         <v>0</v>
@@ -23937,13 +23937,13 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>26.80843451460703</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S19" t="n">
         <v>181.0262860016446</v>
       </c>
       <c r="T19" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U19" t="n">
         <v>0</v>
@@ -23955,7 +23955,7 @@
         <v>0</v>
       </c>
       <c r="X19" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y19" t="n">
         <v>0</v>
@@ -24132,13 +24132,13 @@
         <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
         <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>145.4210480229312</v>
+        <v>111.8370608760585</v>
       </c>
       <c r="G22" t="n">
         <v>0</v>
@@ -24174,7 +24174,7 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S22" t="n">
         <v>0</v>
@@ -24183,13 +24183,13 @@
         <v>0</v>
       </c>
       <c r="U22" t="n">
-        <v>286.1844743892441</v>
+        <v>0</v>
       </c>
       <c r="V22" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W22" t="n">
-        <v>147.3599015160449</v>
+        <v>0</v>
       </c>
       <c r="X22" t="n">
         <v>0</v>
@@ -24369,10 +24369,10 @@
         <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
         <v>145.4210480229312</v>
@@ -24381,10 +24381,10 @@
         <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24414,10 +24414,10 @@
         <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T25" t="n">
-        <v>30.95754073885482</v>
+        <v>138.4949402405078</v>
       </c>
       <c r="U25" t="n">
         <v>0</v>
@@ -24609,7 +24609,7 @@
         <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
         <v>0</v>
@@ -24651,25 +24651,25 @@
         <v>66.37524671012169</v>
       </c>
       <c r="S28" t="n">
-        <v>114.0185712477009</v>
+        <v>0</v>
       </c>
       <c r="T28" t="n">
         <v>0</v>
       </c>
       <c r="U28" t="n">
-        <v>0</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V28" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W28" t="n">
         <v>0</v>
       </c>
       <c r="X28" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y28" t="n">
-        <v>0</v>
+        <v>0.6960474398176189</v>
       </c>
     </row>
     <row r="29">
@@ -24840,10 +24840,10 @@
         <v>0</v>
       </c>
       <c r="C31" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
-        <v>148.6154730182124</v>
+        <v>119.8635921600923</v>
       </c>
       <c r="E31" t="n">
         <v>146.4339626465692</v>
@@ -24858,7 +24858,7 @@
         <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24891,7 +24891,7 @@
         <v>0</v>
       </c>
       <c r="T31" t="n">
-        <v>57.22910392194237</v>
+        <v>0</v>
       </c>
       <c r="U31" t="n">
         <v>0</v>
@@ -25080,19 +25080,19 @@
         <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>146.4339626465692</v>
+        <v>4.506629716718379</v>
       </c>
       <c r="F34" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G34" t="n">
         <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I34" t="n">
         <v>81.26583631856553</v>
@@ -25122,7 +25122,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>57.2291039219422</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S34" t="n">
         <v>0</v>
@@ -25137,7 +25137,7 @@
         <v>0</v>
       </c>
       <c r="W34" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X34" t="n">
         <v>0</v>
@@ -25317,16 +25317,16 @@
         <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>0</v>
+        <v>49.43558426092562</v>
       </c>
       <c r="E37" t="n">
         <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H37" t="n">
         <v>0</v>
@@ -25362,13 +25362,13 @@
         <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T37" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U37" t="n">
-        <v>180.5336875992872</v>
+        <v>0</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -25380,7 +25380,7 @@
         <v>0</v>
       </c>
       <c r="Y37" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="38">
@@ -25548,28 +25548,28 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C40" t="n">
         <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E40" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F40" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
         <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>140.2947128462239</v>
+        <v>57.22910392194221</v>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25596,7 +25596,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>33.12907551102249</v>
+        <v>0</v>
       </c>
       <c r="S40" t="n">
         <v>0</v>
@@ -25614,7 +25614,7 @@
         <v>0</v>
       </c>
       <c r="X40" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y40" t="n">
         <v>0</v>
@@ -25788,7 +25788,7 @@
         <v>0</v>
       </c>
       <c r="C43" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D43" t="n">
         <v>0</v>
@@ -25797,16 +25797,16 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F43" t="n">
-        <v>145.4210480229312</v>
+        <v>144.5956654067404</v>
       </c>
       <c r="G43" t="n">
         <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I43" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -25833,7 +25833,7 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S43" t="n">
         <v>0</v>
@@ -25851,7 +25851,7 @@
         <v>0</v>
       </c>
       <c r="X43" t="n">
-        <v>119.8635921600922</v>
+        <v>0</v>
       </c>
       <c r="Y43" t="n">
         <v>0</v>
@@ -26025,16 +26025,16 @@
         <v>0</v>
       </c>
       <c r="C46" t="n">
-        <v>57.22910392194228</v>
+        <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G46" t="n">
         <v>0</v>
@@ -26070,7 +26070,7 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S46" t="n">
         <v>0</v>
@@ -26079,13 +26079,13 @@
         <v>0</v>
       </c>
       <c r="U46" t="n">
-        <v>0</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
       </c>
       <c r="W46" t="n">
-        <v>0</v>
+        <v>145.139866510289</v>
       </c>
       <c r="X46" t="n">
         <v>0</v>
@@ -26133,7 +26133,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>900905.1051655904</v>
+        <v>900905.1051655903</v>
       </c>
     </row>
     <row r="4">
@@ -26141,7 +26141,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>906702.6369064928</v>
+        <v>906702.6369064925</v>
       </c>
     </row>
     <row r="5">
@@ -26165,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>879881.4739670029</v>
+        <v>879881.4739670031</v>
       </c>
     </row>
     <row r="8">
@@ -26189,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>879881.4739670031</v>
+        <v>879881.4739670029</v>
       </c>
     </row>
     <row r="11">
@@ -26213,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>879881.4739670031</v>
+        <v>879881.4739670029</v>
       </c>
     </row>
     <row r="14">
@@ -26313,13 +26313,13 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>554203.1946583916</v>
+        <v>554203.1946583918</v>
       </c>
       <c r="C2" t="n">
-        <v>554203.1946583912</v>
+        <v>554203.1946583915</v>
       </c>
       <c r="D2" t="n">
-        <v>554203.1946583913</v>
+        <v>554203.1946583915</v>
       </c>
       <c r="E2" t="n">
         <v>544823.954790754</v>
@@ -26328,34 +26328,34 @@
         <v>544823.9547907539</v>
       </c>
       <c r="G2" t="n">
+        <v>544823.954790754</v>
+      </c>
+      <c r="H2" t="n">
+        <v>544823.954790754</v>
+      </c>
+      <c r="I2" t="n">
         <v>544823.9547907539</v>
       </c>
-      <c r="H2" t="n">
+      <c r="J2" t="n">
         <v>544823.9547907542</v>
       </c>
-      <c r="I2" t="n">
+      <c r="K2" t="n">
+        <v>544823.9547907539</v>
+      </c>
+      <c r="L2" t="n">
+        <v>544823.9547907538</v>
+      </c>
+      <c r="M2" t="n">
+        <v>544823.954790754</v>
+      </c>
+      <c r="N2" t="n">
+        <v>544823.9547907539</v>
+      </c>
+      <c r="O2" t="n">
         <v>544823.9547907541</v>
       </c>
-      <c r="J2" t="n">
-        <v>544823.9547907541</v>
-      </c>
-      <c r="K2" t="n">
-        <v>544823.9547907541</v>
-      </c>
-      <c r="L2" t="n">
+      <c r="P2" t="n">
         <v>544823.9547907542</v>
-      </c>
-      <c r="M2" t="n">
-        <v>544823.9547907542</v>
-      </c>
-      <c r="N2" t="n">
-        <v>544823.9547907542</v>
-      </c>
-      <c r="O2" t="n">
-        <v>544823.954790754</v>
-      </c>
-      <c r="P2" t="n">
-        <v>544823.9547907537</v>
       </c>
     </row>
     <row r="3">
@@ -26365,16 +26365,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>652246.4444800892</v>
+        <v>652246.4444800894</v>
       </c>
       <c r="C3" t="n">
-        <v>55881.32342211045</v>
+        <v>55881.32342210838</v>
       </c>
       <c r="D3" t="n">
-        <v>363279.8866276229</v>
+        <v>363279.8866276268</v>
       </c>
       <c r="E3" t="n">
-        <v>507485.4416245462</v>
+        <v>507485.4416245439</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26389,13 +26389,13 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>62744.3107835359</v>
+        <v>62744.31078353588</v>
       </c>
       <c r="K3" t="n">
-        <v>12992.59634440496</v>
+        <v>12992.59634440447</v>
       </c>
       <c r="L3" t="n">
-        <v>88656.33991666233</v>
+        <v>88656.33991666274</v>
       </c>
       <c r="M3" t="n">
         <v>132607.2937289267</v>
@@ -26417,13 +26417,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>261062.8075060264</v>
+        <v>261062.8075060263</v>
       </c>
       <c r="C4" t="n">
-        <v>246054.6603431035</v>
+        <v>246054.660343104</v>
       </c>
       <c r="D4" t="n">
-        <v>143951.0939828189</v>
+        <v>143951.0939828186</v>
       </c>
       <c r="E4" t="n">
         <v>12996.86414683044</v>
@@ -26469,13 +26469,13 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>61145.7022343733</v>
+        <v>61145.70223437331</v>
       </c>
       <c r="C5" t="n">
-        <v>65162.40123302711</v>
+        <v>65162.40123302696</v>
       </c>
       <c r="D5" t="n">
-        <v>92937.7724398447</v>
+        <v>92937.77243984476</v>
       </c>
       <c r="E5" t="n">
         <v>101122.5298239071</v>
@@ -26524,46 +26524,46 @@
         <v>-420251.7595620973</v>
       </c>
       <c r="C6" t="n">
-        <v>187104.8096601501</v>
+        <v>187104.8096601522</v>
       </c>
       <c r="D6" t="n">
-        <v>-45965.55839189523</v>
+        <v>-45965.5583918987</v>
       </c>
       <c r="E6" t="n">
-        <v>-77128.26005888668</v>
+        <v>-76815.6187299631</v>
       </c>
       <c r="F6" t="n">
-        <v>430357.1815656594</v>
+        <v>430669.8228945807</v>
       </c>
       <c r="G6" t="n">
-        <v>430357.1815656594</v>
+        <v>430669.8228945808</v>
       </c>
       <c r="H6" t="n">
-        <v>430357.1815656599</v>
+        <v>430669.8228945808</v>
       </c>
       <c r="I6" t="n">
-        <v>430357.1815656596</v>
+        <v>430669.8228945807</v>
       </c>
       <c r="J6" t="n">
-        <v>367612.8707821237</v>
+        <v>367925.5121110451</v>
       </c>
       <c r="K6" t="n">
-        <v>417364.5852212546</v>
+        <v>417677.2265501761</v>
       </c>
       <c r="L6" t="n">
-        <v>341700.8416489974</v>
+        <v>342013.4829779178</v>
       </c>
       <c r="M6" t="n">
-        <v>297749.887836733</v>
+        <v>298062.529165654</v>
       </c>
       <c r="N6" t="n">
-        <v>430357.1815656598</v>
+        <v>430669.8228945807</v>
       </c>
       <c r="O6" t="n">
-        <v>430357.1815656595</v>
+        <v>430669.8228945809</v>
       </c>
       <c r="P6" t="n">
-        <v>430357.1815656592</v>
+        <v>430669.822894581</v>
       </c>
     </row>
   </sheetData>
@@ -26737,13 +26737,13 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>593.4761003380648</v>
+        <v>593.476100338065</v>
       </c>
       <c r="C3" t="n">
-        <v>636.9329421575587</v>
+        <v>636.9329421575572</v>
       </c>
       <c r="D3" t="n">
-        <v>934.0648921175391</v>
+        <v>934.0648921175416</v>
       </c>
       <c r="E3" t="n">
         <v>1367.975500341674</v>
@@ -26789,16 +26789,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>239.8079481415049</v>
+        <v>239.807948141505</v>
       </c>
       <c r="C4" t="n">
-        <v>290.2905114143475</v>
+        <v>290.2905114143457</v>
       </c>
       <c r="D4" t="n">
-        <v>640.5848321000389</v>
+        <v>640.5848321000387</v>
       </c>
       <c r="E4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="F4" t="n">
         <v>1172.708288099648</v>
@@ -26959,16 +26959,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>593.4761003380648</v>
+        <v>593.476100338065</v>
       </c>
       <c r="C3" t="n">
-        <v>43.45684181949389</v>
+        <v>43.4568418194923</v>
       </c>
       <c r="D3" t="n">
-        <v>297.1319499599804</v>
+        <v>297.1319499599844</v>
       </c>
       <c r="E3" t="n">
-        <v>433.9106082241349</v>
+        <v>433.9106082241321</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26977,7 +26977,7 @@
         <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>-2.273736754432321e-13</v>
+        <v>0</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
@@ -27011,16 +27011,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>239.8079481415049</v>
+        <v>239.807948141505</v>
       </c>
       <c r="C4" t="n">
-        <v>50.48256327284263</v>
+        <v>50.48256327284071</v>
       </c>
       <c r="D4" t="n">
-        <v>350.2943206856914</v>
+        <v>350.294320685693</v>
       </c>
       <c r="E4" t="n">
-        <v>532.1234559996097</v>
+        <v>532.1234559996096</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27035,16 +27035,16 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>239.8079481415049</v>
+        <v>239.8079481415048</v>
       </c>
       <c r="K4" t="n">
-        <v>50.48256327284263</v>
+        <v>50.48256327284071</v>
       </c>
       <c r="L4" t="n">
-        <v>350.2943206856914</v>
+        <v>350.294320685693</v>
       </c>
       <c r="M4" t="n">
-        <v>532.1234559996097</v>
+        <v>532.1234559996096</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27257,16 +27257,16 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>239.8079481415049</v>
+        <v>239.807948141505</v>
       </c>
       <c r="K4" t="n">
-        <v>50.48256327284263</v>
+        <v>50.48256327284071</v>
       </c>
       <c r="L4" t="n">
-        <v>350.2943206856914</v>
+        <v>350.294320685693</v>
       </c>
       <c r="M4" t="n">
-        <v>532.1234559996097</v>
+        <v>532.1234559996096</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27378,28 +27378,28 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>382.7338416634806</v>
+        <v>184.4279048863799</v>
       </c>
       <c r="C2" t="n">
-        <v>365.2728917710076</v>
+        <v>125.4649436295026</v>
       </c>
       <c r="D2" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
-        <v>289.2035702431147</v>
+        <v>142.1224219307568</v>
       </c>
       <c r="F2" t="n">
-        <v>167.0680976002066</v>
+        <v>167.0680976002065</v>
       </c>
       <c r="G2" t="n">
-        <v>173.108955804432</v>
+        <v>400</v>
       </c>
       <c r="H2" t="n">
         <v>315.0408840752156</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>118.4960408938903</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -27435,7 +27435,7 @@
         <v>212.651863114966</v>
       </c>
       <c r="U2" t="n">
-        <v>11.34683808079578</v>
+        <v>251.1547862223006</v>
       </c>
       <c r="V2" t="n">
         <v>327.7522584701349</v>
@@ -27466,7 +27466,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>0</v>
+        <v>64.52734110753163</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -27475,10 +27475,10 @@
         <v>136.0669836643703</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
+        <v>99.90681807664345</v>
       </c>
       <c r="I3" t="n">
-        <v>25.00776302211993</v>
+        <v>45.44580843958668</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -27505,7 +27505,7 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>0</v>
+        <v>20.90078060183511</v>
       </c>
       <c r="S3" t="n">
         <v>147.9721212459916</v>
@@ -27523,7 +27523,7 @@
         <v>251.6949831609196</v>
       </c>
       <c r="X3" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y3" t="n">
         <v>205.6826957773044</v>
@@ -27536,19 +27536,19 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
         <v>166.9207765545704</v>
@@ -27557,10 +27557,10 @@
         <v>152.7120966692326</v>
       </c>
       <c r="I4" t="n">
-        <v>123.266557879417</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>0</v>
+        <v>17.695841881769</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27587,7 +27587,7 @@
         <v>129.1731816677913</v>
       </c>
       <c r="S4" t="n">
-        <v>205.3658819001187</v>
+        <v>0</v>
       </c>
       <c r="T4" t="n">
         <v>223.3729047207587</v>
@@ -27596,16 +27596,16 @@
         <v>286.260654658097</v>
       </c>
       <c r="V4" t="n">
-        <v>252.137643323828</v>
+        <v>12.32969518232304</v>
       </c>
       <c r="W4" t="n">
-        <v>286.522998336591</v>
+        <v>104.1486812920164</v>
       </c>
       <c r="X4" t="n">
-        <v>139.0607702616897</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y4" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="5">
@@ -27615,28 +27615,28 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>127.0459592097232</v>
+        <v>258.4250935658746</v>
       </c>
       <c r="C5" t="n">
-        <v>365.2728917710076</v>
+        <v>74.98238035666185</v>
       </c>
       <c r="D5" t="n">
-        <v>354.683041620683</v>
+        <v>64.39253020633726</v>
       </c>
       <c r="E5" t="n">
-        <v>381.9303700722618</v>
+        <v>91.63985865791608</v>
       </c>
       <c r="F5" t="n">
-        <v>116.585534327364</v>
+        <v>400</v>
       </c>
       <c r="G5" t="n">
-        <v>122.4516916599532</v>
+        <v>400</v>
       </c>
       <c r="H5" t="n">
-        <v>313.2517287735718</v>
+        <v>313.2517287735719</v>
       </c>
       <c r="I5" t="n">
-        <v>111.7608855401374</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27666,10 +27666,10 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>150.6718910157313</v>
+        <v>150.6718910157314</v>
       </c>
       <c r="T5" t="n">
-        <v>211.8871100493787</v>
+        <v>211.8871100493788</v>
       </c>
       <c r="U5" t="n">
         <v>251.1408101525697</v>
@@ -27684,7 +27684,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
-        <v>95.94742724170612</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="6">
@@ -27697,10 +27697,10 @@
         <v>0</v>
       </c>
       <c r="C6" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D6" t="n">
-        <v>19.48084200413282</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E6" t="n">
         <v>157.6450804554009</v>
@@ -27712,10 +27712,10 @@
         <v>135.9735104574378</v>
       </c>
       <c r="H6" t="n">
-        <v>99.00406368337434</v>
+        <v>50.02632429547931</v>
       </c>
       <c r="I6" t="n">
-        <v>42.22754232370907</v>
+        <v>42.22754232370918</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -27745,7 +27745,7 @@
         <v>0</v>
       </c>
       <c r="S6" t="n">
-        <v>146.235897424241</v>
+        <v>146.2358974242411</v>
       </c>
       <c r="T6" t="n">
         <v>194.6426402623424</v>
@@ -27757,7 +27757,7 @@
         <v>0</v>
       </c>
       <c r="W6" t="n">
-        <v>251.6949831609196</v>
+        <v>0</v>
       </c>
       <c r="X6" t="n">
         <v>0</v>
@@ -27776,13 +27776,13 @@
         <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>148.6154730182124</v>
+        <v>25.77532993963069</v>
       </c>
       <c r="E7" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
         <v>145.4210480229312</v>
@@ -27794,10 +27794,10 @@
         <v>152.0153623856348</v>
       </c>
       <c r="I7" t="n">
-        <v>120.9099147197631</v>
+        <v>120.9099147197632</v>
       </c>
       <c r="J7" t="n">
-        <v>12.15545075340502</v>
+        <v>12.1554507534052</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -27821,10 +27821,10 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>125.6496154441976</v>
+        <v>125.6496154441977</v>
       </c>
       <c r="S7" t="n">
-        <v>204.0001972153978</v>
+        <v>204.0001972153979</v>
       </c>
       <c r="T7" t="n">
         <v>223.0380733165757</v>
@@ -27833,10 +27833,10 @@
         <v>286.2563802146393</v>
       </c>
       <c r="V7" t="n">
-        <v>102.1397148366382</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X7" t="n">
         <v>0</v>
@@ -27852,10 +27852,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
         <v>354.683041620683</v>
@@ -27867,13 +27867,13 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>400</v>
+        <v>215.3456394985141</v>
       </c>
       <c r="H8" t="n">
-        <v>243.2710331090094</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>65.70991267247049</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27903,25 +27903,25 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>123.4522153987942</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>206.6581849802337</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>251.045250128462</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -28028,10 +28028,10 @@
         <v>166.3066000448042</v>
       </c>
       <c r="H10" t="n">
-        <v>147.2515091551289</v>
+        <v>147.2515091551288</v>
       </c>
       <c r="I10" t="n">
-        <v>104.7965952039006</v>
+        <v>104.7965952039004</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -28058,16 +28058,16 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>101.5575724195736</v>
+        <v>101.5575724195734</v>
       </c>
       <c r="S10" t="n">
-        <v>194.6624603617375</v>
+        <v>194.6624603617374</v>
       </c>
       <c r="T10" t="n">
         <v>220.7486959972119</v>
       </c>
       <c r="U10" t="n">
-        <v>43.08974057846876</v>
+        <v>43.08974057846424</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -31047,22 +31047,22 @@
         <v>24.43391804055157</v>
       </c>
       <c r="I2" t="n">
-        <v>91.97984867651557</v>
+        <v>91.97984867651559</v>
       </c>
       <c r="J2" t="n">
         <v>202.4946418937401</v>
       </c>
       <c r="K2" t="n">
-        <v>303.486976877902</v>
+        <v>303.4869768779021</v>
       </c>
       <c r="L2" t="n">
         <v>376.502430971253</v>
       </c>
       <c r="M2" t="n">
-        <v>418.9314987074823</v>
+        <v>418.9314987074824</v>
       </c>
       <c r="N2" t="n">
-        <v>425.7102483359669</v>
+        <v>425.710248335967</v>
       </c>
       <c r="O2" t="n">
         <v>401.9861157822518</v>
@@ -31074,10 +31074,10 @@
         <v>257.6431848457576</v>
       </c>
       <c r="R2" t="n">
-        <v>149.8691179411496</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S2" t="n">
-        <v>54.36718245810515</v>
+        <v>54.36718245810516</v>
       </c>
       <c r="T2" t="n">
         <v>10.44398644916534</v>
@@ -31126,7 +31126,7 @@
         <v>12.32862615985301</v>
       </c>
       <c r="I3" t="n">
-        <v>43.95082441182839</v>
+        <v>43.9508244118284</v>
       </c>
       <c r="J3" t="n">
         <v>120.6044214847383</v>
@@ -31135,16 +31135,16 @@
         <v>206.1321659070428</v>
       </c>
       <c r="L3" t="n">
-        <v>277.1701353512821</v>
+        <v>277.1701353512822</v>
       </c>
       <c r="M3" t="n">
         <v>323.4444746842453</v>
       </c>
       <c r="N3" t="n">
-        <v>332.0050874900652</v>
+        <v>332.0050874900653</v>
       </c>
       <c r="O3" t="n">
-        <v>303.7197925947076</v>
+        <v>303.7197925947077</v>
       </c>
       <c r="P3" t="n">
         <v>243.7619099671573</v>
@@ -31153,16 +31153,16 @@
         <v>162.9483813607457</v>
       </c>
       <c r="R3" t="n">
-        <v>79.25705355080801</v>
+        <v>79.25705355080802</v>
       </c>
       <c r="S3" t="n">
         <v>23.71104985784626</v>
       </c>
       <c r="T3" t="n">
-        <v>5.145325813308315</v>
+        <v>5.145325813308316</v>
       </c>
       <c r="U3" t="n">
-        <v>0.08398246702897147</v>
+        <v>0.0839824670289715</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -31202,25 +31202,25 @@
         <v>1.070202803888314</v>
       </c>
       <c r="H4" t="n">
-        <v>9.515075838207013</v>
+        <v>9.515075838207014</v>
       </c>
       <c r="I4" t="n">
-        <v>32.18391704784129</v>
+        <v>32.1839170478413</v>
       </c>
       <c r="J4" t="n">
-        <v>75.66333823490376</v>
+        <v>75.66333823490378</v>
       </c>
       <c r="K4" t="n">
-        <v>124.338107579024</v>
+        <v>124.3381075790241</v>
       </c>
       <c r="L4" t="n">
         <v>159.1099695889953</v>
       </c>
       <c r="M4" t="n">
-        <v>167.7591540676926</v>
+        <v>167.7591540676927</v>
       </c>
       <c r="N4" t="n">
-        <v>163.770216344109</v>
+        <v>163.7702163441091</v>
       </c>
       <c r="O4" t="n">
         <v>151.2683017714137</v>
@@ -31229,19 +31229,19 @@
         <v>129.436164572092</v>
       </c>
       <c r="Q4" t="n">
-        <v>89.61489115104779</v>
+        <v>89.6148911510478</v>
       </c>
       <c r="R4" t="n">
-        <v>48.12020970937816</v>
+        <v>48.12020970937817</v>
       </c>
       <c r="S4" t="n">
-        <v>18.6507161368536</v>
+        <v>18.65071613685361</v>
       </c>
       <c r="T4" t="n">
-        <v>4.572684707522793</v>
+        <v>4.572684707522794</v>
       </c>
       <c r="U4" t="n">
-        <v>0.05837469839390808</v>
+        <v>0.05837469839390809</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -31278,49 +31278,49 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>2.560534440834405</v>
+        <v>2.560534440834399</v>
       </c>
       <c r="H5" t="n">
-        <v>26.22307334219536</v>
+        <v>26.2230733421953</v>
       </c>
       <c r="I5" t="n">
-        <v>98.71500403026849</v>
+        <v>98.71500403026826</v>
       </c>
       <c r="J5" t="n">
-        <v>217.3221599977693</v>
+        <v>217.3221599977688</v>
       </c>
       <c r="K5" t="n">
-        <v>325.7095828782897</v>
+        <v>325.7095828782889</v>
       </c>
       <c r="L5" t="n">
-        <v>404.0715387719757</v>
+        <v>404.0715387719748</v>
       </c>
       <c r="M5" t="n">
-        <v>449.6074431341646</v>
+        <v>449.6074431341635</v>
       </c>
       <c r="N5" t="n">
-        <v>456.8825616141854</v>
+        <v>456.8825616141843</v>
       </c>
       <c r="O5" t="n">
-        <v>431.4212472681382</v>
+        <v>431.4212472681372</v>
       </c>
       <c r="P5" t="n">
-        <v>368.2080532600388</v>
+        <v>368.2080532600379</v>
       </c>
       <c r="Q5" t="n">
-        <v>276.5089135976565</v>
+        <v>276.5089135976559</v>
       </c>
       <c r="R5" t="n">
-        <v>160.8431715690643</v>
+        <v>160.843171569064</v>
       </c>
       <c r="S5" t="n">
-        <v>58.34817857051407</v>
+        <v>58.34817857051393</v>
       </c>
       <c r="T5" t="n">
-        <v>11.20873951475261</v>
+        <v>11.20873951475259</v>
       </c>
       <c r="U5" t="n">
-        <v>0.2048427552667524</v>
+        <v>0.2048427552667519</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
@@ -31357,49 +31357,49 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>1.370006705772862</v>
+        <v>1.370006705772859</v>
       </c>
       <c r="H6" t="n">
-        <v>13.23138055312212</v>
+        <v>13.23138055312209</v>
       </c>
       <c r="I6" t="n">
-        <v>47.169090527706</v>
+        <v>47.1690905277059</v>
       </c>
       <c r="J6" t="n">
-        <v>129.43558968883</v>
+        <v>129.4355896888297</v>
       </c>
       <c r="K6" t="n">
-        <v>221.2260389756117</v>
+        <v>221.2260389756112</v>
       </c>
       <c r="L6" t="n">
-        <v>297.4657103916033</v>
+        <v>297.4657103916026</v>
       </c>
       <c r="M6" t="n">
-        <v>347.1284534758694</v>
+        <v>347.1284534758686</v>
       </c>
       <c r="N6" t="n">
-        <v>356.3159107264253</v>
+        <v>356.3159107264244</v>
       </c>
       <c r="O6" t="n">
-        <v>325.9594463511423</v>
+        <v>325.9594463511416</v>
       </c>
       <c r="P6" t="n">
-        <v>261.6111927892056</v>
+        <v>261.611192789205</v>
       </c>
       <c r="Q6" t="n">
-        <v>174.8801542316376</v>
+        <v>174.8801542316372</v>
       </c>
       <c r="R6" t="n">
-        <v>85.06059178473967</v>
+        <v>85.06059178473947</v>
       </c>
       <c r="S6" t="n">
-        <v>25.44727367959679</v>
+        <v>25.44727367959673</v>
       </c>
       <c r="T6" t="n">
-        <v>5.52208843247921</v>
+        <v>5.522088432479197</v>
       </c>
       <c r="U6" t="n">
-        <v>0.09013202011663571</v>
+        <v>0.0901320201166355</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -31436,49 +31436,49 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>1.148567600611991</v>
+        <v>1.148567600611988</v>
       </c>
       <c r="H7" t="n">
-        <v>10.2118101218048</v>
+        <v>10.21181012180478</v>
       </c>
       <c r="I7" t="n">
-        <v>34.54056020749516</v>
+        <v>34.54056020749508</v>
       </c>
       <c r="J7" t="n">
-        <v>81.20372936326775</v>
+        <v>81.20372936326757</v>
       </c>
       <c r="K7" t="n">
-        <v>133.4426721438295</v>
+        <v>133.4426721438292</v>
       </c>
       <c r="L7" t="n">
-        <v>170.7606776400773</v>
+        <v>170.7606776400769</v>
       </c>
       <c r="M7" t="n">
-        <v>180.0431921577505</v>
+        <v>180.0431921577501</v>
       </c>
       <c r="N7" t="n">
-        <v>175.7621674645605</v>
+        <v>175.7621674645601</v>
       </c>
       <c r="O7" t="n">
-        <v>162.344809584684</v>
+        <v>162.3448095846836</v>
       </c>
       <c r="P7" t="n">
-        <v>138.9140305321993</v>
+        <v>138.914030532199</v>
       </c>
       <c r="Q7" t="n">
-        <v>96.17687426579137</v>
+        <v>96.17687426579114</v>
       </c>
       <c r="R7" t="n">
-        <v>51.64377593297188</v>
+        <v>51.64377593297176</v>
       </c>
       <c r="S7" t="n">
-        <v>20.01640082157442</v>
+        <v>20.01640082157437</v>
       </c>
       <c r="T7" t="n">
-        <v>4.907516111705778</v>
+        <v>4.907516111705768</v>
       </c>
       <c r="U7" t="n">
-        <v>0.06264914185156321</v>
+        <v>0.06264914185156308</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -31515,49 +31515,49 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>3.755034742181059</v>
+        <v>3.755034742181069</v>
       </c>
       <c r="H8" t="n">
-        <v>38.45624955336178</v>
+        <v>38.45624955336188</v>
       </c>
       <c r="I8" t="n">
-        <v>144.7659768979354</v>
+        <v>144.7659768979358</v>
       </c>
       <c r="J8" t="n">
-        <v>318.7038799491899</v>
+        <v>318.7038799491908</v>
       </c>
       <c r="K8" t="n">
-        <v>477.6545005857142</v>
+        <v>477.6545005857155</v>
       </c>
       <c r="L8" t="n">
-        <v>592.5726450767379</v>
+        <v>592.5726450767395</v>
       </c>
       <c r="M8" t="n">
-        <v>659.3512441730003</v>
+        <v>659.3512441730021</v>
       </c>
       <c r="N8" t="n">
-        <v>670.0202366342223</v>
+        <v>670.0202366342241</v>
       </c>
       <c r="O8" t="n">
-        <v>632.6811099166594</v>
+        <v>632.6811099166611</v>
       </c>
       <c r="P8" t="n">
-        <v>539.9786897190644</v>
+        <v>539.9786897190659</v>
       </c>
       <c r="Q8" t="n">
-        <v>405.5015080147051</v>
+        <v>405.5015080147062</v>
       </c>
       <c r="R8" t="n">
-        <v>235.8772011235311</v>
+        <v>235.8772011235318</v>
       </c>
       <c r="S8" t="n">
-        <v>85.56785418745096</v>
+        <v>85.56785418745119</v>
       </c>
       <c r="T8" t="n">
-        <v>16.43766458389759</v>
+        <v>16.43766458389764</v>
       </c>
       <c r="U8" t="n">
-        <v>0.3004027793744847</v>
+        <v>0.3004027793744855</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -31594,49 +31594,49 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>2.00912071134716</v>
+        <v>2.009120711347165</v>
       </c>
       <c r="H9" t="n">
-        <v>19.4038763438002</v>
+        <v>19.40387634380026</v>
       </c>
       <c r="I9" t="n">
-        <v>69.17367361436493</v>
+        <v>69.17367361436511</v>
       </c>
       <c r="J9" t="n">
-        <v>189.8178475575841</v>
+        <v>189.8178475575846</v>
       </c>
       <c r="K9" t="n">
-        <v>324.4289352178438</v>
+        <v>324.4289352178446</v>
       </c>
       <c r="L9" t="n">
-        <v>436.2347404177243</v>
+        <v>436.2347404177255</v>
       </c>
       <c r="M9" t="n">
-        <v>509.0653662040588</v>
+        <v>509.0653662040601</v>
       </c>
       <c r="N9" t="n">
-        <v>522.5388116762072</v>
+        <v>522.5388116762085</v>
       </c>
       <c r="O9" t="n">
-        <v>478.0209264405674</v>
+        <v>478.0209264405686</v>
       </c>
       <c r="P9" t="n">
-        <v>383.6539365378625</v>
+        <v>383.6539365378635</v>
       </c>
       <c r="Q9" t="n">
-        <v>256.462496416876</v>
+        <v>256.4624964168767</v>
       </c>
       <c r="R9" t="n">
-        <v>124.741722762414</v>
+        <v>124.7417227624144</v>
       </c>
       <c r="S9" t="n">
-        <v>37.31853601997901</v>
+        <v>37.31853601997911</v>
       </c>
       <c r="T9" t="n">
-        <v>8.098166376000171</v>
+        <v>8.098166376000194</v>
       </c>
       <c r="U9" t="n">
-        <v>0.1321789941675763</v>
+        <v>0.1321789941675767</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -31673,49 +31673,49 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>1.684379313654579</v>
+        <v>1.684379313654583</v>
       </c>
       <c r="H10" t="n">
-        <v>14.97566335231072</v>
+        <v>14.97566335231076</v>
       </c>
       <c r="I10" t="n">
-        <v>50.6538797233577</v>
+        <v>50.65387972335784</v>
       </c>
       <c r="J10" t="n">
-        <v>119.0856174753787</v>
+        <v>119.085617475379</v>
       </c>
       <c r="K10" t="n">
-        <v>195.6942511682319</v>
+        <v>195.6942511682324</v>
       </c>
       <c r="L10" t="n">
-        <v>250.4212663227908</v>
+        <v>250.4212663227914</v>
       </c>
       <c r="M10" t="n">
-        <v>264.0341136849627</v>
+        <v>264.0341136849634</v>
       </c>
       <c r="N10" t="n">
-        <v>257.7559726067958</v>
+        <v>257.7559726067965</v>
       </c>
       <c r="O10" t="n">
-        <v>238.0793597154672</v>
+        <v>238.0793597154679</v>
       </c>
       <c r="P10" t="n">
-        <v>203.7180217169137</v>
+        <v>203.7180217169142</v>
       </c>
       <c r="Q10" t="n">
-        <v>141.0437987097484</v>
+        <v>141.0437987097488</v>
       </c>
       <c r="R10" t="n">
-        <v>75.73581895759585</v>
+        <v>75.73581895759605</v>
       </c>
       <c r="S10" t="n">
-        <v>29.35413767523478</v>
+        <v>29.35413767523486</v>
       </c>
       <c r="T10" t="n">
-        <v>7.196893431069561</v>
+        <v>7.19689343106958</v>
       </c>
       <c r="U10" t="n">
-        <v>0.09187523529024984</v>
+        <v>0.09187523529025009</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -31752,7 +31752,7 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H11" t="n">
         <v>56.32071997135341</v>
@@ -31764,31 +31764,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K11" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L11" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M11" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N11" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O11" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P11" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q11" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R11" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S11" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T11" t="n">
         <v>24.07361910651528</v>
@@ -31831,10 +31831,10 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H12" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I12" t="n">
         <v>99.52238</v>
@@ -31846,34 +31846,34 @@
         <v>137.841438974359</v>
       </c>
       <c r="L12" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M12" t="n">
-        <v>620.1193660647493</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N12" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O12" t="n">
-        <v>700.0808204437244</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P12" t="n">
-        <v>561.8765786214699</v>
+        <v>171.7382405950817</v>
       </c>
       <c r="Q12" t="n">
-        <v>375.5996128485291</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R12" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S12" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T12" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U12" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -31913,25 +31913,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H13" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I13" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J13" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K13" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L13" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M13" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N13" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O13" t="n">
         <v>348.6767717920058</v>
@@ -31940,19 +31940,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q13" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R13" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S13" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T13" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U13" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -31989,7 +31989,7 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H14" t="n">
         <v>56.32071997135341</v>
@@ -32001,31 +32001,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K14" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L14" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M14" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N14" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O14" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P14" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q14" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R14" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S14" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T14" t="n">
         <v>24.07361910651528</v>
@@ -32068,10 +32068,10 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H15" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I15" t="n">
         <v>99.52238</v>
@@ -32083,19 +32083,19 @@
         <v>137.841438974359</v>
       </c>
       <c r="L15" t="n">
-        <v>248.7449369209194</v>
+        <v>248.7449369209195</v>
       </c>
       <c r="M15" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N15" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O15" t="n">
-        <v>700.0808204437244</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P15" t="n">
-        <v>561.8765786214699</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q15" t="n">
         <v>139.9817740860215</v>
@@ -32104,13 +32104,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S15" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T15" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U15" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
@@ -32150,25 +32150,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H16" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I16" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J16" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K16" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L16" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M16" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N16" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O16" t="n">
         <v>348.6767717920058</v>
@@ -32177,19 +32177,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q16" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R16" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S16" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T16" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U16" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32226,7 +32226,7 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H17" t="n">
         <v>56.32071997135341</v>
@@ -32238,31 +32238,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K17" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L17" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M17" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N17" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O17" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P17" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q17" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R17" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S17" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T17" t="n">
         <v>24.07361910651528</v>
@@ -32305,34 +32305,34 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H18" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I18" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J18" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K18" t="n">
-        <v>475.1391886422586</v>
+        <v>305.187676947251</v>
       </c>
       <c r="L18" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M18" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N18" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O18" t="n">
-        <v>398.7616643558013</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P18" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q18" t="n">
         <v>139.9817740860215</v>
@@ -32341,13 +32341,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S18" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T18" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U18" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V18" t="n">
         <v>0</v>
@@ -32387,25 +32387,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H19" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I19" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J19" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K19" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L19" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M19" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N19" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O19" t="n">
         <v>348.6767717920058</v>
@@ -32414,19 +32414,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q19" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R19" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S19" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T19" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U19" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -33180,7 +33180,7 @@
         <v>56.32071997135341</v>
       </c>
       <c r="I29" t="n">
-        <v>212.0155798067237</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J29" t="n">
         <v>466.7546155663283</v>
@@ -34207,7 +34207,7 @@
         <v>28.417755205211</v>
       </c>
       <c r="I42" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J42" t="n">
         <v>277.9958514420755</v>
@@ -34225,13 +34225,13 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O42" t="n">
-        <v>164.9290651940687</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P42" t="n">
         <v>133.9744074143302</v>
       </c>
       <c r="Q42" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R42" t="n">
         <v>145.679503963964</v>
@@ -34444,7 +34444,7 @@
         <v>28.417755205211</v>
       </c>
       <c r="I45" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J45" t="n">
         <v>277.9958514420755</v>
@@ -34456,13 +34456,13 @@
         <v>638.8832749473072</v>
       </c>
       <c r="M45" t="n">
-        <v>446.0127311990643</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N45" t="n">
         <v>765.2790490071785</v>
       </c>
       <c r="O45" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P45" t="n">
         <v>133.9744074143302</v>
@@ -34698,28 +34698,28 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>21.44873736705378</v>
+        <v>21.44873736705381</v>
       </c>
       <c r="K2" t="n">
-        <v>83.39712583292146</v>
+        <v>83.39712583292152</v>
       </c>
       <c r="L2" t="n">
-        <v>140.7360160012657</v>
+        <v>140.7360160012658</v>
       </c>
       <c r="M2" t="n">
         <v>188.5852654802096</v>
       </c>
       <c r="N2" t="n">
-        <v>196.297184739376</v>
+        <v>196.2971847393761</v>
       </c>
       <c r="O2" t="n">
-        <v>171.887904360565</v>
+        <v>171.8879043605651</v>
       </c>
       <c r="P2" t="n">
-        <v>111.8528537874004</v>
+        <v>111.8528537874005</v>
       </c>
       <c r="Q2" t="n">
-        <v>35.33749497130808</v>
+        <v>35.33749497130813</v>
       </c>
       <c r="R2" t="n">
         <v>0</v>
@@ -34780,10 +34780,10 @@
         <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>68.29072693268378</v>
+        <v>68.29072693268384</v>
       </c>
       <c r="L3" t="n">
-        <v>138.6157555714079</v>
+        <v>138.615755571408</v>
       </c>
       <c r="M3" t="n">
         <v>181.310440762227</v>
@@ -34795,7 +34795,7 @@
         <v>161.1235481502632</v>
       </c>
       <c r="P3" t="n">
-        <v>109.787502552827</v>
+        <v>109.7875025528271</v>
       </c>
       <c r="Q3" t="n">
         <v>89.7512331639593</v>
@@ -34859,16 +34859,16 @@
         <v>0</v>
       </c>
       <c r="K4" t="n">
-        <v>102.0686157531412</v>
+        <v>45.02901441547922</v>
       </c>
       <c r="L4" t="n">
-        <v>186.6999948493114</v>
+        <v>186.6999948493115</v>
       </c>
       <c r="M4" t="n">
-        <v>146.8505817925175</v>
+        <v>207.3430310295333</v>
       </c>
       <c r="N4" t="n">
-        <v>207.9023887233376</v>
+        <v>207.9023887233377</v>
       </c>
       <c r="O4" t="n">
         <v>175.8534296854534</v>
@@ -34877,7 +34877,7 @@
         <v>126.7147238369855</v>
       </c>
       <c r="Q4" t="n">
-        <v>3.452847899353401</v>
+        <v>0</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -34935,28 +34935,28 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>36.276255471083</v>
+        <v>36.27625547108249</v>
       </c>
       <c r="K5" t="n">
-        <v>105.6197318333092</v>
+        <v>105.6197318333084</v>
       </c>
       <c r="L5" t="n">
-        <v>168.3051238019885</v>
+        <v>168.3051238019875</v>
       </c>
       <c r="M5" t="n">
-        <v>219.2612099068918</v>
+        <v>219.2612099068907</v>
       </c>
       <c r="N5" t="n">
-        <v>227.4694980175944</v>
+        <v>227.4694980175934</v>
       </c>
       <c r="O5" t="n">
-        <v>201.3230358464515</v>
+        <v>201.3230358464504</v>
       </c>
       <c r="P5" t="n">
-        <v>136.9750575047692</v>
+        <v>136.9750575047684</v>
       </c>
       <c r="Q5" t="n">
-        <v>54.20322372320706</v>
+        <v>54.20322372320643</v>
       </c>
       <c r="R5" t="n">
         <v>0</v>
@@ -35014,28 +35014,28 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>2.59796302216327</v>
+        <v>2.597963022162958</v>
       </c>
       <c r="K6" t="n">
-        <v>83.38460000125272</v>
+        <v>212.0568568472677</v>
       </c>
       <c r="L6" t="n">
-        <v>158.9113306117291</v>
+        <v>158.9113306117284</v>
       </c>
       <c r="M6" t="n">
-        <v>204.9944195538511</v>
+        <v>204.9944195538503</v>
       </c>
       <c r="N6" t="n">
-        <v>224.974198643092</v>
+        <v>224.9741986430911</v>
       </c>
       <c r="O6" t="n">
-        <v>183.3632019066979</v>
+        <v>183.3632019066972</v>
       </c>
       <c r="P6" t="n">
-        <v>127.6367853748754</v>
+        <v>127.6367853748748</v>
       </c>
       <c r="Q6" t="n">
-        <v>163.5706369916336</v>
+        <v>34.89838014561573</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35096,25 +35096,25 @@
         <v>0</v>
       </c>
       <c r="K7" t="n">
-        <v>111.1731803179466</v>
+        <v>111.1731803179463</v>
       </c>
       <c r="L7" t="n">
-        <v>198.3507029003935</v>
+        <v>198.3507029003931</v>
       </c>
       <c r="M7" t="n">
-        <v>219.6270691195911</v>
+        <v>219.6270691195907</v>
       </c>
       <c r="N7" t="n">
-        <v>219.8943398437891</v>
+        <v>219.8943398437887</v>
       </c>
       <c r="O7" t="n">
-        <v>186.9299374987237</v>
+        <v>186.9299374987233</v>
       </c>
       <c r="P7" t="n">
-        <v>136.1925897970928</v>
+        <v>136.1925897970925</v>
       </c>
       <c r="Q7" t="n">
-        <v>10.01483101409698</v>
+        <v>10.01483101409676</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -35172,31 +35172,31 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>137.6579754225036</v>
+        <v>137.6579754225045</v>
       </c>
       <c r="K8" t="n">
-        <v>257.5646495407337</v>
+        <v>257.564649540735</v>
       </c>
       <c r="L8" t="n">
-        <v>356.8062301067507</v>
+        <v>356.8062301067523</v>
       </c>
       <c r="M8" t="n">
-        <v>429.0050109457276</v>
+        <v>429.0050109457294</v>
       </c>
       <c r="N8" t="n">
-        <v>440.6071730376314</v>
+        <v>440.6071730376332</v>
       </c>
       <c r="O8" t="n">
-        <v>402.5828984949726</v>
+        <v>402.5828984949743</v>
       </c>
       <c r="P8" t="n">
-        <v>308.7456939637948</v>
+        <v>308.7456939637963</v>
       </c>
       <c r="Q8" t="n">
-        <v>183.1958181402556</v>
+        <v>183.1958181402567</v>
       </c>
       <c r="R8" t="n">
-        <v>20.29166330939901</v>
+        <v>20.29166330939967</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -35251,31 +35251,31 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>189.0712562313262</v>
+        <v>62.98022089091791</v>
       </c>
       <c r="K9" t="n">
-        <v>355.3309544215495</v>
+        <v>451.0527332560642</v>
       </c>
       <c r="L9" t="n">
-        <v>297.6803606378501</v>
+        <v>352.633505753509</v>
       </c>
       <c r="M9" t="n">
-        <v>366.9313322820404</v>
+        <v>366.9313322820418</v>
       </c>
       <c r="N9" t="n">
-        <v>391.1970995928739</v>
+        <v>391.1970995928752</v>
       </c>
       <c r="O9" t="n">
-        <v>335.424681996123</v>
+        <v>335.4246819961242</v>
       </c>
       <c r="P9" t="n">
-        <v>249.6795291235322</v>
+        <v>249.6795291235333</v>
       </c>
       <c r="Q9" t="n">
-        <v>326.5580100667036</v>
+        <v>326.5580100667043</v>
       </c>
       <c r="R9" t="n">
-        <v>24.58388860977091</v>
+        <v>0</v>
       </c>
       <c r="S9" t="n">
         <v>0</v>
@@ -35330,28 +35330,28 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>25.72643735870592</v>
+        <v>25.72643735870624</v>
       </c>
       <c r="K10" t="n">
-        <v>173.424759342349</v>
+        <v>173.4247593423496</v>
       </c>
       <c r="L10" t="n">
-        <v>278.0112915831069</v>
+        <v>278.0112915831075</v>
       </c>
       <c r="M10" t="n">
-        <v>303.6179906468033</v>
+        <v>303.6179906468039</v>
       </c>
       <c r="N10" t="n">
-        <v>301.8881449860244</v>
+        <v>301.8881449860251</v>
       </c>
       <c r="O10" t="n">
-        <v>262.6644876295069</v>
+        <v>262.6644876295076</v>
       </c>
       <c r="P10" t="n">
-        <v>200.9965809818072</v>
+        <v>200.9965809818077</v>
       </c>
       <c r="Q10" t="n">
-        <v>54.881755458054</v>
+        <v>54.8817554580544</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
@@ -35406,34 +35406,34 @@
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J11" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K11" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L11" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M11" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N11" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O11" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P11" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q11" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R11" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35494,22 +35494,22 @@
         <v>0</v>
       </c>
       <c r="L12" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M12" t="n">
-        <v>477.985332142731</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N12" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O12" t="n">
-        <v>557.48457599928</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P12" t="n">
-        <v>427.9021712071396</v>
+        <v>37.7638331807514</v>
       </c>
       <c r="Q12" t="n">
-        <v>235.6178387625076</v>
+        <v>0</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35567,22 +35567,22 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K13" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L13" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M13" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N13" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O13" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P13" t="n">
         <v>295.631773306625</v>
@@ -35643,34 +35643,34 @@
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J14" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K14" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L14" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M14" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N14" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O14" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P14" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q14" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R14" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35731,19 +35731,19 @@
         <v>0</v>
       </c>
       <c r="L15" t="n">
-        <v>110.1905571410452</v>
+        <v>110.1905571410453</v>
       </c>
       <c r="M15" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N15" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O15" t="n">
-        <v>557.48457599928</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P15" t="n">
-        <v>427.9021712071396</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q15" t="n">
         <v>0</v>
@@ -35804,22 +35804,22 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K16" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L16" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M16" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N16" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O16" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P16" t="n">
         <v>295.631773306625</v>
@@ -35880,34 +35880,34 @@
         <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J17" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K17" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L17" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M17" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N17" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O17" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P17" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q17" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R17" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35959,28 +35959,28 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>1.785239600774929</v>
+        <v>0</v>
       </c>
       <c r="J18" t="n">
         <v>151.1582247754088</v>
       </c>
       <c r="K18" t="n">
-        <v>337.2977496678996</v>
+        <v>167.346237972892</v>
       </c>
       <c r="L18" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M18" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N18" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O18" t="n">
-        <v>256.1654199113569</v>
+        <v>0</v>
       </c>
       <c r="P18" t="n">
-        <v>0</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q18" t="n">
         <v>0</v>
@@ -36041,22 +36041,22 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K19" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L19" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M19" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N19" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O19" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P19" t="n">
         <v>295.631773306625</v>
@@ -36828,7 +36828,7 @@
         <v>0</v>
       </c>
       <c r="I29" t="n">
-        <v>1.539690236317809</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J29" t="n">
         <v>285.708711039642</v>
@@ -37855,7 +37855,7 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J42" t="n">
         <v>151.1582247754088</v>
@@ -37873,13 +37873,13 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O42" t="n">
-        <v>22.33282074962425</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P42" t="n">
         <v>0</v>
       </c>
       <c r="Q42" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R42" t="n">
         <v>0</v>
@@ -38025,7 +38025,7 @@
         <v>632.0799921462688</v>
       </c>
       <c r="M44" t="n">
-        <v>735.3001107902952</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N44" t="n">
         <v>751.8584478193516</v>
@@ -38092,7 +38092,7 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J45" t="n">
         <v>151.1582247754088</v>
@@ -38104,13 +38104,13 @@
         <v>500.328895167433</v>
       </c>
       <c r="M45" t="n">
-        <v>303.8786972770459</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N45" t="n">
         <v>633.9373369238452</v>
       </c>
       <c r="O45" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P45" t="n">
         <v>0</v>
